--- a/excel/1wk/two_line_alerts_1wk.xlsx
+++ b/excel/1wk/two_line_alerts_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O516"/>
+  <dimension ref="A1:O675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26779,6 +26779,8115 @@
         <v>2</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="C517" t="n">
+        <v>34</v>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>43521</v>
+      </c>
+      <c r="E517" t="n">
+        <v>10</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1219.699951171875</v>
+      </c>
+      <c r="G517" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="H517" t="n">
+        <v>23</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1219.900024414062</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K517" t="n">
+        <v>0.01539024939903846</v>
+      </c>
+      <c r="L517" t="n">
+        <v>1219.546048677885</v>
+      </c>
+      <c r="M517" t="n">
+        <v>10</v>
+      </c>
+      <c r="N517" t="n">
+        <v>1</v>
+      </c>
+      <c r="O517" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CGPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>38243</v>
+      </c>
+      <c r="C518" t="n">
+        <v>115</v>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>38019</v>
+      </c>
+      <c r="E518" t="n">
+        <v>83</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.5172730088233948</v>
+      </c>
+      <c r="G518" s="2" t="n">
+        <v>38166</v>
+      </c>
+      <c r="H518" t="n">
+        <v>104</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.520101010799408</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K518" t="n">
+        <v>0.0001346667607625326</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0.5060956676801046</v>
+      </c>
+      <c r="M518" t="n">
+        <v>10</v>
+      </c>
+      <c r="N518" t="n">
+        <v>1</v>
+      </c>
+      <c r="O518" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>38278</v>
+      </c>
+      <c r="C519" t="n">
+        <v>120</v>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>38110</v>
+      </c>
+      <c r="E519" t="n">
+        <v>96</v>
+      </c>
+      <c r="F519" t="n">
+        <v>4.439000129699707</v>
+      </c>
+      <c r="G519" s="2" t="n">
+        <v>38201</v>
+      </c>
+      <c r="H519" t="n">
+        <v>109</v>
+      </c>
+      <c r="I519" t="n">
+        <v>4.468999862670898</v>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K519" t="n">
+        <v>0.002307671767014724</v>
+      </c>
+      <c r="L519" t="n">
+        <v>4.217463640066294</v>
+      </c>
+      <c r="M519" t="n">
+        <v>10</v>
+      </c>
+      <c r="N519" t="n">
+        <v>1</v>
+      </c>
+      <c r="O519" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>38271</v>
+      </c>
+      <c r="C520" t="n">
+        <v>119</v>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>38068</v>
+      </c>
+      <c r="E520" t="n">
+        <v>90</v>
+      </c>
+      <c r="F520" t="n">
+        <v>49.04999923706055</v>
+      </c>
+      <c r="G520" s="2" t="n">
+        <v>38194</v>
+      </c>
+      <c r="H520" t="n">
+        <v>108</v>
+      </c>
+      <c r="I520" t="n">
+        <v>49</v>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K520" t="n">
+        <v>-0.002777735392252604</v>
+      </c>
+      <c r="L520" t="n">
+        <v>49.29999542236328</v>
+      </c>
+      <c r="M520" t="n">
+        <v>10</v>
+      </c>
+      <c r="N520" t="n">
+        <v>1</v>
+      </c>
+      <c r="O520" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>AVADHSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="C521" t="n">
+        <v>171</v>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="E521" t="n">
+        <v>149</v>
+      </c>
+      <c r="F521" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="G521" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="H521" t="n">
+        <v>160</v>
+      </c>
+      <c r="I521" t="n">
+        <v>210.3999938964844</v>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K521" t="n">
+        <v>0.1454537131569602</v>
+      </c>
+      <c r="L521" t="n">
+        <v>187.1273997913707</v>
+      </c>
+      <c r="M521" t="n">
+        <v>10</v>
+      </c>
+      <c r="N521" t="n">
+        <v>1</v>
+      </c>
+      <c r="O521" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>38523</v>
+      </c>
+      <c r="C522" t="n">
+        <v>155</v>
+      </c>
+      <c r="D522" s="2" t="n">
+        <v>38439</v>
+      </c>
+      <c r="E522" t="n">
+        <v>143</v>
+      </c>
+      <c r="F522" t="n">
+        <v>72</v>
+      </c>
+      <c r="G522" s="2" t="n">
+        <v>38446</v>
+      </c>
+      <c r="H522" t="n">
+        <v>144</v>
+      </c>
+      <c r="I522" t="n">
+        <v>72</v>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L522" t="n">
+        <v>72</v>
+      </c>
+      <c r="M522" t="n">
+        <v>10</v>
+      </c>
+      <c r="N522" t="n">
+        <v>1</v>
+      </c>
+      <c r="O522" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>38439</v>
+      </c>
+      <c r="C523" t="n">
+        <v>143</v>
+      </c>
+      <c r="D523" s="2" t="n">
+        <v>38355</v>
+      </c>
+      <c r="E523" t="n">
+        <v>131</v>
+      </c>
+      <c r="F523" t="n">
+        <v>82</v>
+      </c>
+      <c r="G523" s="2" t="n">
+        <v>38362</v>
+      </c>
+      <c r="H523" t="n">
+        <v>132</v>
+      </c>
+      <c r="I523" t="n">
+        <v>82</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L523" t="n">
+        <v>82</v>
+      </c>
+      <c r="M523" t="n">
+        <v>10</v>
+      </c>
+      <c r="N523" t="n">
+        <v>1</v>
+      </c>
+      <c r="O523" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>38656</v>
+      </c>
+      <c r="C524" t="n">
+        <v>174</v>
+      </c>
+      <c r="D524" s="2" t="n">
+        <v>38334</v>
+      </c>
+      <c r="E524" t="n">
+        <v>128</v>
+      </c>
+      <c r="F524" t="n">
+        <v>83.05000305175781</v>
+      </c>
+      <c r="G524" s="2" t="n">
+        <v>38418</v>
+      </c>
+      <c r="H524" t="n">
+        <v>140</v>
+      </c>
+      <c r="I524" t="n">
+        <v>82.90000152587891</v>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K524" t="n">
+        <v>-0.01250012715657552</v>
+      </c>
+      <c r="L524" t="n">
+        <v>84.65001932779948</v>
+      </c>
+      <c r="M524" t="n">
+        <v>10</v>
+      </c>
+      <c r="N524" t="n">
+        <v>1</v>
+      </c>
+      <c r="O524" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>CGPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>38929</v>
+      </c>
+      <c r="C525" t="n">
+        <v>213</v>
+      </c>
+      <c r="D525" s="2" t="n">
+        <v>38845</v>
+      </c>
+      <c r="E525" t="n">
+        <v>201</v>
+      </c>
+      <c r="F525" t="n">
+        <v>4.949307918548584</v>
+      </c>
+      <c r="G525" s="2" t="n">
+        <v>38852</v>
+      </c>
+      <c r="H525" t="n">
+        <v>202</v>
+      </c>
+      <c r="I525" t="n">
+        <v>4.949307918548584</v>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L525" t="n">
+        <v>4.949307918548584</v>
+      </c>
+      <c r="M525" t="n">
+        <v>10</v>
+      </c>
+      <c r="N525" t="n">
+        <v>1</v>
+      </c>
+      <c r="O525" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>ADANIPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>41750</v>
+      </c>
+      <c r="C526" t="n">
+        <v>244</v>
+      </c>
+      <c r="D526" s="2" t="n">
+        <v>41666</v>
+      </c>
+      <c r="E526" t="n">
+        <v>232</v>
+      </c>
+      <c r="F526" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="G526" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="H526" t="n">
+        <v>233</v>
+      </c>
+      <c r="I526" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="M526" t="n">
+        <v>10</v>
+      </c>
+      <c r="N526" t="n">
+        <v>1</v>
+      </c>
+      <c r="O526" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>AVADHSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C527" t="n">
+        <v>240</v>
+      </c>
+      <c r="D527" s="2" t="n">
+        <v>44529</v>
+      </c>
+      <c r="E527" t="n">
+        <v>226</v>
+      </c>
+      <c r="F527" t="n">
+        <v>396</v>
+      </c>
+      <c r="G527" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="H527" t="n">
+        <v>229</v>
+      </c>
+      <c r="I527" t="n">
+        <v>396</v>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>396</v>
+      </c>
+      <c r="M527" t="n">
+        <v>10</v>
+      </c>
+      <c r="N527" t="n">
+        <v>1</v>
+      </c>
+      <c r="O527" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C528" t="n">
+        <v>271</v>
+      </c>
+      <c r="D528" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="E528" t="n">
+        <v>247</v>
+      </c>
+      <c r="F528" t="n">
+        <v>2424.75</v>
+      </c>
+      <c r="G528" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="H528" t="n">
+        <v>260</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2430.699951171875</v>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K528" t="n">
+        <v>0.4576885516826923</v>
+      </c>
+      <c r="L528" t="n">
+        <v>2311.700927734375</v>
+      </c>
+      <c r="M528" t="n">
+        <v>10</v>
+      </c>
+      <c r="N528" t="n">
+        <v>1</v>
+      </c>
+      <c r="O528" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>CGPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>39482</v>
+      </c>
+      <c r="C529" t="n">
+        <v>292</v>
+      </c>
+      <c r="D529" s="2" t="n">
+        <v>39391</v>
+      </c>
+      <c r="E529" t="n">
+        <v>279</v>
+      </c>
+      <c r="F529" t="n">
+        <v>89.48349761962891</v>
+      </c>
+      <c r="G529" s="2" t="n">
+        <v>39405</v>
+      </c>
+      <c r="H529" t="n">
+        <v>281</v>
+      </c>
+      <c r="I529" t="n">
+        <v>89.48349761962891</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>89.48349761962891</v>
+      </c>
+      <c r="M529" t="n">
+        <v>10</v>
+      </c>
+      <c r="N529" t="n">
+        <v>1</v>
+      </c>
+      <c r="O529" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>AVADHSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C530" t="n">
+        <v>286</v>
+      </c>
+      <c r="D530" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="E530" t="n">
+        <v>255</v>
+      </c>
+      <c r="F530" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="G530" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="H530" t="n">
+        <v>275</v>
+      </c>
+      <c r="I530" t="n">
+        <v>467.5499877929688</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K530" t="n">
+        <v>-0.02750091552734375</v>
+      </c>
+      <c r="L530" t="n">
+        <v>475.1127395629883</v>
+      </c>
+      <c r="M530" t="n">
+        <v>10</v>
+      </c>
+      <c r="N530" t="n">
+        <v>1</v>
+      </c>
+      <c r="O530" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>39104</v>
+      </c>
+      <c r="C531" t="n">
+        <v>238</v>
+      </c>
+      <c r="D531" s="2" t="n">
+        <v>39006</v>
+      </c>
+      <c r="E531" t="n">
+        <v>224</v>
+      </c>
+      <c r="F531" t="n">
+        <v>460</v>
+      </c>
+      <c r="G531" s="2" t="n">
+        <v>39027</v>
+      </c>
+      <c r="H531" t="n">
+        <v>227</v>
+      </c>
+      <c r="I531" t="n">
+        <v>460</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>460</v>
+      </c>
+      <c r="M531" t="n">
+        <v>10</v>
+      </c>
+      <c r="N531" t="n">
+        <v>1</v>
+      </c>
+      <c r="O531" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>40259</v>
+      </c>
+      <c r="C532" t="n">
+        <v>403</v>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>40105</v>
+      </c>
+      <c r="E532" t="n">
+        <v>381</v>
+      </c>
+      <c r="F532" t="n">
+        <v>203.9928741455078</v>
+      </c>
+      <c r="G532" s="2" t="n">
+        <v>40182</v>
+      </c>
+      <c r="H532" t="n">
+        <v>392</v>
+      </c>
+      <c r="I532" t="n">
+        <v>205.0062866210938</v>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K532" t="n">
+        <v>0.09212840687144887</v>
+      </c>
+      <c r="L532" t="n">
+        <v>168.8919511274858</v>
+      </c>
+      <c r="M532" t="n">
+        <v>10</v>
+      </c>
+      <c r="N532" t="n">
+        <v>1</v>
+      </c>
+      <c r="O532" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>39391</v>
+      </c>
+      <c r="C533" t="n">
+        <v>279</v>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>39139</v>
+      </c>
+      <c r="E533" t="n">
+        <v>243</v>
+      </c>
+      <c r="F533" t="n">
+        <v>50</v>
+      </c>
+      <c r="G533" s="2" t="n">
+        <v>39314</v>
+      </c>
+      <c r="H533" t="n">
+        <v>268</v>
+      </c>
+      <c r="I533" t="n">
+        <v>49.79999923706055</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K533" t="n">
+        <v>-0.008000030517578124</v>
+      </c>
+      <c r="L533" t="n">
+        <v>51.94400741577149</v>
+      </c>
+      <c r="M533" t="n">
+        <v>10</v>
+      </c>
+      <c r="N533" t="n">
+        <v>1</v>
+      </c>
+      <c r="O533" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>39706</v>
+      </c>
+      <c r="C534" t="n">
+        <v>324</v>
+      </c>
+      <c r="D534" s="2" t="n">
+        <v>39531</v>
+      </c>
+      <c r="E534" t="n">
+        <v>299</v>
+      </c>
+      <c r="F534" t="n">
+        <v>39</v>
+      </c>
+      <c r="G534" s="2" t="n">
+        <v>39629</v>
+      </c>
+      <c r="H534" t="n">
+        <v>313</v>
+      </c>
+      <c r="I534" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K534" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="L534" t="n">
+        <v>33.66071428571428</v>
+      </c>
+      <c r="M534" t="n">
+        <v>10</v>
+      </c>
+      <c r="N534" t="n">
+        <v>1</v>
+      </c>
+      <c r="O534" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>39853</v>
+      </c>
+      <c r="C535" t="n">
+        <v>345</v>
+      </c>
+      <c r="D535" s="2" t="n">
+        <v>39769</v>
+      </c>
+      <c r="E535" t="n">
+        <v>333</v>
+      </c>
+      <c r="F535" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="G535" s="2" t="n">
+        <v>39776</v>
+      </c>
+      <c r="H535" t="n">
+        <v>334</v>
+      </c>
+      <c r="I535" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="M535" t="n">
+        <v>10</v>
+      </c>
+      <c r="N535" t="n">
+        <v>1</v>
+      </c>
+      <c r="O535" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>39748</v>
+      </c>
+      <c r="C536" t="n">
+        <v>330</v>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>39664</v>
+      </c>
+      <c r="E536" t="n">
+        <v>318</v>
+      </c>
+      <c r="F536" t="n">
+        <v>999</v>
+      </c>
+      <c r="G536" s="2" t="n">
+        <v>39671</v>
+      </c>
+      <c r="H536" t="n">
+        <v>319</v>
+      </c>
+      <c r="I536" t="n">
+        <v>999</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>999</v>
+      </c>
+      <c r="M536" t="n">
+        <v>10</v>
+      </c>
+      <c r="N536" t="n">
+        <v>1</v>
+      </c>
+      <c r="O536" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>39867</v>
+      </c>
+      <c r="C537" t="n">
+        <v>347</v>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>39748</v>
+      </c>
+      <c r="E537" t="n">
+        <v>330</v>
+      </c>
+      <c r="F537" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="G537" s="2" t="n">
+        <v>39790</v>
+      </c>
+      <c r="H537" t="n">
+        <v>336</v>
+      </c>
+      <c r="I537" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="M537" t="n">
+        <v>10</v>
+      </c>
+      <c r="N537" t="n">
+        <v>1</v>
+      </c>
+      <c r="O537" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>39923</v>
+      </c>
+      <c r="C538" t="n">
+        <v>355</v>
+      </c>
+      <c r="D538" s="2" t="n">
+        <v>39818</v>
+      </c>
+      <c r="E538" t="n">
+        <v>340</v>
+      </c>
+      <c r="F538" t="n">
+        <v>860</v>
+      </c>
+      <c r="G538" s="2" t="n">
+        <v>39846</v>
+      </c>
+      <c r="H538" t="n">
+        <v>344</v>
+      </c>
+      <c r="I538" t="n">
+        <v>860</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>860</v>
+      </c>
+      <c r="M538" t="n">
+        <v>10</v>
+      </c>
+      <c r="N538" t="n">
+        <v>1</v>
+      </c>
+      <c r="O538" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>40364</v>
+      </c>
+      <c r="C539" t="n">
+        <v>418</v>
+      </c>
+      <c r="D539" s="2" t="n">
+        <v>40189</v>
+      </c>
+      <c r="E539" t="n">
+        <v>393</v>
+      </c>
+      <c r="F539" t="n">
+        <v>317.3973388671875</v>
+      </c>
+      <c r="G539" s="2" t="n">
+        <v>40287</v>
+      </c>
+      <c r="H539" t="n">
+        <v>407</v>
+      </c>
+      <c r="I539" t="n">
+        <v>320</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K539" t="n">
+        <v>0.1859043666294643</v>
+      </c>
+      <c r="L539" t="n">
+        <v>244.336922781808</v>
+      </c>
+      <c r="M539" t="n">
+        <v>10</v>
+      </c>
+      <c r="N539" t="n">
+        <v>1</v>
+      </c>
+      <c r="O539" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>DWARKESH.NS</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="C540" t="n">
+        <v>546</v>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="E540" t="n">
+        <v>534</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1.924999952316284</v>
+      </c>
+      <c r="G540" s="2" t="n">
+        <v>42093</v>
+      </c>
+      <c r="H540" t="n">
+        <v>535</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1.924999952316284</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>1.924999952316284</v>
+      </c>
+      <c r="M540" t="n">
+        <v>10</v>
+      </c>
+      <c r="N540" t="n">
+        <v>1</v>
+      </c>
+      <c r="O540" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>41694</v>
+      </c>
+      <c r="C541" t="n">
+        <v>608</v>
+      </c>
+      <c r="D541" s="2" t="n">
+        <v>41596</v>
+      </c>
+      <c r="E541" t="n">
+        <v>594</v>
+      </c>
+      <c r="F541" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G541" s="2" t="n">
+        <v>41617</v>
+      </c>
+      <c r="H541" t="n">
+        <v>597</v>
+      </c>
+      <c r="I541" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L541" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M541" t="n">
+        <v>10</v>
+      </c>
+      <c r="N541" t="n">
+        <v>1</v>
+      </c>
+      <c r="O541" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>41155</v>
+      </c>
+      <c r="C542" t="n">
+        <v>531</v>
+      </c>
+      <c r="D542" s="2" t="n">
+        <v>41043</v>
+      </c>
+      <c r="E542" t="n">
+        <v>515</v>
+      </c>
+      <c r="F542" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G542" s="2" t="n">
+        <v>41078</v>
+      </c>
+      <c r="H542" t="n">
+        <v>520</v>
+      </c>
+      <c r="I542" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L542" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="M542" t="n">
+        <v>10</v>
+      </c>
+      <c r="N542" t="n">
+        <v>1</v>
+      </c>
+      <c r="O542" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>ADANIPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="C543" t="n">
+        <v>586</v>
+      </c>
+      <c r="D543" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="E543" t="n">
+        <v>563</v>
+      </c>
+      <c r="F543" t="n">
+        <v>41.90000152587891</v>
+      </c>
+      <c r="G543" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="H543" t="n">
+        <v>575</v>
+      </c>
+      <c r="I543" t="n">
+        <v>41.59999847412109</v>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K543" t="n">
+        <v>-0.02500025431315104</v>
+      </c>
+      <c r="L543" t="n">
+        <v>55.97514470418295</v>
+      </c>
+      <c r="M543" t="n">
+        <v>10</v>
+      </c>
+      <c r="N543" t="n">
+        <v>1</v>
+      </c>
+      <c r="O543" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>41127</v>
+      </c>
+      <c r="C544" t="n">
+        <v>527</v>
+      </c>
+      <c r="D544" s="2" t="n">
+        <v>40875</v>
+      </c>
+      <c r="E544" t="n">
+        <v>491</v>
+      </c>
+      <c r="F544" t="n">
+        <v>485</v>
+      </c>
+      <c r="G544" s="2" t="n">
+        <v>41050</v>
+      </c>
+      <c r="H544" t="n">
+        <v>516</v>
+      </c>
+      <c r="I544" t="n">
+        <v>481</v>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K544" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L544" t="n">
+        <v>563.5599999999999</v>
+      </c>
+      <c r="M544" t="n">
+        <v>10</v>
+      </c>
+      <c r="N544" t="n">
+        <v>1</v>
+      </c>
+      <c r="O544" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>41582</v>
+      </c>
+      <c r="C545" t="n">
+        <v>592</v>
+      </c>
+      <c r="D545" s="2" t="n">
+        <v>41491</v>
+      </c>
+      <c r="E545" t="n">
+        <v>579</v>
+      </c>
+      <c r="F545" t="n">
+        <v>28</v>
+      </c>
+      <c r="G545" s="2" t="n">
+        <v>41505</v>
+      </c>
+      <c r="H545" t="n">
+        <v>581</v>
+      </c>
+      <c r="I545" t="n">
+        <v>28</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>28</v>
+      </c>
+      <c r="M545" t="n">
+        <v>10</v>
+      </c>
+      <c r="N545" t="n">
+        <v>1</v>
+      </c>
+      <c r="O545" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>41589</v>
+      </c>
+      <c r="C546" t="n">
+        <v>593</v>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>41491</v>
+      </c>
+      <c r="E546" t="n">
+        <v>579</v>
+      </c>
+      <c r="F546" t="n">
+        <v>28</v>
+      </c>
+      <c r="G546" s="2" t="n">
+        <v>41512</v>
+      </c>
+      <c r="H546" t="n">
+        <v>582</v>
+      </c>
+      <c r="I546" t="n">
+        <v>28</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>28</v>
+      </c>
+      <c r="M546" t="n">
+        <v>10</v>
+      </c>
+      <c r="N546" t="n">
+        <v>1</v>
+      </c>
+      <c r="O546" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>41589</v>
+      </c>
+      <c r="C547" t="n">
+        <v>593</v>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>41505</v>
+      </c>
+      <c r="E547" t="n">
+        <v>581</v>
+      </c>
+      <c r="F547" t="n">
+        <v>28</v>
+      </c>
+      <c r="G547" s="2" t="n">
+        <v>41512</v>
+      </c>
+      <c r="H547" t="n">
+        <v>582</v>
+      </c>
+      <c r="I547" t="n">
+        <v>28</v>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>28</v>
+      </c>
+      <c r="M547" t="n">
+        <v>10</v>
+      </c>
+      <c r="N547" t="n">
+        <v>1</v>
+      </c>
+      <c r="O547" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>41288</v>
+      </c>
+      <c r="C548" t="n">
+        <v>550</v>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>41204</v>
+      </c>
+      <c r="E548" t="n">
+        <v>538</v>
+      </c>
+      <c r="F548" t="n">
+        <v>900</v>
+      </c>
+      <c r="G548" s="2" t="n">
+        <v>41211</v>
+      </c>
+      <c r="H548" t="n">
+        <v>539</v>
+      </c>
+      <c r="I548" t="n">
+        <v>900</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>900</v>
+      </c>
+      <c r="M548" t="n">
+        <v>10</v>
+      </c>
+      <c r="N548" t="n">
+        <v>1</v>
+      </c>
+      <c r="O548" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="C549" t="n">
+        <v>605</v>
+      </c>
+      <c r="D549" s="2" t="n">
+        <v>41505</v>
+      </c>
+      <c r="E549" t="n">
+        <v>581</v>
+      </c>
+      <c r="F549" t="n">
+        <v>28</v>
+      </c>
+      <c r="G549" s="2" t="n">
+        <v>41596</v>
+      </c>
+      <c r="H549" t="n">
+        <v>594</v>
+      </c>
+      <c r="I549" t="n">
+        <v>27.89999961853027</v>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K549" t="n">
+        <v>-0.007692337036132812</v>
+      </c>
+      <c r="L549" t="n">
+        <v>32.46924781799316</v>
+      </c>
+      <c r="M549" t="n">
+        <v>10</v>
+      </c>
+      <c r="N549" t="n">
+        <v>1</v>
+      </c>
+      <c r="O549" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="C550" t="n">
+        <v>605</v>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>41512</v>
+      </c>
+      <c r="E550" t="n">
+        <v>582</v>
+      </c>
+      <c r="F550" t="n">
+        <v>28</v>
+      </c>
+      <c r="G550" s="2" t="n">
+        <v>41596</v>
+      </c>
+      <c r="H550" t="n">
+        <v>594</v>
+      </c>
+      <c r="I550" t="n">
+        <v>27.89999961853027</v>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K550" t="n">
+        <v>-0.008333365122477213</v>
+      </c>
+      <c r="L550" t="n">
+        <v>32.85001850128174</v>
+      </c>
+      <c r="M550" t="n">
+        <v>10</v>
+      </c>
+      <c r="N550" t="n">
+        <v>1</v>
+      </c>
+      <c r="O550" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>41750</v>
+      </c>
+      <c r="C551" t="n">
+        <v>616</v>
+      </c>
+      <c r="D551" s="2" t="n">
+        <v>41512</v>
+      </c>
+      <c r="E551" t="n">
+        <v>582</v>
+      </c>
+      <c r="F551" t="n">
+        <v>28</v>
+      </c>
+      <c r="G551" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="H551" t="n">
+        <v>605</v>
+      </c>
+      <c r="I551" t="n">
+        <v>28</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L551" t="n">
+        <v>28</v>
+      </c>
+      <c r="M551" t="n">
+        <v>10</v>
+      </c>
+      <c r="N551" t="n">
+        <v>1</v>
+      </c>
+      <c r="O551" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>41750</v>
+      </c>
+      <c r="C552" t="n">
+        <v>616</v>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>41596</v>
+      </c>
+      <c r="E552" t="n">
+        <v>594</v>
+      </c>
+      <c r="F552" t="n">
+        <v>27.89999961853027</v>
+      </c>
+      <c r="G552" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="H552" t="n">
+        <v>605</v>
+      </c>
+      <c r="I552" t="n">
+        <v>28</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K552" t="n">
+        <v>0.009090943769975142</v>
+      </c>
+      <c r="L552" t="n">
+        <v>22.49997901916504</v>
+      </c>
+      <c r="M552" t="n">
+        <v>10</v>
+      </c>
+      <c r="N552" t="n">
+        <v>1</v>
+      </c>
+      <c r="O552" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>41876</v>
+      </c>
+      <c r="C553" t="n">
+        <v>634</v>
+      </c>
+      <c r="D553" s="2" t="n">
+        <v>41792</v>
+      </c>
+      <c r="E553" t="n">
+        <v>622</v>
+      </c>
+      <c r="F553" t="n">
+        <v>68</v>
+      </c>
+      <c r="G553" s="2" t="n">
+        <v>41799</v>
+      </c>
+      <c r="H553" t="n">
+        <v>623</v>
+      </c>
+      <c r="I553" t="n">
+        <v>68</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>68</v>
+      </c>
+      <c r="M553" t="n">
+        <v>10</v>
+      </c>
+      <c r="N553" t="n">
+        <v>1</v>
+      </c>
+      <c r="O553" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C554" t="n">
+        <v>709</v>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>42296</v>
+      </c>
+      <c r="E554" t="n">
+        <v>694</v>
+      </c>
+      <c r="F554" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="G554" s="2" t="n">
+        <v>42324</v>
+      </c>
+      <c r="H554" t="n">
+        <v>698</v>
+      </c>
+      <c r="I554" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L554" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M554" t="n">
+        <v>10</v>
+      </c>
+      <c r="N554" t="n">
+        <v>1</v>
+      </c>
+      <c r="O554" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>41750</v>
+      </c>
+      <c r="C555" t="n">
+        <v>616</v>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E555" t="n">
+        <v>589</v>
+      </c>
+      <c r="F555" t="n">
+        <v>705</v>
+      </c>
+      <c r="G555" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="H555" t="n">
+        <v>605</v>
+      </c>
+      <c r="I555" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K555" t="n">
+        <v>-0.2468757629394531</v>
+      </c>
+      <c r="L555" t="n">
+        <v>850.4098243713379</v>
+      </c>
+      <c r="M555" t="n">
+        <v>10</v>
+      </c>
+      <c r="N555" t="n">
+        <v>1</v>
+      </c>
+      <c r="O555" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>42198</v>
+      </c>
+      <c r="C556" t="n">
+        <v>680</v>
+      </c>
+      <c r="D556" s="2" t="n">
+        <v>42065</v>
+      </c>
+      <c r="E556" t="n">
+        <v>661</v>
+      </c>
+      <c r="F556" t="n">
+        <v>78</v>
+      </c>
+      <c r="G556" s="2" t="n">
+        <v>42121</v>
+      </c>
+      <c r="H556" t="n">
+        <v>669</v>
+      </c>
+      <c r="I556" t="n">
+        <v>78</v>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>78</v>
+      </c>
+      <c r="M556" t="n">
+        <v>10</v>
+      </c>
+      <c r="N556" t="n">
+        <v>1</v>
+      </c>
+      <c r="O556" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>42303</v>
+      </c>
+      <c r="C557" t="n">
+        <v>695</v>
+      </c>
+      <c r="D557" s="2" t="n">
+        <v>41946</v>
+      </c>
+      <c r="E557" t="n">
+        <v>644</v>
+      </c>
+      <c r="F557" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="G557" s="2" t="n">
+        <v>42226</v>
+      </c>
+      <c r="H557" t="n">
+        <v>684</v>
+      </c>
+      <c r="I557" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K557" t="n">
+        <v>0.01499996185302734</v>
+      </c>
+      <c r="L557" t="n">
+        <v>84.24002609252929</v>
+      </c>
+      <c r="M557" t="n">
+        <v>10</v>
+      </c>
+      <c r="N557" t="n">
+        <v>1</v>
+      </c>
+      <c r="O557" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>42331</v>
+      </c>
+      <c r="C558" t="n">
+        <v>699</v>
+      </c>
+      <c r="D558" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="E558" t="n">
+        <v>687</v>
+      </c>
+      <c r="F558" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="G558" s="2" t="n">
+        <v>42254</v>
+      </c>
+      <c r="H558" t="n">
+        <v>688</v>
+      </c>
+      <c r="I558" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="M558" t="n">
+        <v>10</v>
+      </c>
+      <c r="N558" t="n">
+        <v>1</v>
+      </c>
+      <c r="O558" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C559" t="n">
+        <v>716</v>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>42226</v>
+      </c>
+      <c r="E559" t="n">
+        <v>684</v>
+      </c>
+      <c r="F559" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="G559" s="2" t="n">
+        <v>42373</v>
+      </c>
+      <c r="H559" t="n">
+        <v>705</v>
+      </c>
+      <c r="I559" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M559" t="n">
+        <v>10</v>
+      </c>
+      <c r="N559" t="n">
+        <v>1</v>
+      </c>
+      <c r="O559" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>42723</v>
+      </c>
+      <c r="C560" t="n">
+        <v>755</v>
+      </c>
+      <c r="D560" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="E560" t="n">
+        <v>735</v>
+      </c>
+      <c r="F560" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="G560" s="2" t="n">
+        <v>42646</v>
+      </c>
+      <c r="H560" t="n">
+        <v>744</v>
+      </c>
+      <c r="I560" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="M560" t="n">
+        <v>10</v>
+      </c>
+      <c r="N560" t="n">
+        <v>1</v>
+      </c>
+      <c r="O560" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>42800</v>
+      </c>
+      <c r="C561" t="n">
+        <v>766</v>
+      </c>
+      <c r="D561" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E561" t="n">
+        <v>710</v>
+      </c>
+      <c r="F561" t="n">
+        <v>336.3200073242188</v>
+      </c>
+      <c r="G561" s="2" t="n">
+        <v>42723</v>
+      </c>
+      <c r="H561" t="n">
+        <v>755</v>
+      </c>
+      <c r="I561" t="n">
+        <v>337.7760009765625</v>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K561" t="n">
+        <v>0.03235541449652778</v>
+      </c>
+      <c r="L561" t="n">
+        <v>313.347663031684</v>
+      </c>
+      <c r="M561" t="n">
+        <v>10</v>
+      </c>
+      <c r="N561" t="n">
+        <v>1</v>
+      </c>
+      <c r="O561" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>43115</v>
+      </c>
+      <c r="C562" t="n">
+        <v>811</v>
+      </c>
+      <c r="D562" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="E562" t="n">
+        <v>788</v>
+      </c>
+      <c r="F562" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="G562" s="2" t="n">
+        <v>43038</v>
+      </c>
+      <c r="H562" t="n">
+        <v>800</v>
+      </c>
+      <c r="I562" t="n">
+        <v>190</v>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K562" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L562" t="n">
+        <v>90</v>
+      </c>
+      <c r="M562" t="n">
+        <v>10</v>
+      </c>
+      <c r="N562" t="n">
+        <v>1</v>
+      </c>
+      <c r="O562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="C563" t="n">
+        <v>849</v>
+      </c>
+      <c r="D563" s="2" t="n">
+        <v>43297</v>
+      </c>
+      <c r="E563" t="n">
+        <v>837</v>
+      </c>
+      <c r="F563" t="n">
+        <v>48</v>
+      </c>
+      <c r="G563" s="2" t="n">
+        <v>43304</v>
+      </c>
+      <c r="H563" t="n">
+        <v>838</v>
+      </c>
+      <c r="I563" t="n">
+        <v>48</v>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L563" t="n">
+        <v>48</v>
+      </c>
+      <c r="M563" t="n">
+        <v>10</v>
+      </c>
+      <c r="N563" t="n">
+        <v>1</v>
+      </c>
+      <c r="O563" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="C564" t="n">
+        <v>874</v>
+      </c>
+      <c r="D564" s="2" t="n">
+        <v>43234</v>
+      </c>
+      <c r="E564" t="n">
+        <v>828</v>
+      </c>
+      <c r="F564" t="n">
+        <v>569.47998046875</v>
+      </c>
+      <c r="G564" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="H564" t="n">
+        <v>863</v>
+      </c>
+      <c r="I564" t="n">
+        <v>564</v>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K564" t="n">
+        <v>-0.1565708705357143</v>
+      </c>
+      <c r="L564" t="n">
+        <v>699.1206612723214</v>
+      </c>
+      <c r="M564" t="n">
+        <v>10</v>
+      </c>
+      <c r="N564" t="n">
+        <v>1</v>
+      </c>
+      <c r="O564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>43675</v>
+      </c>
+      <c r="C565" t="n">
+        <v>891</v>
+      </c>
+      <c r="D565" s="2" t="n">
+        <v>43521</v>
+      </c>
+      <c r="E565" t="n">
+        <v>869</v>
+      </c>
+      <c r="F565" t="n">
+        <v>461.1000061035156</v>
+      </c>
+      <c r="G565" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="H565" t="n">
+        <v>880</v>
+      </c>
+      <c r="I565" t="n">
+        <v>462.7000122070312</v>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K565" t="n">
+        <v>0.1454551003196023</v>
+      </c>
+      <c r="L565" t="n">
+        <v>334.6995239257812</v>
+      </c>
+      <c r="M565" t="n">
+        <v>10</v>
+      </c>
+      <c r="N565" t="n">
+        <v>1</v>
+      </c>
+      <c r="O565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>43675</v>
+      </c>
+      <c r="C566" t="n">
+        <v>891</v>
+      </c>
+      <c r="D566" s="2" t="n">
+        <v>43507</v>
+      </c>
+      <c r="E566" t="n">
+        <v>867</v>
+      </c>
+      <c r="F566" t="n">
+        <v>67.84999847412109</v>
+      </c>
+      <c r="G566" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="H566" t="n">
+        <v>880</v>
+      </c>
+      <c r="I566" t="n">
+        <v>67.90000152587891</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K566" t="n">
+        <v>0.003846388596754808</v>
+      </c>
+      <c r="L566" t="n">
+        <v>64.51517956073468</v>
+      </c>
+      <c r="M566" t="n">
+        <v>10</v>
+      </c>
+      <c r="N566" t="n">
+        <v>1</v>
+      </c>
+      <c r="O566" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="C567" t="n">
+        <v>905</v>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>43521</v>
+      </c>
+      <c r="E567" t="n">
+        <v>869</v>
+      </c>
+      <c r="F567" t="n">
+        <v>461.1000061035156</v>
+      </c>
+      <c r="G567" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="H567" t="n">
+        <v>894</v>
+      </c>
+      <c r="I567" t="n">
+        <v>460</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K567" t="n">
+        <v>-0.044000244140625</v>
+      </c>
+      <c r="L567" t="n">
+        <v>499.3362182617187</v>
+      </c>
+      <c r="M567" t="n">
+        <v>10</v>
+      </c>
+      <c r="N567" t="n">
+        <v>1</v>
+      </c>
+      <c r="O567" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="C568" t="n">
+        <v>905</v>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="E568" t="n">
+        <v>880</v>
+      </c>
+      <c r="F568" t="n">
+        <v>462.7000122070312</v>
+      </c>
+      <c r="G568" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="H568" t="n">
+        <v>894</v>
+      </c>
+      <c r="I568" t="n">
+        <v>460</v>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K568" t="n">
+        <v>-0.1928580147879464</v>
+      </c>
+      <c r="L568" t="n">
+        <v>632.4150652204241</v>
+      </c>
+      <c r="M568" t="n">
+        <v>10</v>
+      </c>
+      <c r="N568" t="n">
+        <v>1</v>
+      </c>
+      <c r="O568" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="C569" t="n">
+        <v>924</v>
+      </c>
+      <c r="D569" s="2" t="n">
+        <v>43528</v>
+      </c>
+      <c r="E569" t="n">
+        <v>870</v>
+      </c>
+      <c r="F569" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="G569" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="H569" t="n">
+        <v>913</v>
+      </c>
+      <c r="I569" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K569" t="n">
+        <v>-0.02325581395348837</v>
+      </c>
+      <c r="L569" t="n">
+        <v>155.7325581395349</v>
+      </c>
+      <c r="M569" t="n">
+        <v>10</v>
+      </c>
+      <c r="N569" t="n">
+        <v>1</v>
+      </c>
+      <c r="O569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="C570" t="n">
+        <v>957</v>
+      </c>
+      <c r="D570" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="E570" t="n">
+        <v>882</v>
+      </c>
+      <c r="F570" t="n">
+        <v>81.90000152587891</v>
+      </c>
+      <c r="G570" s="2" t="n">
+        <v>44060</v>
+      </c>
+      <c r="H570" t="n">
+        <v>946</v>
+      </c>
+      <c r="I570" t="n">
+        <v>82.69999694824219</v>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K570" t="n">
+        <v>0.01249992847442627</v>
+      </c>
+      <c r="L570" t="n">
+        <v>70.87506461143494</v>
+      </c>
+      <c r="M570" t="n">
+        <v>10</v>
+      </c>
+      <c r="N570" t="n">
+        <v>1</v>
+      </c>
+      <c r="O570" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="C571" t="n">
+        <v>992</v>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E571" t="n">
+        <v>970</v>
+      </c>
+      <c r="F571" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="G571" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="H571" t="n">
+        <v>981</v>
+      </c>
+      <c r="I571" t="n">
+        <v>72.05000305175781</v>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K571" t="n">
+        <v>-0.01818154074928977</v>
+      </c>
+      <c r="L571" t="n">
+        <v>89.88609452681108</v>
+      </c>
+      <c r="M571" t="n">
+        <v>10</v>
+      </c>
+      <c r="N571" t="n">
+        <v>1</v>
+      </c>
+      <c r="O571" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>44529</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D572" s="2" t="n">
+        <v>44354</v>
+      </c>
+      <c r="E572" t="n">
+        <v>988</v>
+      </c>
+      <c r="F572" t="n">
+        <v>748</v>
+      </c>
+      <c r="G572" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="H572" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I572" t="n">
+        <v>754.4000244140625</v>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K572" t="n">
+        <v>0.4571446010044643</v>
+      </c>
+      <c r="L572" t="n">
+        <v>296.3411342075893</v>
+      </c>
+      <c r="M572" t="n">
+        <v>10</v>
+      </c>
+      <c r="N572" t="n">
+        <v>1</v>
+      </c>
+      <c r="O572" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D573" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="E573" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F573" t="n">
+        <v>556</v>
+      </c>
+      <c r="G573" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1037</v>
+      </c>
+      <c r="I573" t="n">
+        <v>554</v>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K573" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="L573" t="n">
+        <v>726.8333333333333</v>
+      </c>
+      <c r="M573" t="n">
+        <v>10</v>
+      </c>
+      <c r="N573" t="n">
+        <v>1</v>
+      </c>
+      <c r="O573" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="E574" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F574" t="n">
+        <v>311.25</v>
+      </c>
+      <c r="G574" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1082</v>
+      </c>
+      <c r="I574" t="n">
+        <v>310.1000061035156</v>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K574" t="n">
+        <v>-0.05749969482421875</v>
+      </c>
+      <c r="L574" t="n">
+        <v>372.3146759033203</v>
+      </c>
+      <c r="M574" t="n">
+        <v>10</v>
+      </c>
+      <c r="N574" t="n">
+        <v>1</v>
+      </c>
+      <c r="O574" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="E575" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F575" t="n">
+        <v>96.34999847412109</v>
+      </c>
+      <c r="G575" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="H575" t="n">
+        <v>1054</v>
+      </c>
+      <c r="I575" t="n">
+        <v>96.94999694824219</v>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K575" t="n">
+        <v>0.01764701394473805</v>
+      </c>
+      <c r="L575" t="n">
+        <v>78.35004425048828</v>
+      </c>
+      <c r="M575" t="n">
+        <v>10</v>
+      </c>
+      <c r="N575" t="n">
+        <v>1</v>
+      </c>
+      <c r="O575" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="E576" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F576" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="G576" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H576" t="n">
+        <v>1082</v>
+      </c>
+      <c r="I576" t="n">
+        <v>70.80000305175781</v>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K576" t="n">
+        <v>0.008750152587890626</v>
+      </c>
+      <c r="L576" t="n">
+        <v>61.33233795166016</v>
+      </c>
+      <c r="M576" t="n">
+        <v>10</v>
+      </c>
+      <c r="N576" t="n">
+        <v>1</v>
+      </c>
+      <c r="O576" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>40623</v>
+      </c>
+      <c r="C577" t="n">
+        <v>30</v>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>40539</v>
+      </c>
+      <c r="E577" t="n">
+        <v>18</v>
+      </c>
+      <c r="F577" t="n">
+        <v>22.20000076293945</v>
+      </c>
+      <c r="G577" s="2" t="n">
+        <v>40546</v>
+      </c>
+      <c r="H577" t="n">
+        <v>19</v>
+      </c>
+      <c r="I577" t="n">
+        <v>22.20000076293945</v>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>22.20000076293945</v>
+      </c>
+      <c r="M577" t="n">
+        <v>10</v>
+      </c>
+      <c r="N577" t="n">
+        <v>1</v>
+      </c>
+      <c r="O577" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="C578" t="n">
+        <v>50</v>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>44375</v>
+      </c>
+      <c r="E578" t="n">
+        <v>22</v>
+      </c>
+      <c r="F578" t="n">
+        <v>26.45000076293945</v>
+      </c>
+      <c r="G578" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H578" t="n">
+        <v>39</v>
+      </c>
+      <c r="I578" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K578" t="n">
+        <v>-0.002941243788775276</v>
+      </c>
+      <c r="L578" t="n">
+        <v>26.51470812629251</v>
+      </c>
+      <c r="M578" t="n">
+        <v>10</v>
+      </c>
+      <c r="N578" t="n">
+        <v>1</v>
+      </c>
+      <c r="O578" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>37781</v>
+      </c>
+      <c r="C579" t="n">
+        <v>49</v>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>37550</v>
+      </c>
+      <c r="E579" t="n">
+        <v>16</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1.799999952316284</v>
+      </c>
+      <c r="G579" s="2" t="n">
+        <v>37704</v>
+      </c>
+      <c r="H579" t="n">
+        <v>38</v>
+      </c>
+      <c r="I579" t="n">
+        <v>1.809999942779541</v>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K579" t="n">
+        <v>0.0004545450210571289</v>
+      </c>
+      <c r="L579" t="n">
+        <v>1.79272723197937</v>
+      </c>
+      <c r="M579" t="n">
+        <v>10</v>
+      </c>
+      <c r="N579" t="n">
+        <v>1</v>
+      </c>
+      <c r="O579" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>40567</v>
+      </c>
+      <c r="C580" t="n">
+        <v>36</v>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>40455</v>
+      </c>
+      <c r="E580" t="n">
+        <v>20</v>
+      </c>
+      <c r="F580" t="n">
+        <v>25.79999923706055</v>
+      </c>
+      <c r="G580" s="2" t="n">
+        <v>40490</v>
+      </c>
+      <c r="H580" t="n">
+        <v>25</v>
+      </c>
+      <c r="I580" t="n">
+        <v>25.79999923706055</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L580" t="n">
+        <v>25.79999923706055</v>
+      </c>
+      <c r="M580" t="n">
+        <v>10</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C581" t="n">
+        <v>67</v>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="E581" t="n">
+        <v>11</v>
+      </c>
+      <c r="F581" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="G581" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="H581" t="n">
+        <v>56</v>
+      </c>
+      <c r="I581" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K581" t="n">
+        <v>0.002222230699327257</v>
+      </c>
+      <c r="L581" t="n">
+        <v>20.77555469936795</v>
+      </c>
+      <c r="M581" t="n">
+        <v>10</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>39454</v>
+      </c>
+      <c r="C582" t="n">
+        <v>70</v>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>39370</v>
+      </c>
+      <c r="E582" t="n">
+        <v>58</v>
+      </c>
+      <c r="F582" t="n">
+        <v>20</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>39377</v>
+      </c>
+      <c r="H582" t="n">
+        <v>59</v>
+      </c>
+      <c r="I582" t="n">
+        <v>20</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>20</v>
+      </c>
+      <c r="M582" t="n">
+        <v>10</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>RVNL.NS</t>
+        </is>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="C583" t="n">
+        <v>93</v>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="E583" t="n">
+        <v>81</v>
+      </c>
+      <c r="F583" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="G583" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="H583" t="n">
+        <v>82</v>
+      </c>
+      <c r="I583" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="M583" t="n">
+        <v>10</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>37963</v>
+      </c>
+      <c r="C584" t="n">
+        <v>75</v>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>37879</v>
+      </c>
+      <c r="E584" t="n">
+        <v>63</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2.630000114440918</v>
+      </c>
+      <c r="G584" s="2" t="n">
+        <v>37886</v>
+      </c>
+      <c r="H584" t="n">
+        <v>64</v>
+      </c>
+      <c r="I584" t="n">
+        <v>2.630000114440918</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>2.630000114440918</v>
+      </c>
+      <c r="M584" t="n">
+        <v>10</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="C585" t="n">
+        <v>149</v>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="E585" t="n">
+        <v>124</v>
+      </c>
+      <c r="F585" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="G585" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="H585" t="n">
+        <v>138</v>
+      </c>
+      <c r="I585" t="n">
+        <v>54</v>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K585" t="n">
+        <v>-0.01785714285714286</v>
+      </c>
+      <c r="L585" t="n">
+        <v>56.46428571428572</v>
+      </c>
+      <c r="M585" t="n">
+        <v>10</v>
+      </c>
+      <c r="N585" t="n">
+        <v>1</v>
+      </c>
+      <c r="O585" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>40791</v>
+      </c>
+      <c r="C586" t="n">
+        <v>105</v>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>40581</v>
+      </c>
+      <c r="E586" t="n">
+        <v>75</v>
+      </c>
+      <c r="F586" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G586" s="2" t="n">
+        <v>40616</v>
+      </c>
+      <c r="H586" t="n">
+        <v>80</v>
+      </c>
+      <c r="I586" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M586" t="n">
+        <v>10</v>
+      </c>
+      <c r="N586" t="n">
+        <v>1</v>
+      </c>
+      <c r="O586" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>40791</v>
+      </c>
+      <c r="C587" t="n">
+        <v>105</v>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>40581</v>
+      </c>
+      <c r="E587" t="n">
+        <v>75</v>
+      </c>
+      <c r="F587" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G587" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="H587" t="n">
+        <v>94</v>
+      </c>
+      <c r="I587" t="n">
+        <v>22.45000076293945</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K587" t="n">
+        <v>0.01052635594418174</v>
+      </c>
+      <c r="L587" t="n">
+        <v>21.46052330418637</v>
+      </c>
+      <c r="M587" t="n">
+        <v>10</v>
+      </c>
+      <c r="N587" t="n">
+        <v>1</v>
+      </c>
+      <c r="O587" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>40791</v>
+      </c>
+      <c r="C588" t="n">
+        <v>105</v>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>40616</v>
+      </c>
+      <c r="E588" t="n">
+        <v>80</v>
+      </c>
+      <c r="F588" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G588" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="H588" t="n">
+        <v>94</v>
+      </c>
+      <c r="I588" t="n">
+        <v>22.45000076293945</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K588" t="n">
+        <v>0.01428576878138951</v>
+      </c>
+      <c r="L588" t="n">
+        <v>21.10713849748884</v>
+      </c>
+      <c r="M588" t="n">
+        <v>10</v>
+      </c>
+      <c r="N588" t="n">
+        <v>1</v>
+      </c>
+      <c r="O588" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>39741</v>
+      </c>
+      <c r="C589" t="n">
+        <v>155</v>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>39580</v>
+      </c>
+      <c r="E589" t="n">
+        <v>132</v>
+      </c>
+      <c r="F589" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="G589" s="2" t="n">
+        <v>39664</v>
+      </c>
+      <c r="H589" t="n">
+        <v>144</v>
+      </c>
+      <c r="I589" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K589" t="n">
+        <v>0.05833307902018229</v>
+      </c>
+      <c r="L589" t="n">
+        <v>62.80003356933594</v>
+      </c>
+      <c r="M589" t="n">
+        <v>10</v>
+      </c>
+      <c r="N589" t="n">
+        <v>1</v>
+      </c>
+      <c r="O589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>41197</v>
+      </c>
+      <c r="C590" t="n">
+        <v>112</v>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>40742</v>
+      </c>
+      <c r="E590" t="n">
+        <v>47</v>
+      </c>
+      <c r="F590" t="n">
+        <v>18</v>
+      </c>
+      <c r="G590" s="2" t="n">
+        <v>41120</v>
+      </c>
+      <c r="H590" t="n">
+        <v>101</v>
+      </c>
+      <c r="I590" t="n">
+        <v>17.89999961853027</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K590" t="n">
+        <v>-0.001851858916106047</v>
+      </c>
+      <c r="L590" t="n">
+        <v>18.08703736905698</v>
+      </c>
+      <c r="M590" t="n">
+        <v>10</v>
+      </c>
+      <c r="N590" t="n">
+        <v>1</v>
+      </c>
+      <c r="O590" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C591" t="n">
+        <v>129</v>
+      </c>
+      <c r="D591" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E591" t="n">
+        <v>96</v>
+      </c>
+      <c r="F591" t="n">
+        <v>37.09999847412109</v>
+      </c>
+      <c r="G591" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="H591" t="n">
+        <v>118</v>
+      </c>
+      <c r="I591" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K591" t="n">
+        <v>0.01363650235262784</v>
+      </c>
+      <c r="L591" t="n">
+        <v>35.79089424826882</v>
+      </c>
+      <c r="M591" t="n">
+        <v>10</v>
+      </c>
+      <c r="N591" t="n">
+        <v>1</v>
+      </c>
+      <c r="O591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>38152</v>
+      </c>
+      <c r="C592" t="n">
+        <v>102</v>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>38068</v>
+      </c>
+      <c r="E592" t="n">
+        <v>90</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3.650000095367432</v>
+      </c>
+      <c r="G592" s="2" t="n">
+        <v>38075</v>
+      </c>
+      <c r="H592" t="n">
+        <v>91</v>
+      </c>
+      <c r="I592" t="n">
+        <v>3.650000095367432</v>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L592" t="n">
+        <v>3.650000095367432</v>
+      </c>
+      <c r="M592" t="n">
+        <v>10</v>
+      </c>
+      <c r="N592" t="n">
+        <v>1</v>
+      </c>
+      <c r="O592" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>40931</v>
+      </c>
+      <c r="C593" t="n">
+        <v>125</v>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>40847</v>
+      </c>
+      <c r="E593" t="n">
+        <v>113</v>
+      </c>
+      <c r="F593" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="G593" s="2" t="n">
+        <v>40854</v>
+      </c>
+      <c r="H593" t="n">
+        <v>114</v>
+      </c>
+      <c r="I593" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L593" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M593" t="n">
+        <v>10</v>
+      </c>
+      <c r="N593" t="n">
+        <v>1</v>
+      </c>
+      <c r="O593" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>41134</v>
+      </c>
+      <c r="C594" t="n">
+        <v>117</v>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>41050</v>
+      </c>
+      <c r="E594" t="n">
+        <v>105</v>
+      </c>
+      <c r="F594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G594" s="2" t="n">
+        <v>41057</v>
+      </c>
+      <c r="H594" t="n">
+        <v>106</v>
+      </c>
+      <c r="I594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M594" t="n">
+        <v>10</v>
+      </c>
+      <c r="N594" t="n">
+        <v>1</v>
+      </c>
+      <c r="O594" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>41435</v>
+      </c>
+      <c r="C595" t="n">
+        <v>146</v>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>40903</v>
+      </c>
+      <c r="E595" t="n">
+        <v>70</v>
+      </c>
+      <c r="F595" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G595" s="2" t="n">
+        <v>41358</v>
+      </c>
+      <c r="H595" t="n">
+        <v>135</v>
+      </c>
+      <c r="I595" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M595" t="n">
+        <v>10</v>
+      </c>
+      <c r="N595" t="n">
+        <v>1</v>
+      </c>
+      <c r="O595" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>39363</v>
+      </c>
+      <c r="C596" t="n">
+        <v>147</v>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>39160</v>
+      </c>
+      <c r="E596" t="n">
+        <v>118</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="G596" s="2" t="n">
+        <v>39286</v>
+      </c>
+      <c r="H596" t="n">
+        <v>136</v>
+      </c>
+      <c r="I596" t="n">
+        <v>1.101732969284058</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K596" t="n">
+        <v>9.627474678887261e-05</v>
+      </c>
+      <c r="L596" t="n">
+        <v>1.088639603720771</v>
+      </c>
+      <c r="M596" t="n">
+        <v>10</v>
+      </c>
+      <c r="N596" t="n">
+        <v>1</v>
+      </c>
+      <c r="O596" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>41316</v>
+      </c>
+      <c r="C597" t="n">
+        <v>143</v>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>41050</v>
+      </c>
+      <c r="E597" t="n">
+        <v>105</v>
+      </c>
+      <c r="F597" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G597" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="H597" t="n">
+        <v>132</v>
+      </c>
+      <c r="I597" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M597" t="n">
+        <v>10</v>
+      </c>
+      <c r="N597" t="n">
+        <v>1</v>
+      </c>
+      <c r="O597" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>41568</v>
+      </c>
+      <c r="C598" t="n">
+        <v>165</v>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>41358</v>
+      </c>
+      <c r="E598" t="n">
+        <v>135</v>
+      </c>
+      <c r="F598" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G598" s="2" t="n">
+        <v>41491</v>
+      </c>
+      <c r="H598" t="n">
+        <v>154</v>
+      </c>
+      <c r="I598" t="n">
+        <v>9.449999809265137</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K598" t="n">
+        <v>-0.002631588986045436</v>
+      </c>
+      <c r="L598" t="n">
+        <v>9.855264513116134</v>
+      </c>
+      <c r="M598" t="n">
+        <v>10</v>
+      </c>
+      <c r="N598" t="n">
+        <v>1</v>
+      </c>
+      <c r="O598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>RVNL.NS</t>
+        </is>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C599" t="n">
+        <v>178</v>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="E599" t="n">
+        <v>150</v>
+      </c>
+      <c r="F599" t="n">
+        <v>29</v>
+      </c>
+      <c r="G599" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="H599" t="n">
+        <v>167</v>
+      </c>
+      <c r="I599" t="n">
+        <v>29.04999923706055</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K599" t="n">
+        <v>0.002941131591796875</v>
+      </c>
+      <c r="L599" t="n">
+        <v>28.55883026123047</v>
+      </c>
+      <c r="M599" t="n">
+        <v>10</v>
+      </c>
+      <c r="N599" t="n">
+        <v>1</v>
+      </c>
+      <c r="O599" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>MAZDOCK.NS</t>
+        </is>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C600" t="n">
+        <v>181</v>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="E600" t="n">
+        <v>151</v>
+      </c>
+      <c r="F600" t="n">
+        <v>2484.699951171875</v>
+      </c>
+      <c r="G600" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="H600" t="n">
+        <v>170</v>
+      </c>
+      <c r="I600" t="n">
+        <v>2492</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K600" t="n">
+        <v>0.3842130962171053</v>
+      </c>
+      <c r="L600" t="n">
+        <v>2426.683773643092</v>
+      </c>
+      <c r="M600" t="n">
+        <v>10</v>
+      </c>
+      <c r="N600" t="n">
+        <v>1</v>
+      </c>
+      <c r="O600" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="C601" t="n">
+        <v>157</v>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>41057</v>
+      </c>
+      <c r="E601" t="n">
+        <v>106</v>
+      </c>
+      <c r="F601" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G601" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="H601" t="n">
+        <v>132</v>
+      </c>
+      <c r="I601" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L601" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M601" t="n">
+        <v>10</v>
+      </c>
+      <c r="N601" t="n">
+        <v>1</v>
+      </c>
+      <c r="O601" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="C602" t="n">
+        <v>157</v>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="E602" t="n">
+        <v>132</v>
+      </c>
+      <c r="F602" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G602" s="2" t="n">
+        <v>41337</v>
+      </c>
+      <c r="H602" t="n">
+        <v>146</v>
+      </c>
+      <c r="I602" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K602" t="n">
+        <v>-0.0107142584664481</v>
+      </c>
+      <c r="L602" t="n">
+        <v>19.81428173610142</v>
+      </c>
+      <c r="M602" t="n">
+        <v>10</v>
+      </c>
+      <c r="N602" t="n">
+        <v>1</v>
+      </c>
+      <c r="O602" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="C603" t="n">
+        <v>194</v>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>41043</v>
+      </c>
+      <c r="E603" t="n">
+        <v>141</v>
+      </c>
+      <c r="F603" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="G603" s="2" t="n">
+        <v>41162</v>
+      </c>
+      <c r="H603" t="n">
+        <v>158</v>
+      </c>
+      <c r="I603" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K603" t="n">
+        <v>0.008823506972369026</v>
+      </c>
+      <c r="L603" t="n">
+        <v>15.90588513542624</v>
+      </c>
+      <c r="M603" t="n">
+        <v>10</v>
+      </c>
+      <c r="N603" t="n">
+        <v>1</v>
+      </c>
+      <c r="O603" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>38824</v>
+      </c>
+      <c r="C604" t="n">
+        <v>198</v>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>38642</v>
+      </c>
+      <c r="E604" t="n">
+        <v>172</v>
+      </c>
+      <c r="F604" t="n">
+        <v>90.40000152587891</v>
+      </c>
+      <c r="G604" s="2" t="n">
+        <v>38747</v>
+      </c>
+      <c r="H604" t="n">
+        <v>187</v>
+      </c>
+      <c r="I604" t="n">
+        <v>91</v>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K604" t="n">
+        <v>0.03999989827473958</v>
+      </c>
+      <c r="L604" t="n">
+        <v>83.5200190226237</v>
+      </c>
+      <c r="M604" t="n">
+        <v>10</v>
+      </c>
+      <c r="N604" t="n">
+        <v>1</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="C605" t="n">
+        <v>230</v>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>41022</v>
+      </c>
+      <c r="E605" t="n">
+        <v>181</v>
+      </c>
+      <c r="F605" t="n">
+        <v>189.8999938964844</v>
+      </c>
+      <c r="G605" s="2" t="n">
+        <v>41288</v>
+      </c>
+      <c r="H605" t="n">
+        <v>219</v>
+      </c>
+      <c r="I605" t="n">
+        <v>189.1999969482422</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K605" t="n">
+        <v>-0.01842097232216283</v>
+      </c>
+      <c r="L605" t="n">
+        <v>193.2341898867959</v>
+      </c>
+      <c r="M605" t="n">
+        <v>10</v>
+      </c>
+      <c r="N605" t="n">
+        <v>1</v>
+      </c>
+      <c r="O605" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>41617</v>
+      </c>
+      <c r="C606" t="n">
+        <v>186</v>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="E606" t="n">
+        <v>132</v>
+      </c>
+      <c r="F606" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G606" s="2" t="n">
+        <v>41540</v>
+      </c>
+      <c r="H606" t="n">
+        <v>175</v>
+      </c>
+      <c r="I606" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K606" t="n">
+        <v>-0.003488363221634266</v>
+      </c>
+      <c r="L606" t="n">
+        <v>18.86046356378599</v>
+      </c>
+      <c r="M606" t="n">
+        <v>10</v>
+      </c>
+      <c r="N606" t="n">
+        <v>1</v>
+      </c>
+      <c r="O606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>40840</v>
+      </c>
+      <c r="C607" t="n">
+        <v>268</v>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>40679</v>
+      </c>
+      <c r="E607" t="n">
+        <v>245</v>
+      </c>
+      <c r="F607" t="n">
+        <v>13</v>
+      </c>
+      <c r="G607" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="H607" t="n">
+        <v>257</v>
+      </c>
+      <c r="I607" t="n">
+        <v>13</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L607" t="n">
+        <v>13</v>
+      </c>
+      <c r="M607" t="n">
+        <v>10</v>
+      </c>
+      <c r="N607" t="n">
+        <v>1</v>
+      </c>
+      <c r="O607" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>40847</v>
+      </c>
+      <c r="C608" t="n">
+        <v>269</v>
+      </c>
+      <c r="D608" s="2" t="n">
+        <v>40679</v>
+      </c>
+      <c r="E608" t="n">
+        <v>245</v>
+      </c>
+      <c r="F608" t="n">
+        <v>13</v>
+      </c>
+      <c r="G608" s="2" t="n">
+        <v>40770</v>
+      </c>
+      <c r="H608" t="n">
+        <v>258</v>
+      </c>
+      <c r="I608" t="n">
+        <v>13</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L608" t="n">
+        <v>13</v>
+      </c>
+      <c r="M608" t="n">
+        <v>10</v>
+      </c>
+      <c r="N608" t="n">
+        <v>1</v>
+      </c>
+      <c r="O608" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>41764</v>
+      </c>
+      <c r="C609" t="n">
+        <v>207</v>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>41337</v>
+      </c>
+      <c r="E609" t="n">
+        <v>146</v>
+      </c>
+      <c r="F609" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G609" s="2" t="n">
+        <v>41540</v>
+      </c>
+      <c r="H609" t="n">
+        <v>175</v>
+      </c>
+      <c r="I609" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L609" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M609" t="n">
+        <v>10</v>
+      </c>
+      <c r="N609" t="n">
+        <v>1</v>
+      </c>
+      <c r="O609" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>42275</v>
+      </c>
+      <c r="C610" t="n">
+        <v>266</v>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="E610" t="n">
+        <v>239</v>
+      </c>
+      <c r="F610" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="G610" s="2" t="n">
+        <v>42198</v>
+      </c>
+      <c r="H610" t="n">
+        <v>255</v>
+      </c>
+      <c r="I610" t="n">
+        <v>7.349999904632568</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K610" t="n">
+        <v>-0.003125011920928955</v>
+      </c>
+      <c r="L610" t="n">
+        <v>8.146877944469452</v>
+      </c>
+      <c r="M610" t="n">
+        <v>10</v>
+      </c>
+      <c r="N610" t="n">
+        <v>1</v>
+      </c>
+      <c r="O610" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>39139</v>
+      </c>
+      <c r="C611" t="n">
+        <v>269</v>
+      </c>
+      <c r="D611" s="2" t="n">
+        <v>38880</v>
+      </c>
+      <c r="E611" t="n">
+        <v>232</v>
+      </c>
+      <c r="F611" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="G611" s="2" t="n">
+        <v>38922</v>
+      </c>
+      <c r="H611" t="n">
+        <v>238</v>
+      </c>
+      <c r="I611" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="M611" t="n">
+        <v>10</v>
+      </c>
+      <c r="N611" t="n">
+        <v>1</v>
+      </c>
+      <c r="O611" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>42282</v>
+      </c>
+      <c r="C612" t="n">
+        <v>267</v>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>42198</v>
+      </c>
+      <c r="E612" t="n">
+        <v>255</v>
+      </c>
+      <c r="F612" t="n">
+        <v>7.349999904632568</v>
+      </c>
+      <c r="G612" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="H612" t="n">
+        <v>256</v>
+      </c>
+      <c r="I612" t="n">
+        <v>7.349999904632568</v>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>7.349999904632568</v>
+      </c>
+      <c r="M612" t="n">
+        <v>10</v>
+      </c>
+      <c r="N612" t="n">
+        <v>1</v>
+      </c>
+      <c r="O612" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>40434</v>
+      </c>
+      <c r="C613" t="n">
+        <v>300</v>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>40343</v>
+      </c>
+      <c r="E613" t="n">
+        <v>287</v>
+      </c>
+      <c r="F613" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G613" s="2" t="n">
+        <v>40357</v>
+      </c>
+      <c r="H613" t="n">
+        <v>289</v>
+      </c>
+      <c r="I613" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M613" t="n">
+        <v>10</v>
+      </c>
+      <c r="N613" t="n">
+        <v>1</v>
+      </c>
+      <c r="O613" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>39328</v>
+      </c>
+      <c r="C614" t="n">
+        <v>270</v>
+      </c>
+      <c r="D614" s="2" t="n">
+        <v>39244</v>
+      </c>
+      <c r="E614" t="n">
+        <v>258</v>
+      </c>
+      <c r="F614" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="G614" s="2" t="n">
+        <v>39251</v>
+      </c>
+      <c r="H614" t="n">
+        <v>259</v>
+      </c>
+      <c r="I614" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M614" t="n">
+        <v>10</v>
+      </c>
+      <c r="N614" t="n">
+        <v>1</v>
+      </c>
+      <c r="O614" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>42114</v>
+      </c>
+      <c r="C615" t="n">
+        <v>257</v>
+      </c>
+      <c r="D615" s="2" t="n">
+        <v>41946</v>
+      </c>
+      <c r="E615" t="n">
+        <v>233</v>
+      </c>
+      <c r="F615" t="n">
+        <v>26.64999961853027</v>
+      </c>
+      <c r="G615" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="H615" t="n">
+        <v>246</v>
+      </c>
+      <c r="I615" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K615" t="n">
+        <v>0.007692337036132812</v>
+      </c>
+      <c r="L615" t="n">
+        <v>24.85768508911133</v>
+      </c>
+      <c r="M615" t="n">
+        <v>10</v>
+      </c>
+      <c r="N615" t="n">
+        <v>1</v>
+      </c>
+      <c r="O615" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>39706</v>
+      </c>
+      <c r="C616" t="n">
+        <v>350</v>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>39531</v>
+      </c>
+      <c r="E616" t="n">
+        <v>325</v>
+      </c>
+      <c r="F616" t="n">
+        <v>13</v>
+      </c>
+      <c r="G616" s="2" t="n">
+        <v>39629</v>
+      </c>
+      <c r="H616" t="n">
+        <v>339</v>
+      </c>
+      <c r="I616" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K616" t="n">
+        <v>-0.007142884390694755</v>
+      </c>
+      <c r="L616" t="n">
+        <v>15.32143742697579</v>
+      </c>
+      <c r="M616" t="n">
+        <v>10</v>
+      </c>
+      <c r="N616" t="n">
+        <v>1</v>
+      </c>
+      <c r="O616" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>NCC.NS</t>
+        </is>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>40266</v>
+      </c>
+      <c r="C617" t="n">
+        <v>398</v>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>40098</v>
+      </c>
+      <c r="E617" t="n">
+        <v>374</v>
+      </c>
+      <c r="F617" t="n">
+        <v>112.6175079345703</v>
+      </c>
+      <c r="G617" s="2" t="n">
+        <v>40189</v>
+      </c>
+      <c r="H617" t="n">
+        <v>387</v>
+      </c>
+      <c r="I617" t="n">
+        <v>111.5158157348633</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K617" t="n">
+        <v>-0.08474555382361779</v>
+      </c>
+      <c r="L617" t="n">
+        <v>144.3123450646034</v>
+      </c>
+      <c r="M617" t="n">
+        <v>10</v>
+      </c>
+      <c r="N617" t="n">
+        <v>1</v>
+      </c>
+      <c r="O617" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>41071</v>
+      </c>
+      <c r="C618" t="n">
+        <v>391</v>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>40987</v>
+      </c>
+      <c r="E618" t="n">
+        <v>379</v>
+      </c>
+      <c r="F618" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="G618" s="2" t="n">
+        <v>40994</v>
+      </c>
+      <c r="H618" t="n">
+        <v>380</v>
+      </c>
+      <c r="I618" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="M618" t="n">
+        <v>10</v>
+      </c>
+      <c r="N618" t="n">
+        <v>1</v>
+      </c>
+      <c r="O618" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>39832</v>
+      </c>
+      <c r="C619" t="n">
+        <v>342</v>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>39748</v>
+      </c>
+      <c r="E619" t="n">
+        <v>330</v>
+      </c>
+      <c r="F619" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="G619" s="2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="H619" t="n">
+        <v>331</v>
+      </c>
+      <c r="I619" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="M619" t="n">
+        <v>10</v>
+      </c>
+      <c r="N619" t="n">
+        <v>1</v>
+      </c>
+      <c r="O619" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>43129</v>
+      </c>
+      <c r="C620" t="n">
+        <v>388</v>
+      </c>
+      <c r="D620" s="2" t="n">
+        <v>42716</v>
+      </c>
+      <c r="E620" t="n">
+        <v>329</v>
+      </c>
+      <c r="F620" t="n">
+        <v>22</v>
+      </c>
+      <c r="G620" s="2" t="n">
+        <v>43052</v>
+      </c>
+      <c r="H620" t="n">
+        <v>377</v>
+      </c>
+      <c r="I620" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K620" t="n">
+        <v>-0.004166682561238606</v>
+      </c>
+      <c r="L620" t="n">
+        <v>23.3708385626475</v>
+      </c>
+      <c r="M620" t="n">
+        <v>10</v>
+      </c>
+      <c r="N620" t="n">
+        <v>1</v>
+      </c>
+      <c r="O620" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>41358</v>
+      </c>
+      <c r="C621" t="n">
+        <v>422</v>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>41190</v>
+      </c>
+      <c r="E621" t="n">
+        <v>398</v>
+      </c>
+      <c r="F621" t="n">
+        <v>62.21470260620117</v>
+      </c>
+      <c r="G621" s="2" t="n">
+        <v>41281</v>
+      </c>
+      <c r="H621" t="n">
+        <v>411</v>
+      </c>
+      <c r="I621" t="n">
+        <v>62.56149673461914</v>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K621" t="n">
+        <v>0.02667647141676683</v>
+      </c>
+      <c r="L621" t="n">
+        <v>51.59746698232797</v>
+      </c>
+      <c r="M621" t="n">
+        <v>10</v>
+      </c>
+      <c r="N621" t="n">
+        <v>1</v>
+      </c>
+      <c r="O621" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C622" t="n">
+        <v>421</v>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>42296</v>
+      </c>
+      <c r="E622" t="n">
+        <v>399</v>
+      </c>
+      <c r="F622" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="G622" s="2" t="n">
+        <v>42373</v>
+      </c>
+      <c r="H622" t="n">
+        <v>410</v>
+      </c>
+      <c r="I622" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L622" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="M622" t="n">
+        <v>10</v>
+      </c>
+      <c r="N622" t="n">
+        <v>1</v>
+      </c>
+      <c r="O622" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="C623" t="n">
+        <v>424</v>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>43297</v>
+      </c>
+      <c r="E623" t="n">
+        <v>412</v>
+      </c>
+      <c r="F623" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G623" s="2" t="n">
+        <v>43304</v>
+      </c>
+      <c r="H623" t="n">
+        <v>413</v>
+      </c>
+      <c r="I623" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L623" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M623" t="n">
+        <v>10</v>
+      </c>
+      <c r="N623" t="n">
+        <v>1</v>
+      </c>
+      <c r="O623" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>42485</v>
+      </c>
+      <c r="C624" t="n">
+        <v>426</v>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>42240</v>
+      </c>
+      <c r="E624" t="n">
+        <v>391</v>
+      </c>
+      <c r="F624" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="G624" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="H624" t="n">
+        <v>415</v>
+      </c>
+      <c r="I624" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L624" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="M624" t="n">
+        <v>10</v>
+      </c>
+      <c r="N624" t="n">
+        <v>1</v>
+      </c>
+      <c r="O624" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="C625" t="n">
+        <v>446</v>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>42905</v>
+      </c>
+      <c r="E625" t="n">
+        <v>407</v>
+      </c>
+      <c r="F625" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G625" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H625" t="n">
+        <v>435</v>
+      </c>
+      <c r="I625" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L625" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M625" t="n">
+        <v>10</v>
+      </c>
+      <c r="N625" t="n">
+        <v>1</v>
+      </c>
+      <c r="O625" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>40266</v>
+      </c>
+      <c r="C626" t="n">
+        <v>430</v>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>39972</v>
+      </c>
+      <c r="E626" t="n">
+        <v>388</v>
+      </c>
+      <c r="F626" t="n">
+        <v>14.47000026702881</v>
+      </c>
+      <c r="G626" s="2" t="n">
+        <v>40189</v>
+      </c>
+      <c r="H626" t="n">
+        <v>419</v>
+      </c>
+      <c r="I626" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K626" t="n">
+        <v>0.0009677333216513357</v>
+      </c>
+      <c r="L626" t="n">
+        <v>14.09451973822809</v>
+      </c>
+      <c r="M626" t="n">
+        <v>10</v>
+      </c>
+      <c r="N626" t="n">
+        <v>1</v>
+      </c>
+      <c r="O626" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>42618</v>
+      </c>
+      <c r="C627" t="n">
+        <v>445</v>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>42240</v>
+      </c>
+      <c r="E627" t="n">
+        <v>391</v>
+      </c>
+      <c r="F627" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="G627" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="H627" t="n">
+        <v>434</v>
+      </c>
+      <c r="I627" t="n">
+        <v>19.53000068664551</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K627" t="n">
+        <v>-0.00418600925179415</v>
+      </c>
+      <c r="L627" t="n">
+        <v>21.34672870192417</v>
+      </c>
+      <c r="M627" t="n">
+        <v>10</v>
+      </c>
+      <c r="N627" t="n">
+        <v>1</v>
+      </c>
+      <c r="O627" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>42618</v>
+      </c>
+      <c r="C628" t="n">
+        <v>445</v>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E628" t="n">
+        <v>415</v>
+      </c>
+      <c r="F628" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="G628" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="H628" t="n">
+        <v>434</v>
+      </c>
+      <c r="I628" t="n">
+        <v>19.53000068664551</v>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K628" t="n">
+        <v>-0.009473599885639391</v>
+      </c>
+      <c r="L628" t="n">
+        <v>23.641543037013</v>
+      </c>
+      <c r="M628" t="n">
+        <v>10</v>
+      </c>
+      <c r="N628" t="n">
+        <v>1</v>
+      </c>
+      <c r="O628" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>42457</v>
+      </c>
+      <c r="C629" t="n">
+        <v>499</v>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="E629" t="n">
+        <v>463</v>
+      </c>
+      <c r="F629" t="n">
+        <v>28.54999923706055</v>
+      </c>
+      <c r="G629" s="2" t="n">
+        <v>42380</v>
+      </c>
+      <c r="H629" t="n">
+        <v>488</v>
+      </c>
+      <c r="I629" t="n">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K629" t="n">
+        <v>-0.005999984741210937</v>
+      </c>
+      <c r="L629" t="n">
+        <v>31.32799217224121</v>
+      </c>
+      <c r="M629" t="n">
+        <v>10</v>
+      </c>
+      <c r="N629" t="n">
+        <v>1</v>
+      </c>
+      <c r="O629" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>42527</v>
+      </c>
+      <c r="C630" t="n">
+        <v>509</v>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="E630" t="n">
+        <v>469</v>
+      </c>
+      <c r="F630" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="G630" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="H630" t="n">
+        <v>482</v>
+      </c>
+      <c r="I630" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K630" t="n">
+        <v>0.003846241877629207</v>
+      </c>
+      <c r="L630" t="n">
+        <v>15.34611217792218</v>
+      </c>
+      <c r="M630" t="n">
+        <v>10</v>
+      </c>
+      <c r="N630" t="n">
+        <v>1</v>
+      </c>
+      <c r="O630" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>40854</v>
+      </c>
+      <c r="C631" t="n">
+        <v>488</v>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="E631" t="n">
+        <v>438</v>
+      </c>
+      <c r="F631" t="n">
+        <v>63.90000152587891</v>
+      </c>
+      <c r="G631" s="2" t="n">
+        <v>40777</v>
+      </c>
+      <c r="H631" t="n">
+        <v>477</v>
+      </c>
+      <c r="I631" t="n">
+        <v>64.19999694824219</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K631" t="n">
+        <v>0.007692190317007212</v>
+      </c>
+      <c r="L631" t="n">
+        <v>60.53082216702975</v>
+      </c>
+      <c r="M631" t="n">
+        <v>10</v>
+      </c>
+      <c r="N631" t="n">
+        <v>1</v>
+      </c>
+      <c r="O631" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>NCC.NS</t>
+        </is>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="C632" t="n">
+        <v>537</v>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>40903</v>
+      </c>
+      <c r="E632" t="n">
+        <v>489</v>
+      </c>
+      <c r="F632" t="n">
+        <v>19.06540870666504</v>
+      </c>
+      <c r="G632" s="2" t="n">
+        <v>41162</v>
+      </c>
+      <c r="H632" t="n">
+        <v>526</v>
+      </c>
+      <c r="I632" t="n">
+        <v>19.09601020812988</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K632" t="n">
+        <v>0.0008270676071579392</v>
+      </c>
+      <c r="L632" t="n">
+        <v>18.66097264676481</v>
+      </c>
+      <c r="M632" t="n">
+        <v>10</v>
+      </c>
+      <c r="N632" t="n">
+        <v>1</v>
+      </c>
+      <c r="O632" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="C633" t="n">
+        <v>480</v>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>43304</v>
+      </c>
+      <c r="E633" t="n">
+        <v>413</v>
+      </c>
+      <c r="F633" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G633" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="H633" t="n">
+        <v>469</v>
+      </c>
+      <c r="I633" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L633" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M633" t="n">
+        <v>10</v>
+      </c>
+      <c r="N633" t="n">
+        <v>1</v>
+      </c>
+      <c r="O633" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>40700</v>
+      </c>
+      <c r="C634" t="n">
+        <v>466</v>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="E634" t="n">
+        <v>438</v>
+      </c>
+      <c r="F634" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="G634" s="2" t="n">
+        <v>40623</v>
+      </c>
+      <c r="H634" t="n">
+        <v>455</v>
+      </c>
+      <c r="I634" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K634" t="n">
+        <v>-0.005882375380572151</v>
+      </c>
+      <c r="L634" t="n">
+        <v>19.52648117963005</v>
+      </c>
+      <c r="M634" t="n">
+        <v>10</v>
+      </c>
+      <c r="N634" t="n">
+        <v>1</v>
+      </c>
+      <c r="O634" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>40707</v>
+      </c>
+      <c r="C635" t="n">
+        <v>467</v>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="E635" t="n">
+        <v>438</v>
+      </c>
+      <c r="F635" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="G635" s="2" t="n">
+        <v>40630</v>
+      </c>
+      <c r="H635" t="n">
+        <v>456</v>
+      </c>
+      <c r="I635" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K635" t="n">
+        <v>-0.005555576748318142</v>
+      </c>
+      <c r="L635" t="n">
+        <v>19.3833433787028</v>
+      </c>
+      <c r="M635" t="n">
+        <v>10</v>
+      </c>
+      <c r="N635" t="n">
+        <v>1</v>
+      </c>
+      <c r="O635" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>42933</v>
+      </c>
+      <c r="C636" t="n">
+        <v>490</v>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>42373</v>
+      </c>
+      <c r="E636" t="n">
+        <v>410</v>
+      </c>
+      <c r="F636" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="G636" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="H636" t="n">
+        <v>479</v>
+      </c>
+      <c r="I636" t="n">
+        <v>27.26499938964844</v>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K636" t="n">
+        <v>0.000942009082738904</v>
+      </c>
+      <c r="L636" t="n">
+        <v>26.8137770390165</v>
+      </c>
+      <c r="M636" t="n">
+        <v>10</v>
+      </c>
+      <c r="N636" t="n">
+        <v>1</v>
+      </c>
+      <c r="O636" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="C637" t="n">
+        <v>490</v>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="E637" t="n">
+        <v>469</v>
+      </c>
+      <c r="F637" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G637" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="H637" t="n">
+        <v>479</v>
+      </c>
+      <c r="I637" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L637" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M637" t="n">
+        <v>10</v>
+      </c>
+      <c r="N637" t="n">
+        <v>1</v>
+      </c>
+      <c r="O637" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>42611</v>
+      </c>
+      <c r="C638" t="n">
+        <v>565</v>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>42443</v>
+      </c>
+      <c r="E638" t="n">
+        <v>541</v>
+      </c>
+      <c r="F638" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="G638" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="H638" t="n">
+        <v>542</v>
+      </c>
+      <c r="I638" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L638" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="M638" t="n">
+        <v>10</v>
+      </c>
+      <c r="N638" t="n">
+        <v>1</v>
+      </c>
+      <c r="O638" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>40945</v>
+      </c>
+      <c r="C639" t="n">
+        <v>501</v>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>40623</v>
+      </c>
+      <c r="E639" t="n">
+        <v>455</v>
+      </c>
+      <c r="F639" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="G639" s="2" t="n">
+        <v>40630</v>
+      </c>
+      <c r="H639" t="n">
+        <v>456</v>
+      </c>
+      <c r="I639" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="M639" t="n">
+        <v>10</v>
+      </c>
+      <c r="N639" t="n">
+        <v>1</v>
+      </c>
+      <c r="O639" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>44018</v>
+      </c>
+      <c r="C640" t="n">
+        <v>515</v>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="E640" t="n">
+        <v>490</v>
+      </c>
+      <c r="F640" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="G640" s="2" t="n">
+        <v>43941</v>
+      </c>
+      <c r="H640" t="n">
+        <v>504</v>
+      </c>
+      <c r="I640" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="M640" t="n">
+        <v>10</v>
+      </c>
+      <c r="N640" t="n">
+        <v>1</v>
+      </c>
+      <c r="O640" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="C641" t="n">
+        <v>499</v>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>43528</v>
+      </c>
+      <c r="E641" t="n">
+        <v>459</v>
+      </c>
+      <c r="F641" t="n">
+        <v>27.39999961853027</v>
+      </c>
+      <c r="G641" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="H641" t="n">
+        <v>471</v>
+      </c>
+      <c r="I641" t="n">
+        <v>27.60000038146973</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K641" t="n">
+        <v>0.01666673024495443</v>
+      </c>
+      <c r="L641" t="n">
+        <v>19.74997043609619</v>
+      </c>
+      <c r="M641" t="n">
+        <v>10</v>
+      </c>
+      <c r="N641" t="n">
+        <v>1</v>
+      </c>
+      <c r="O641" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>43157</v>
+      </c>
+      <c r="C642" t="n">
+        <v>522</v>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="E642" t="n">
+        <v>493</v>
+      </c>
+      <c r="F642" t="n">
+        <v>19.51499938964844</v>
+      </c>
+      <c r="G642" s="2" t="n">
+        <v>43080</v>
+      </c>
+      <c r="H642" t="n">
+        <v>511</v>
+      </c>
+      <c r="I642" t="n">
+        <v>19.35000038146973</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K642" t="n">
+        <v>-0.009166611565483941</v>
+      </c>
+      <c r="L642" t="n">
+        <v>24.03413889143202</v>
+      </c>
+      <c r="M642" t="n">
+        <v>10</v>
+      </c>
+      <c r="N642" t="n">
+        <v>1</v>
+      </c>
+      <c r="O642" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>43927</v>
+      </c>
+      <c r="C643" t="n">
+        <v>516</v>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="E643" t="n">
+        <v>471</v>
+      </c>
+      <c r="F643" t="n">
+        <v>27.60000038146973</v>
+      </c>
+      <c r="G643" s="2" t="n">
+        <v>43850</v>
+      </c>
+      <c r="H643" t="n">
+        <v>505</v>
+      </c>
+      <c r="I643" t="n">
+        <v>27.35000038146973</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K643" t="n">
+        <v>-0.007352941176470588</v>
+      </c>
+      <c r="L643" t="n">
+        <v>31.06323567558738</v>
+      </c>
+      <c r="M643" t="n">
+        <v>10</v>
+      </c>
+      <c r="N643" t="n">
+        <v>1</v>
+      </c>
+      <c r="O643" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>41316</v>
+      </c>
+      <c r="C644" t="n">
+        <v>554</v>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>41106</v>
+      </c>
+      <c r="E644" t="n">
+        <v>524</v>
+      </c>
+      <c r="F644" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="G644" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="H644" t="n">
+        <v>543</v>
+      </c>
+      <c r="I644" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K644" t="n">
+        <v>-0.01842097232216283</v>
+      </c>
+      <c r="L644" t="n">
+        <v>136.5025879709344</v>
+      </c>
+      <c r="M644" t="n">
+        <v>10</v>
+      </c>
+      <c r="N644" t="n">
+        <v>1</v>
+      </c>
+      <c r="O644" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="C645" t="n">
+        <v>547</v>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="E645" t="n">
+        <v>488</v>
+      </c>
+      <c r="F645" t="n">
+        <v>26.60000038146973</v>
+      </c>
+      <c r="G645" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="H645" t="n">
+        <v>536</v>
+      </c>
+      <c r="I645" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K645" t="n">
+        <v>-0.004166682561238606</v>
+      </c>
+      <c r="L645" t="n">
+        <v>28.63334147135417</v>
+      </c>
+      <c r="M645" t="n">
+        <v>10</v>
+      </c>
+      <c r="N645" t="n">
+        <v>1</v>
+      </c>
+      <c r="O645" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>NBCC.NS</t>
+        </is>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C646" t="n">
+        <v>568</v>
+      </c>
+      <c r="D646" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E646" t="n">
+        <v>555</v>
+      </c>
+      <c r="F646" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="G646" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="H646" t="n">
+        <v>557</v>
+      </c>
+      <c r="I646" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="M646" t="n">
+        <v>10</v>
+      </c>
+      <c r="N646" t="n">
+        <v>1</v>
+      </c>
+      <c r="O646" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="C647" t="n">
+        <v>594</v>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>44116</v>
+      </c>
+      <c r="E647" t="n">
+        <v>580</v>
+      </c>
+      <c r="F647" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="G647" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="H647" t="n">
+        <v>583</v>
+      </c>
+      <c r="I647" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M647" t="n">
+        <v>10</v>
+      </c>
+      <c r="N647" t="n">
+        <v>1</v>
+      </c>
+      <c r="O647" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>44375</v>
+      </c>
+      <c r="C648" t="n">
+        <v>580</v>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="E648" t="n">
+        <v>568</v>
+      </c>
+      <c r="F648" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G648" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="H648" t="n">
+        <v>569</v>
+      </c>
+      <c r="I648" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L648" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M648" t="n">
+        <v>10</v>
+      </c>
+      <c r="N648" t="n">
+        <v>1</v>
+      </c>
+      <c r="O648" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>43360</v>
+      </c>
+      <c r="C649" t="n">
+        <v>628</v>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>43276</v>
+      </c>
+      <c r="E649" t="n">
+        <v>616</v>
+      </c>
+      <c r="F649" t="n">
+        <v>38</v>
+      </c>
+      <c r="G649" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="H649" t="n">
+        <v>617</v>
+      </c>
+      <c r="I649" t="n">
+        <v>38</v>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L649" t="n">
+        <v>38</v>
+      </c>
+      <c r="M649" t="n">
+        <v>10</v>
+      </c>
+      <c r="N649" t="n">
+        <v>1</v>
+      </c>
+      <c r="O649" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>41561</v>
+      </c>
+      <c r="C650" t="n">
+        <v>589</v>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>41477</v>
+      </c>
+      <c r="E650" t="n">
+        <v>577</v>
+      </c>
+      <c r="F650" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G650" s="2" t="n">
+        <v>41484</v>
+      </c>
+      <c r="H650" t="n">
+        <v>578</v>
+      </c>
+      <c r="I650" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L650" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="M650" t="n">
+        <v>10</v>
+      </c>
+      <c r="N650" t="n">
+        <v>1</v>
+      </c>
+      <c r="O650" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>43577</v>
+      </c>
+      <c r="C651" t="n">
+        <v>703</v>
+      </c>
+      <c r="D651" s="2" t="n">
+        <v>43297</v>
+      </c>
+      <c r="E651" t="n">
+        <v>663</v>
+      </c>
+      <c r="F651" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="G651" s="2" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H651" t="n">
+        <v>692</v>
+      </c>
+      <c r="I651" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L651" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="M651" t="n">
+        <v>10</v>
+      </c>
+      <c r="N651" t="n">
+        <v>1</v>
+      </c>
+      <c r="O651" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>43640</v>
+      </c>
+      <c r="C652" t="n">
+        <v>712</v>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="E652" t="n">
+        <v>700</v>
+      </c>
+      <c r="F652" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G652" s="2" t="n">
+        <v>43563</v>
+      </c>
+      <c r="H652" t="n">
+        <v>701</v>
+      </c>
+      <c r="I652" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L652" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M652" t="n">
+        <v>10</v>
+      </c>
+      <c r="N652" t="n">
+        <v>1</v>
+      </c>
+      <c r="O652" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>41617</v>
+      </c>
+      <c r="C653" t="n">
+        <v>623</v>
+      </c>
+      <c r="D653" s="2" t="n">
+        <v>41519</v>
+      </c>
+      <c r="E653" t="n">
+        <v>609</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="G653" s="2" t="n">
+        <v>41540</v>
+      </c>
+      <c r="H653" t="n">
+        <v>612</v>
+      </c>
+      <c r="I653" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L653" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="M653" t="n">
+        <v>10</v>
+      </c>
+      <c r="N653" t="n">
+        <v>1</v>
+      </c>
+      <c r="O653" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>WELENT.NS</t>
+        </is>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>43297</v>
+      </c>
+      <c r="C654" t="n">
+        <v>715</v>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="E654" t="n">
+        <v>698</v>
+      </c>
+      <c r="F654" t="n">
+        <v>140</v>
+      </c>
+      <c r="G654" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="H654" t="n">
+        <v>704</v>
+      </c>
+      <c r="I654" t="n">
+        <v>140</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L654" t="n">
+        <v>140</v>
+      </c>
+      <c r="M654" t="n">
+        <v>10</v>
+      </c>
+      <c r="N654" t="n">
+        <v>1</v>
+      </c>
+      <c r="O654" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C655" t="n">
+        <v>638</v>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="E655" t="n">
+        <v>588</v>
+      </c>
+      <c r="F655" t="n">
+        <v>25.35000038146973</v>
+      </c>
+      <c r="G655" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="H655" t="n">
+        <v>627</v>
+      </c>
+      <c r="I655" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K655" t="n">
+        <v>0.002564112345377604</v>
+      </c>
+      <c r="L655" t="n">
+        <v>23.8423023223877</v>
+      </c>
+      <c r="M655" t="n">
+        <v>10</v>
+      </c>
+      <c r="N655" t="n">
+        <v>1</v>
+      </c>
+      <c r="O655" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="C656" t="n">
+        <v>657</v>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>41792</v>
+      </c>
+      <c r="E656" t="n">
+        <v>622</v>
+      </c>
+      <c r="F656" t="n">
+        <v>78.94999694824219</v>
+      </c>
+      <c r="G656" s="2" t="n">
+        <v>41960</v>
+      </c>
+      <c r="H656" t="n">
+        <v>646</v>
+      </c>
+      <c r="I656" t="n">
+        <v>78.90000152587891</v>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K656" t="n">
+        <v>-0.002083142598470052</v>
+      </c>
+      <c r="L656" t="n">
+        <v>80.24571164449056</v>
+      </c>
+      <c r="M656" t="n">
+        <v>10</v>
+      </c>
+      <c r="N656" t="n">
+        <v>1</v>
+      </c>
+      <c r="O656" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="C657" t="n">
+        <v>737</v>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="E657" t="n">
+        <v>721</v>
+      </c>
+      <c r="F657" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G657" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="H657" t="n">
+        <v>726</v>
+      </c>
+      <c r="I657" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L657" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M657" t="n">
+        <v>10</v>
+      </c>
+      <c r="N657" t="n">
+        <v>1</v>
+      </c>
+      <c r="O657" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C658" t="n">
+        <v>722</v>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="E658" t="n">
+        <v>696</v>
+      </c>
+      <c r="F658" t="n">
+        <v>180</v>
+      </c>
+      <c r="G658" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="H658" t="n">
+        <v>711</v>
+      </c>
+      <c r="I658" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K658" t="n">
+        <v>-0.009999593098958334</v>
+      </c>
+      <c r="L658" t="n">
+        <v>186.959716796875</v>
+      </c>
+      <c r="M658" t="n">
+        <v>10</v>
+      </c>
+      <c r="N658" t="n">
+        <v>1</v>
+      </c>
+      <c r="O658" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C659" t="n">
+        <v>680</v>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E659" t="n">
+        <v>666</v>
+      </c>
+      <c r="F659" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G659" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="H659" t="n">
+        <v>669</v>
+      </c>
+      <c r="I659" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L659" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M659" t="n">
+        <v>10</v>
+      </c>
+      <c r="N659" t="n">
+        <v>1</v>
+      </c>
+      <c r="O659" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C660" t="n">
+        <v>681</v>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E660" t="n">
+        <v>666</v>
+      </c>
+      <c r="F660" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G660" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="H660" t="n">
+        <v>670</v>
+      </c>
+      <c r="I660" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L660" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M660" t="n">
+        <v>10</v>
+      </c>
+      <c r="N660" t="n">
+        <v>1</v>
+      </c>
+      <c r="O660" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C661" t="n">
+        <v>681</v>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E661" t="n">
+        <v>669</v>
+      </c>
+      <c r="F661" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G661" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="H661" t="n">
+        <v>670</v>
+      </c>
+      <c r="I661" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L661" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M661" t="n">
+        <v>10</v>
+      </c>
+      <c r="N661" t="n">
+        <v>1</v>
+      </c>
+      <c r="O661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C662" t="n">
+        <v>682</v>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E662" t="n">
+        <v>669</v>
+      </c>
+      <c r="F662" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G662" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H662" t="n">
+        <v>671</v>
+      </c>
+      <c r="I662" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L662" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M662" t="n">
+        <v>10</v>
+      </c>
+      <c r="N662" t="n">
+        <v>1</v>
+      </c>
+      <c r="O662" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C663" t="n">
+        <v>682</v>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E663" t="n">
+        <v>670</v>
+      </c>
+      <c r="F663" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G663" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H663" t="n">
+        <v>671</v>
+      </c>
+      <c r="I663" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L663" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M663" t="n">
+        <v>10</v>
+      </c>
+      <c r="N663" t="n">
+        <v>1</v>
+      </c>
+      <c r="O663" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>44375</v>
+      </c>
+      <c r="C664" t="n">
+        <v>696</v>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E664" t="n">
+        <v>656</v>
+      </c>
+      <c r="F664" t="n">
+        <v>10.10999965667725</v>
+      </c>
+      <c r="G664" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="H664" t="n">
+        <v>685</v>
+      </c>
+      <c r="I664" t="n">
+        <v>10.0600004196167</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K664" t="n">
+        <v>-0.001724111622777478</v>
+      </c>
+      <c r="L664" t="n">
+        <v>11.24101688121927</v>
+      </c>
+      <c r="M664" t="n">
+        <v>10</v>
+      </c>
+      <c r="N664" t="n">
+        <v>1</v>
+      </c>
+      <c r="O664" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>42114</v>
+      </c>
+      <c r="C665" t="n">
+        <v>694</v>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>41953</v>
+      </c>
+      <c r="E665" t="n">
+        <v>671</v>
+      </c>
+      <c r="F665" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="G665" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="H665" t="n">
+        <v>683</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K665" t="n">
+        <v>-0.004166682561238606</v>
+      </c>
+      <c r="L665" t="n">
+        <v>8.595844189325968</v>
+      </c>
+      <c r="M665" t="n">
+        <v>10</v>
+      </c>
+      <c r="N665" t="n">
+        <v>1</v>
+      </c>
+      <c r="O665" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="C666" t="n">
+        <v>713</v>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>42142</v>
+      </c>
+      <c r="E666" t="n">
+        <v>698</v>
+      </c>
+      <c r="F666" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="G666" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="H666" t="n">
+        <v>702</v>
+      </c>
+      <c r="I666" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L666" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="M666" t="n">
+        <v>10</v>
+      </c>
+      <c r="N666" t="n">
+        <v>1</v>
+      </c>
+      <c r="O666" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="C667" t="n">
+        <v>788</v>
+      </c>
+      <c r="D667" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="E667" t="n">
+        <v>745</v>
+      </c>
+      <c r="F667" t="n">
+        <v>19.90592956542969</v>
+      </c>
+      <c r="G667" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="H667" t="n">
+        <v>777</v>
+      </c>
+      <c r="I667" t="n">
+        <v>20.0231876373291</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K667" t="n">
+        <v>0.003664314746856689</v>
+      </c>
+      <c r="L667" t="n">
+        <v>17.17601507902145</v>
+      </c>
+      <c r="M667" t="n">
+        <v>10</v>
+      </c>
+      <c r="N667" t="n">
+        <v>1</v>
+      </c>
+      <c r="O667" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="C668" t="n">
+        <v>760</v>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>42422</v>
+      </c>
+      <c r="E668" t="n">
+        <v>712</v>
+      </c>
+      <c r="F668" t="n">
+        <v>70.19999694824219</v>
+      </c>
+      <c r="G668" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="H668" t="n">
+        <v>749</v>
+      </c>
+      <c r="I668" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K668" t="n">
+        <v>-0.002702661462732263</v>
+      </c>
+      <c r="L668" t="n">
+        <v>72.12429190970757</v>
+      </c>
+      <c r="M668" t="n">
+        <v>10</v>
+      </c>
+      <c r="N668" t="n">
+        <v>1</v>
+      </c>
+      <c r="O668" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>42772</v>
+      </c>
+      <c r="C669" t="n">
+        <v>762</v>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="E669" t="n">
+        <v>749</v>
+      </c>
+      <c r="F669" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="G669" s="2" t="n">
+        <v>42695</v>
+      </c>
+      <c r="H669" t="n">
+        <v>751</v>
+      </c>
+      <c r="I669" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L669" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="M669" t="n">
+        <v>10</v>
+      </c>
+      <c r="N669" t="n">
+        <v>1</v>
+      </c>
+      <c r="O669" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="C670" t="n">
+        <v>772</v>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="E670" t="n">
+        <v>720</v>
+      </c>
+      <c r="F670" t="n">
+        <v>19.78499984741211</v>
+      </c>
+      <c r="G670" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H670" t="n">
+        <v>761</v>
+      </c>
+      <c r="I670" t="n">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K670" t="n">
+        <v>0.0006097467934213034</v>
+      </c>
+      <c r="L670" t="n">
+        <v>19.34598215614877</v>
+      </c>
+      <c r="M670" t="n">
+        <v>10</v>
+      </c>
+      <c r="N670" t="n">
+        <v>1</v>
+      </c>
+      <c r="O670" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>43087</v>
+      </c>
+      <c r="C671" t="n">
+        <v>807</v>
+      </c>
+      <c r="D671" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="E671" t="n">
+        <v>784</v>
+      </c>
+      <c r="F671" t="n">
+        <v>65</v>
+      </c>
+      <c r="G671" s="2" t="n">
+        <v>43010</v>
+      </c>
+      <c r="H671" t="n">
+        <v>796</v>
+      </c>
+      <c r="I671" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K671" t="n">
+        <v>0.004166920979817708</v>
+      </c>
+      <c r="L671" t="n">
+        <v>61.73313395182291</v>
+      </c>
+      <c r="M671" t="n">
+        <v>10</v>
+      </c>
+      <c r="N671" t="n">
+        <v>1</v>
+      </c>
+      <c r="O671" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="C672" t="n">
+        <v>917</v>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>42933</v>
+      </c>
+      <c r="E672" t="n">
+        <v>882</v>
+      </c>
+      <c r="F672" t="n">
+        <v>119</v>
+      </c>
+      <c r="G672" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H672" t="n">
+        <v>906</v>
+      </c>
+      <c r="I672" t="n">
+        <v>119.4000015258789</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K672" t="n">
+        <v>0.01666673024495443</v>
+      </c>
+      <c r="L672" t="n">
+        <v>104.2999439239502</v>
+      </c>
+      <c r="M672" t="n">
+        <v>10</v>
+      </c>
+      <c r="N672" t="n">
+        <v>1</v>
+      </c>
+      <c r="O672" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F673" t="n">
+        <v>448</v>
+      </c>
+      <c r="G673" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="H673" t="n">
+        <v>1022</v>
+      </c>
+      <c r="I673" t="n">
+        <v>448</v>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L673" t="n">
+        <v>448</v>
+      </c>
+      <c r="M673" t="n">
+        <v>10</v>
+      </c>
+      <c r="N673" t="n">
+        <v>1</v>
+      </c>
+      <c r="O673" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F674" t="n">
+        <v>664</v>
+      </c>
+      <c r="G674" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="H674" t="n">
+        <v>1053</v>
+      </c>
+      <c r="I674" t="n">
+        <v>664</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L674" t="n">
+        <v>664</v>
+      </c>
+      <c r="M674" t="n">
+        <v>10</v>
+      </c>
+      <c r="N674" t="n">
+        <v>1</v>
+      </c>
+      <c r="O674" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D675" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F675" t="n">
+        <v>301.0499877929688</v>
+      </c>
+      <c r="G675" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H675" t="n">
+        <v>1082</v>
+      </c>
+      <c r="I675" t="n">
+        <v>298.6499938964844</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K675" t="n">
+        <v>-0.03636354388612689</v>
+      </c>
+      <c r="L675" t="n">
+        <v>337.9953483812737</v>
+      </c>
+      <c r="M675" t="n">
+        <v>10</v>
+      </c>
+      <c r="N675" t="n">
+        <v>1</v>
+      </c>
+      <c r="O675" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/two_line_alerts_1wk.xlsx
+++ b/excel/1wk/two_line_alerts_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O675"/>
+  <dimension ref="A1:O689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34888,6 +34888,720 @@
         <v>2</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="C676" t="n">
+        <v>513</v>
+      </c>
+      <c r="D676" s="2" t="n">
+        <v>40672</v>
+      </c>
+      <c r="E676" t="n">
+        <v>462</v>
+      </c>
+      <c r="F676" t="n">
+        <v>114.1999969482422</v>
+      </c>
+      <c r="G676" s="2" t="n">
+        <v>40952</v>
+      </c>
+      <c r="H676" t="n">
+        <v>502</v>
+      </c>
+      <c r="I676" t="n">
+        <v>113.5666656494141</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K676" t="n">
+        <v>-0.01583328247070242</v>
+      </c>
+      <c r="L676" t="n">
+        <v>121.5149734497067</v>
+      </c>
+      <c r="M676" t="n">
+        <v>10</v>
+      </c>
+      <c r="N676" t="n">
+        <v>1</v>
+      </c>
+      <c r="O676" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>43724</v>
+      </c>
+      <c r="C677" t="n">
+        <v>776</v>
+      </c>
+      <c r="D677" s="2" t="n">
+        <v>43360</v>
+      </c>
+      <c r="E677" t="n">
+        <v>724</v>
+      </c>
+      <c r="F677" t="n">
+        <v>146.1666717529297</v>
+      </c>
+      <c r="G677" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="H677" t="n">
+        <v>765</v>
+      </c>
+      <c r="I677" t="n">
+        <v>145.8500061035156</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K677" t="n">
+        <v>-0.007723552424733925</v>
+      </c>
+      <c r="L677" t="n">
+        <v>151.7585237084371</v>
+      </c>
+      <c r="M677" t="n">
+        <v>10</v>
+      </c>
+      <c r="N677" t="n">
+        <v>1</v>
+      </c>
+      <c r="O677" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F678" t="n">
+        <v>370.2000122070312</v>
+      </c>
+      <c r="G678" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="H678" t="n">
+        <v>1240</v>
+      </c>
+      <c r="I678" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K678" t="n">
+        <v>0.06315773411801136</v>
+      </c>
+      <c r="L678" t="n">
+        <v>294.2844157971816</v>
+      </c>
+      <c r="M678" t="n">
+        <v>10</v>
+      </c>
+      <c r="N678" t="n">
+        <v>1</v>
+      </c>
+      <c r="O678" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>41743</v>
+      </c>
+      <c r="C679" t="n">
+        <v>615</v>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>41540</v>
+      </c>
+      <c r="E679" t="n">
+        <v>586</v>
+      </c>
+      <c r="F679" t="n">
+        <v>11.85000038146973</v>
+      </c>
+      <c r="G679" s="2" t="n">
+        <v>41666</v>
+      </c>
+      <c r="H679" t="n">
+        <v>604</v>
+      </c>
+      <c r="I679" t="n">
+        <v>11.94999980926514</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K679" t="n">
+        <v>0.005555523766411675</v>
+      </c>
+      <c r="L679" t="n">
+        <v>8.594463454352489</v>
+      </c>
+      <c r="M679" t="n">
+        <v>10</v>
+      </c>
+      <c r="N679" t="n">
+        <v>1</v>
+      </c>
+      <c r="O679" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F680" t="n">
+        <v>556</v>
+      </c>
+      <c r="G680" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H680" t="n">
+        <v>1082</v>
+      </c>
+      <c r="I680" t="n">
+        <v>555</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K680" t="n">
+        <v>-0.01754385964912281</v>
+      </c>
+      <c r="L680" t="n">
+        <v>573.9824561403509</v>
+      </c>
+      <c r="M680" t="n">
+        <v>10</v>
+      </c>
+      <c r="N680" t="n">
+        <v>1</v>
+      </c>
+      <c r="O680" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1037</v>
+      </c>
+      <c r="F681" t="n">
+        <v>554</v>
+      </c>
+      <c r="G681" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H681" t="n">
+        <v>1082</v>
+      </c>
+      <c r="I681" t="n">
+        <v>555</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K681" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L681" t="n">
+        <v>530.9555555555555</v>
+      </c>
+      <c r="M681" t="n">
+        <v>10</v>
+      </c>
+      <c r="N681" t="n">
+        <v>1</v>
+      </c>
+      <c r="O681" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="C682" t="n">
+        <v>157</v>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>41057</v>
+      </c>
+      <c r="E682" t="n">
+        <v>106</v>
+      </c>
+      <c r="F682" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G682" s="2" t="n">
+        <v>41337</v>
+      </c>
+      <c r="H682" t="n">
+        <v>146</v>
+      </c>
+      <c r="I682" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K682" t="n">
+        <v>-0.003749990463256747</v>
+      </c>
+      <c r="L682" t="n">
+        <v>18.79749860763549</v>
+      </c>
+      <c r="M682" t="n">
+        <v>10</v>
+      </c>
+      <c r="N682" t="n">
+        <v>1</v>
+      </c>
+      <c r="O682" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>42282</v>
+      </c>
+      <c r="C683" t="n">
+        <v>267</v>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="E683" t="n">
+        <v>239</v>
+      </c>
+      <c r="F683" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="G683" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="H683" t="n">
+        <v>256</v>
+      </c>
+      <c r="I683" t="n">
+        <v>7.349999904632568</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K683" t="n">
+        <v>-0.002941187690286075</v>
+      </c>
+      <c r="L683" t="n">
+        <v>8.102943953345804</v>
+      </c>
+      <c r="M683" t="n">
+        <v>10</v>
+      </c>
+      <c r="N683" t="n">
+        <v>1</v>
+      </c>
+      <c r="O683" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>40840</v>
+      </c>
+      <c r="C684" t="n">
+        <v>268</v>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>40672</v>
+      </c>
+      <c r="E684" t="n">
+        <v>244</v>
+      </c>
+      <c r="F684" t="n">
+        <v>13</v>
+      </c>
+      <c r="G684" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="H684" t="n">
+        <v>257</v>
+      </c>
+      <c r="I684" t="n">
+        <v>13</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L684" t="n">
+        <v>13</v>
+      </c>
+      <c r="M684" t="n">
+        <v>10</v>
+      </c>
+      <c r="N684" t="n">
+        <v>1</v>
+      </c>
+      <c r="O684" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>41876</v>
+      </c>
+      <c r="C685" t="n">
+        <v>260</v>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>41323</v>
+      </c>
+      <c r="E685" t="n">
+        <v>181</v>
+      </c>
+      <c r="F685" t="n">
+        <v>29.39999961853027</v>
+      </c>
+      <c r="G685" s="2" t="n">
+        <v>41799</v>
+      </c>
+      <c r="H685" t="n">
+        <v>249</v>
+      </c>
+      <c r="I685" t="n">
+        <v>29.60000038146973</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K685" t="n">
+        <v>0.00294118769028618</v>
+      </c>
+      <c r="L685" t="n">
+        <v>28.86764464658847</v>
+      </c>
+      <c r="M685" t="n">
+        <v>10</v>
+      </c>
+      <c r="N685" t="n">
+        <v>1</v>
+      </c>
+      <c r="O685" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>40266</v>
+      </c>
+      <c r="C686" t="n">
+        <v>276</v>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>39447</v>
+      </c>
+      <c r="E686" t="n">
+        <v>159</v>
+      </c>
+      <c r="F686" t="n">
+        <v>8.095000267028809</v>
+      </c>
+      <c r="G686" s="2" t="n">
+        <v>40189</v>
+      </c>
+      <c r="H686" t="n">
+        <v>265</v>
+      </c>
+      <c r="I686" t="n">
+        <v>8.095000267028809</v>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L686" t="n">
+        <v>8.095000267028809</v>
+      </c>
+      <c r="M686" t="n">
+        <v>10</v>
+      </c>
+      <c r="N686" t="n">
+        <v>1</v>
+      </c>
+      <c r="O686" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C687" t="n">
+        <v>504</v>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>43276</v>
+      </c>
+      <c r="E687" t="n">
+        <v>460</v>
+      </c>
+      <c r="F687" t="n">
+        <v>22.35000038146973</v>
+      </c>
+      <c r="G687" s="2" t="n">
+        <v>43507</v>
+      </c>
+      <c r="H687" t="n">
+        <v>493</v>
+      </c>
+      <c r="I687" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K687" t="n">
+        <v>0.004545442985765754</v>
+      </c>
+      <c r="L687" t="n">
+        <v>20.25909660801748</v>
+      </c>
+      <c r="M687" t="n">
+        <v>10</v>
+      </c>
+      <c r="N687" t="n">
+        <v>1</v>
+      </c>
+      <c r="O687" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C688" t="n">
+        <v>667</v>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="E688" t="n">
+        <v>652</v>
+      </c>
+      <c r="F688" t="n">
+        <v>27.04999923706055</v>
+      </c>
+      <c r="G688" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="H688" t="n">
+        <v>656</v>
+      </c>
+      <c r="I688" t="n">
+        <v>27.04999923706055</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L688" t="n">
+        <v>27.04999923706055</v>
+      </c>
+      <c r="M688" t="n">
+        <v>10</v>
+      </c>
+      <c r="N688" t="n">
+        <v>1</v>
+      </c>
+      <c r="O688" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C689" t="n">
+        <v>969</v>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="E689" t="n">
+        <v>908</v>
+      </c>
+      <c r="F689" t="n">
+        <v>39.40000152587891</v>
+      </c>
+      <c r="G689" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="H689" t="n">
+        <v>958</v>
+      </c>
+      <c r="I689" t="n">
+        <v>39.29999923706055</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K689" t="n">
+        <v>-0.00200004577636733</v>
+      </c>
+      <c r="L689" t="n">
+        <v>41.21604309082044</v>
+      </c>
+      <c r="M689" t="n">
+        <v>10</v>
+      </c>
+      <c r="N689" t="n">
+        <v>1</v>
+      </c>
+      <c r="O689" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/two_line_alerts_1wk.xlsx
+++ b/excel/1wk/two_line_alerts_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O740"/>
+  <dimension ref="A1:O831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38203,6 +38203,4647 @@
         <v>2</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>35387</v>
+      </c>
+      <c r="C741" t="n">
+        <v>46</v>
+      </c>
+      <c r="D741" s="2" t="n">
+        <v>35289</v>
+      </c>
+      <c r="E741" t="n">
+        <v>32</v>
+      </c>
+      <c r="F741" t="n">
+        <v>44</v>
+      </c>
+      <c r="G741" s="2" t="n">
+        <v>35345</v>
+      </c>
+      <c r="H741" t="n">
+        <v>40</v>
+      </c>
+      <c r="I741" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K741" t="n">
+        <v>-0.05000019073486328</v>
+      </c>
+      <c r="L741" t="n">
+        <v>45.60000610351562</v>
+      </c>
+      <c r="M741" t="n">
+        <v>5</v>
+      </c>
+      <c r="N741" t="n">
+        <v>1</v>
+      </c>
+      <c r="O741" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>42996</v>
+      </c>
+      <c r="C742" t="n">
+        <v>64</v>
+      </c>
+      <c r="D742" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="E742" t="n">
+        <v>47</v>
+      </c>
+      <c r="F742" t="n">
+        <v>928</v>
+      </c>
+      <c r="G742" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="H742" t="n">
+        <v>58</v>
+      </c>
+      <c r="I742" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K742" t="n">
+        <v>-0.4636341441761364</v>
+      </c>
+      <c r="L742" t="n">
+        <v>949.7908047762784</v>
+      </c>
+      <c r="M742" t="n">
+        <v>5</v>
+      </c>
+      <c r="N742" t="n">
+        <v>1</v>
+      </c>
+      <c r="O742" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>35387</v>
+      </c>
+      <c r="C743" t="n">
+        <v>46</v>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>35296</v>
+      </c>
+      <c r="E743" t="n">
+        <v>33</v>
+      </c>
+      <c r="F743" t="n">
+        <v>44</v>
+      </c>
+      <c r="G743" s="2" t="n">
+        <v>35345</v>
+      </c>
+      <c r="H743" t="n">
+        <v>40</v>
+      </c>
+      <c r="I743" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K743" t="n">
+        <v>-0.05714307512555804</v>
+      </c>
+      <c r="L743" t="n">
+        <v>45.88572147914341</v>
+      </c>
+      <c r="M743" t="n">
+        <v>5</v>
+      </c>
+      <c r="N743" t="n">
+        <v>1</v>
+      </c>
+      <c r="O743" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>39503</v>
+      </c>
+      <c r="C744" t="n">
+        <v>51</v>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>39419</v>
+      </c>
+      <c r="E744" t="n">
+        <v>39</v>
+      </c>
+      <c r="F744" t="n">
+        <v>90.50564575195312</v>
+      </c>
+      <c r="G744" s="2" t="n">
+        <v>39461</v>
+      </c>
+      <c r="H744" t="n">
+        <v>45</v>
+      </c>
+      <c r="I744" t="n">
+        <v>90.14386749267578</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K744" t="n">
+        <v>-0.06029637654622396</v>
+      </c>
+      <c r="L744" t="n">
+        <v>92.85720443725586</v>
+      </c>
+      <c r="M744" t="n">
+        <v>5</v>
+      </c>
+      <c r="N744" t="n">
+        <v>1</v>
+      </c>
+      <c r="O744" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="C745" t="n">
+        <v>90</v>
+      </c>
+      <c r="D745" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="E745" t="n">
+        <v>58</v>
+      </c>
+      <c r="F745" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="G745" s="2" t="n">
+        <v>43136</v>
+      </c>
+      <c r="H745" t="n">
+        <v>84</v>
+      </c>
+      <c r="I745" t="n">
+        <v>916.3499755859375</v>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K745" t="n">
+        <v>-0.2519249549278846</v>
+      </c>
+      <c r="L745" t="n">
+        <v>937.5116717998798</v>
+      </c>
+      <c r="M745" t="n">
+        <v>5</v>
+      </c>
+      <c r="N745" t="n">
+        <v>1</v>
+      </c>
+      <c r="O745" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>41785</v>
+      </c>
+      <c r="C746" t="n">
+        <v>116</v>
+      </c>
+      <c r="D746" s="2" t="n">
+        <v>41645</v>
+      </c>
+      <c r="E746" t="n">
+        <v>96</v>
+      </c>
+      <c r="F746" t="n">
+        <v>622</v>
+      </c>
+      <c r="G746" s="2" t="n">
+        <v>41743</v>
+      </c>
+      <c r="H746" t="n">
+        <v>110</v>
+      </c>
+      <c r="I746" t="n">
+        <v>618.7000122070312</v>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K746" t="n">
+        <v>-0.2357134137834822</v>
+      </c>
+      <c r="L746" t="n">
+        <v>644.6284877232143</v>
+      </c>
+      <c r="M746" t="n">
+        <v>5</v>
+      </c>
+      <c r="N746" t="n">
+        <v>1</v>
+      </c>
+      <c r="O746" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>38355</v>
+      </c>
+      <c r="C747" t="n">
+        <v>132</v>
+      </c>
+      <c r="D747" s="2" t="n">
+        <v>38243</v>
+      </c>
+      <c r="E747" t="n">
+        <v>116</v>
+      </c>
+      <c r="F747" t="n">
+        <v>519.9000244140625</v>
+      </c>
+      <c r="G747" s="2" t="n">
+        <v>38313</v>
+      </c>
+      <c r="H747" t="n">
+        <v>126</v>
+      </c>
+      <c r="I747" t="n">
+        <v>521.3499755859375</v>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K747" t="n">
+        <v>0.1449951171875</v>
+      </c>
+      <c r="L747" t="n">
+        <v>503.0805908203125</v>
+      </c>
+      <c r="M747" t="n">
+        <v>5</v>
+      </c>
+      <c r="N747" t="n">
+        <v>1</v>
+      </c>
+      <c r="O747" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>42044</v>
+      </c>
+      <c r="C748" t="n">
+        <v>153</v>
+      </c>
+      <c r="D748" s="2" t="n">
+        <v>41960</v>
+      </c>
+      <c r="E748" t="n">
+        <v>141</v>
+      </c>
+      <c r="F748" t="n">
+        <v>922</v>
+      </c>
+      <c r="G748" s="2" t="n">
+        <v>42002</v>
+      </c>
+      <c r="H748" t="n">
+        <v>147</v>
+      </c>
+      <c r="I748" t="n">
+        <v>926.7999877929688</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K748" t="n">
+        <v>0.7999979654947916</v>
+      </c>
+      <c r="L748" t="n">
+        <v>809.2002868652344</v>
+      </c>
+      <c r="M748" t="n">
+        <v>5</v>
+      </c>
+      <c r="N748" t="n">
+        <v>1</v>
+      </c>
+      <c r="O748" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="C749" t="n">
+        <v>168</v>
+      </c>
+      <c r="D749" s="2" t="n">
+        <v>40252</v>
+      </c>
+      <c r="E749" t="n">
+        <v>158</v>
+      </c>
+      <c r="F749" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="G749" s="2" t="n">
+        <v>40280</v>
+      </c>
+      <c r="H749" t="n">
+        <v>162</v>
+      </c>
+      <c r="I749" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="M749" t="n">
+        <v>5</v>
+      </c>
+      <c r="N749" t="n">
+        <v>1</v>
+      </c>
+      <c r="O749" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>40371</v>
+      </c>
+      <c r="C750" t="n">
+        <v>175</v>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="E750" t="n">
+        <v>168</v>
+      </c>
+      <c r="F750" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="G750" s="2" t="n">
+        <v>40329</v>
+      </c>
+      <c r="H750" t="n">
+        <v>169</v>
+      </c>
+      <c r="I750" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="M750" t="n">
+        <v>5</v>
+      </c>
+      <c r="N750" t="n">
+        <v>1</v>
+      </c>
+      <c r="O750" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="C751" t="n">
+        <v>163</v>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>42282</v>
+      </c>
+      <c r="E751" t="n">
+        <v>145</v>
+      </c>
+      <c r="F751" t="n">
+        <v>436.75</v>
+      </c>
+      <c r="G751" s="2" t="n">
+        <v>42366</v>
+      </c>
+      <c r="H751" t="n">
+        <v>157</v>
+      </c>
+      <c r="I751" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K751" t="n">
+        <v>-0.02083333333333333</v>
+      </c>
+      <c r="L751" t="n">
+        <v>439.7708333333333</v>
+      </c>
+      <c r="M751" t="n">
+        <v>5</v>
+      </c>
+      <c r="N751" t="n">
+        <v>1</v>
+      </c>
+      <c r="O751" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>41141</v>
+      </c>
+      <c r="C752" t="n">
+        <v>212</v>
+      </c>
+      <c r="D752" s="2" t="n">
+        <v>40980</v>
+      </c>
+      <c r="E752" t="n">
+        <v>189</v>
+      </c>
+      <c r="F752" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="G752" s="2" t="n">
+        <v>41099</v>
+      </c>
+      <c r="H752" t="n">
+        <v>206</v>
+      </c>
+      <c r="I752" t="n">
+        <v>649</v>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K752" t="n">
+        <v>0.002940458409926471</v>
+      </c>
+      <c r="L752" t="n">
+        <v>648.3942655675552</v>
+      </c>
+      <c r="M752" t="n">
+        <v>5</v>
+      </c>
+      <c r="N752" t="n">
+        <v>1</v>
+      </c>
+      <c r="O752" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>42457</v>
+      </c>
+      <c r="C753" t="n">
+        <v>212</v>
+      </c>
+      <c r="D753" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E753" t="n">
+        <v>205</v>
+      </c>
+      <c r="F753" t="n">
+        <v>725</v>
+      </c>
+      <c r="G753" s="2" t="n">
+        <v>42415</v>
+      </c>
+      <c r="H753" t="n">
+        <v>206</v>
+      </c>
+      <c r="I753" t="n">
+        <v>725</v>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L753" t="n">
+        <v>725</v>
+      </c>
+      <c r="M753" t="n">
+        <v>5</v>
+      </c>
+      <c r="N753" t="n">
+        <v>1</v>
+      </c>
+      <c r="O753" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>40616</v>
+      </c>
+      <c r="C754" t="n">
+        <v>210</v>
+      </c>
+      <c r="D754" s="2" t="n">
+        <v>40567</v>
+      </c>
+      <c r="E754" t="n">
+        <v>203</v>
+      </c>
+      <c r="F754" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="G754" s="2" t="n">
+        <v>40574</v>
+      </c>
+      <c r="H754" t="n">
+        <v>204</v>
+      </c>
+      <c r="I754" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="M754" t="n">
+        <v>5</v>
+      </c>
+      <c r="N754" t="n">
+        <v>1</v>
+      </c>
+      <c r="O754" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>42618</v>
+      </c>
+      <c r="C755" t="n">
+        <v>193</v>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>42478</v>
+      </c>
+      <c r="E755" t="n">
+        <v>173</v>
+      </c>
+      <c r="F755" t="n">
+        <v>410</v>
+      </c>
+      <c r="G755" s="2" t="n">
+        <v>42576</v>
+      </c>
+      <c r="H755" t="n">
+        <v>187</v>
+      </c>
+      <c r="I755" t="n">
+        <v>413.7000122070312</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K755" t="n">
+        <v>0.2642865862165178</v>
+      </c>
+      <c r="L755" t="n">
+        <v>364.2784205845424</v>
+      </c>
+      <c r="M755" t="n">
+        <v>5</v>
+      </c>
+      <c r="N755" t="n">
+        <v>1</v>
+      </c>
+      <c r="O755" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>42751</v>
+      </c>
+      <c r="C756" t="n">
+        <v>254</v>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>42646</v>
+      </c>
+      <c r="E756" t="n">
+        <v>239</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G756" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="H756" t="n">
+        <v>248</v>
+      </c>
+      <c r="I756" t="n">
+        <v>1413</v>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K756" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="L756" t="n">
+        <v>1605.888888888889</v>
+      </c>
+      <c r="M756" t="n">
+        <v>5</v>
+      </c>
+      <c r="N756" t="n">
+        <v>1</v>
+      </c>
+      <c r="O756" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>42912</v>
+      </c>
+      <c r="C757" t="n">
+        <v>235</v>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="E757" t="n">
+        <v>206</v>
+      </c>
+      <c r="F757" t="n">
+        <v>396.0499877929688</v>
+      </c>
+      <c r="G757" s="2" t="n">
+        <v>42870</v>
+      </c>
+      <c r="H757" t="n">
+        <v>229</v>
+      </c>
+      <c r="I757" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K757" t="n">
+        <v>0.01956574813179348</v>
+      </c>
+      <c r="L757" t="n">
+        <v>392.0194436778193</v>
+      </c>
+      <c r="M757" t="n">
+        <v>5</v>
+      </c>
+      <c r="N757" t="n">
+        <v>1</v>
+      </c>
+      <c r="O757" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>40980</v>
+      </c>
+      <c r="C758" t="n">
+        <v>262</v>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>40791</v>
+      </c>
+      <c r="E758" t="n">
+        <v>235</v>
+      </c>
+      <c r="F758" t="n">
+        <v>62.52788543701172</v>
+      </c>
+      <c r="G758" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="H758" t="n">
+        <v>245</v>
+      </c>
+      <c r="I758" t="n">
+        <v>62.19625473022461</v>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K758" t="n">
+        <v>-0.03316307067871094</v>
+      </c>
+      <c r="L758" t="n">
+        <v>70.32120704650879</v>
+      </c>
+      <c r="M758" t="n">
+        <v>5</v>
+      </c>
+      <c r="N758" t="n">
+        <v>1</v>
+      </c>
+      <c r="O758" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>41036</v>
+      </c>
+      <c r="C759" t="n">
+        <v>270</v>
+      </c>
+      <c r="D759" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="E759" t="n">
+        <v>245</v>
+      </c>
+      <c r="F759" t="n">
+        <v>62.19625473022461</v>
+      </c>
+      <c r="G759" s="2" t="n">
+        <v>40994</v>
+      </c>
+      <c r="H759" t="n">
+        <v>264</v>
+      </c>
+      <c r="I759" t="n">
+        <v>61.62343215942383</v>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K759" t="n">
+        <v>-0.03014855635793585</v>
+      </c>
+      <c r="L759" t="n">
+        <v>69.58265103791889</v>
+      </c>
+      <c r="M759" t="n">
+        <v>5</v>
+      </c>
+      <c r="N759" t="n">
+        <v>1</v>
+      </c>
+      <c r="O759" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>41785</v>
+      </c>
+      <c r="C760" t="n">
+        <v>304</v>
+      </c>
+      <c r="D760" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="E760" t="n">
+        <v>288</v>
+      </c>
+      <c r="F760" t="n">
+        <v>854.4000244140625</v>
+      </c>
+      <c r="G760" s="2" t="n">
+        <v>41743</v>
+      </c>
+      <c r="H760" t="n">
+        <v>298</v>
+      </c>
+      <c r="I760" t="n">
+        <v>859</v>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K760" t="n">
+        <v>0.45999755859375</v>
+      </c>
+      <c r="L760" t="n">
+        <v>721.9207275390625</v>
+      </c>
+      <c r="M760" t="n">
+        <v>5</v>
+      </c>
+      <c r="N760" t="n">
+        <v>1</v>
+      </c>
+      <c r="O760" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>39573</v>
+      </c>
+      <c r="C761" t="n">
+        <v>306</v>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>39468</v>
+      </c>
+      <c r="E761" t="n">
+        <v>291</v>
+      </c>
+      <c r="F761" t="n">
+        <v>889</v>
+      </c>
+      <c r="G761" s="2" t="n">
+        <v>39531</v>
+      </c>
+      <c r="H761" t="n">
+        <v>300</v>
+      </c>
+      <c r="I761" t="n">
+        <v>895</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K761" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L761" t="n">
+        <v>695</v>
+      </c>
+      <c r="M761" t="n">
+        <v>5</v>
+      </c>
+      <c r="N761" t="n">
+        <v>1</v>
+      </c>
+      <c r="O761" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>40700</v>
+      </c>
+      <c r="C762" t="n">
+        <v>460</v>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="E762" t="n">
+        <v>432</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G762" s="2" t="n">
+        <v>40658</v>
+      </c>
+      <c r="H762" t="n">
+        <v>454</v>
+      </c>
+      <c r="I762" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K762" t="n">
+        <v>-0.7227283824573864</v>
+      </c>
+      <c r="L762" t="n">
+        <v>2011.218661221591</v>
+      </c>
+      <c r="M762" t="n">
+        <v>5</v>
+      </c>
+      <c r="N762" t="n">
+        <v>1</v>
+      </c>
+      <c r="O762" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>37242</v>
+      </c>
+      <c r="C763" t="n">
+        <v>311</v>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>37151</v>
+      </c>
+      <c r="E763" t="n">
+        <v>298</v>
+      </c>
+      <c r="F763" t="n">
+        <v>9</v>
+      </c>
+      <c r="G763" s="2" t="n">
+        <v>37200</v>
+      </c>
+      <c r="H763" t="n">
+        <v>305</v>
+      </c>
+      <c r="I763" t="n">
+        <v>9</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L763" t="n">
+        <v>9</v>
+      </c>
+      <c r="M763" t="n">
+        <v>5</v>
+      </c>
+      <c r="N763" t="n">
+        <v>1</v>
+      </c>
+      <c r="O763" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="C764" t="n">
+        <v>314</v>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="E764" t="n">
+        <v>301</v>
+      </c>
+      <c r="F764" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="G764" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H764" t="n">
+        <v>308</v>
+      </c>
+      <c r="I764" t="n">
+        <v>244.1000061035156</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K764" t="n">
+        <v>0.2642865862165178</v>
+      </c>
+      <c r="L764" t="n">
+        <v>162.6997375488281</v>
+      </c>
+      <c r="M764" t="n">
+        <v>5</v>
+      </c>
+      <c r="N764" t="n">
+        <v>1</v>
+      </c>
+      <c r="O764" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>40805</v>
+      </c>
+      <c r="C765" t="n">
+        <v>475</v>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="E765" t="n">
+        <v>462</v>
+      </c>
+      <c r="F765" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G765" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="H765" t="n">
+        <v>469</v>
+      </c>
+      <c r="I765" t="n">
+        <v>1389</v>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K765" t="n">
+        <v>1</v>
+      </c>
+      <c r="L765" t="n">
+        <v>920</v>
+      </c>
+      <c r="M765" t="n">
+        <v>5</v>
+      </c>
+      <c r="N765" t="n">
+        <v>1</v>
+      </c>
+      <c r="O765" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="C766" t="n">
+        <v>330</v>
+      </c>
+      <c r="D766" s="2" t="n">
+        <v>43136</v>
+      </c>
+      <c r="E766" t="n">
+        <v>309</v>
+      </c>
+      <c r="F766" t="n">
+        <v>671.75</v>
+      </c>
+      <c r="G766" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="H766" t="n">
+        <v>316</v>
+      </c>
+      <c r="I766" t="n">
+        <v>665.0999755859375</v>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K766" t="n">
+        <v>-0.9500034877232143</v>
+      </c>
+      <c r="L766" t="n">
+        <v>965.3010777064733</v>
+      </c>
+      <c r="M766" t="n">
+        <v>5</v>
+      </c>
+      <c r="N766" t="n">
+        <v>1</v>
+      </c>
+      <c r="O766" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="C767" t="n">
+        <v>483</v>
+      </c>
+      <c r="D767" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="E767" t="n">
+        <v>462</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G767" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="H767" t="n">
+        <v>477</v>
+      </c>
+      <c r="I767" t="n">
+        <v>1390</v>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K767" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L767" t="n">
+        <v>1135.6</v>
+      </c>
+      <c r="M767" t="n">
+        <v>5</v>
+      </c>
+      <c r="N767" t="n">
+        <v>1</v>
+      </c>
+      <c r="O767" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="C768" t="n">
+        <v>483</v>
+      </c>
+      <c r="D768" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="E768" t="n">
+        <v>469</v>
+      </c>
+      <c r="F768" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G768" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="H768" t="n">
+        <v>477</v>
+      </c>
+      <c r="I768" t="n">
+        <v>1390</v>
+      </c>
+      <c r="J768" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K768" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L768" t="n">
+        <v>1330.375</v>
+      </c>
+      <c r="M768" t="n">
+        <v>5</v>
+      </c>
+      <c r="N768" t="n">
+        <v>1</v>
+      </c>
+      <c r="O768" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C769" t="n">
+        <v>341</v>
+      </c>
+      <c r="D769" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="E769" t="n">
+        <v>320</v>
+      </c>
+      <c r="F769" t="n">
+        <v>925</v>
+      </c>
+      <c r="G769" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H769" t="n">
+        <v>335</v>
+      </c>
+      <c r="I769" t="n">
+        <v>922.5</v>
+      </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K769" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="L769" t="n">
+        <v>978.3333333333334</v>
+      </c>
+      <c r="M769" t="n">
+        <v>5</v>
+      </c>
+      <c r="N769" t="n">
+        <v>1</v>
+      </c>
+      <c r="O769" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C770" t="n">
+        <v>331</v>
+      </c>
+      <c r="D770" s="2" t="n">
+        <v>43500</v>
+      </c>
+      <c r="E770" t="n">
+        <v>319</v>
+      </c>
+      <c r="F770" t="n">
+        <v>335</v>
+      </c>
+      <c r="G770" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="H770" t="n">
+        <v>325</v>
+      </c>
+      <c r="I770" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K770" t="n">
+        <v>-0.258331298828125</v>
+      </c>
+      <c r="L770" t="n">
+        <v>417.4076843261719</v>
+      </c>
+      <c r="M770" t="n">
+        <v>5</v>
+      </c>
+      <c r="N770" t="n">
+        <v>1</v>
+      </c>
+      <c r="O770" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>43325</v>
+      </c>
+      <c r="C771" t="n">
+        <v>336</v>
+      </c>
+      <c r="D771" s="2" t="n">
+        <v>43241</v>
+      </c>
+      <c r="E771" t="n">
+        <v>324</v>
+      </c>
+      <c r="F771" t="n">
+        <v>708.2999877929688</v>
+      </c>
+      <c r="G771" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="H771" t="n">
+        <v>330</v>
+      </c>
+      <c r="I771" t="n">
+        <v>711.5999755859375</v>
+      </c>
+      <c r="J771" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K771" t="n">
+        <v>0.5499979654947916</v>
+      </c>
+      <c r="L771" t="n">
+        <v>530.1006469726562</v>
+      </c>
+      <c r="M771" t="n">
+        <v>5</v>
+      </c>
+      <c r="N771" t="n">
+        <v>1</v>
+      </c>
+      <c r="O771" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>40938</v>
+      </c>
+      <c r="C772" t="n">
+        <v>494</v>
+      </c>
+      <c r="D772" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="E772" t="n">
+        <v>469</v>
+      </c>
+      <c r="F772" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G772" s="2" t="n">
+        <v>40896</v>
+      </c>
+      <c r="H772" t="n">
+        <v>488</v>
+      </c>
+      <c r="I772" t="n">
+        <v>1381</v>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K772" t="n">
+        <v>-0.4210526315789473</v>
+      </c>
+      <c r="L772" t="n">
+        <v>1586.473684210526</v>
+      </c>
+      <c r="M772" t="n">
+        <v>5</v>
+      </c>
+      <c r="N772" t="n">
+        <v>1</v>
+      </c>
+      <c r="O772" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>40938</v>
+      </c>
+      <c r="C773" t="n">
+        <v>494</v>
+      </c>
+      <c r="D773" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="E773" t="n">
+        <v>477</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G773" s="2" t="n">
+        <v>40896</v>
+      </c>
+      <c r="H773" t="n">
+        <v>488</v>
+      </c>
+      <c r="I773" t="n">
+        <v>1381</v>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K773" t="n">
+        <v>-0.8181818181818182</v>
+      </c>
+      <c r="L773" t="n">
+        <v>1780.272727272727</v>
+      </c>
+      <c r="M773" t="n">
+        <v>5</v>
+      </c>
+      <c r="N773" t="n">
+        <v>1</v>
+      </c>
+      <c r="O773" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="C774" t="n">
+        <v>382</v>
+      </c>
+      <c r="D774" s="2" t="n">
+        <v>41736</v>
+      </c>
+      <c r="E774" t="n">
+        <v>370</v>
+      </c>
+      <c r="F774" t="n">
+        <v>89.66149139404297</v>
+      </c>
+      <c r="G774" s="2" t="n">
+        <v>41778</v>
+      </c>
+      <c r="H774" t="n">
+        <v>376</v>
+      </c>
+      <c r="I774" t="n">
+        <v>90.32476043701172</v>
+      </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K774" t="n">
+        <v>0.1105448404947917</v>
+      </c>
+      <c r="L774" t="n">
+        <v>48.75990041097005</v>
+      </c>
+      <c r="M774" t="n">
+        <v>5</v>
+      </c>
+      <c r="N774" t="n">
+        <v>1</v>
+      </c>
+      <c r="O774" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>41855</v>
+      </c>
+      <c r="C775" t="n">
+        <v>387</v>
+      </c>
+      <c r="D775" s="2" t="n">
+        <v>41764</v>
+      </c>
+      <c r="E775" t="n">
+        <v>374</v>
+      </c>
+      <c r="F775" t="n">
+        <v>77.87345123291016</v>
+      </c>
+      <c r="G775" s="2" t="n">
+        <v>41813</v>
+      </c>
+      <c r="H775" t="n">
+        <v>381</v>
+      </c>
+      <c r="I775" t="n">
+        <v>78.29552459716797</v>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K775" t="n">
+        <v>0.06029619489397321</v>
+      </c>
+      <c r="L775" t="n">
+        <v>55.32267434256417</v>
+      </c>
+      <c r="M775" t="n">
+        <v>5</v>
+      </c>
+      <c r="N775" t="n">
+        <v>1</v>
+      </c>
+      <c r="O775" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>37697</v>
+      </c>
+      <c r="C776" t="n">
+        <v>376</v>
+      </c>
+      <c r="D776" s="2" t="n">
+        <v>37557</v>
+      </c>
+      <c r="E776" t="n">
+        <v>356</v>
+      </c>
+      <c r="F776" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="G776" s="2" t="n">
+        <v>37655</v>
+      </c>
+      <c r="H776" t="n">
+        <v>370</v>
+      </c>
+      <c r="I776" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K776" t="n">
+        <v>-0.007142816271100726</v>
+      </c>
+      <c r="L776" t="n">
+        <v>15.44284221104213</v>
+      </c>
+      <c r="M776" t="n">
+        <v>5</v>
+      </c>
+      <c r="N776" t="n">
+        <v>1</v>
+      </c>
+      <c r="O776" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C777" t="n">
+        <v>387</v>
+      </c>
+      <c r="D777" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E777" t="n">
+        <v>370</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1144</v>
+      </c>
+      <c r="G777" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="H777" t="n">
+        <v>381</v>
+      </c>
+      <c r="I777" t="n">
+        <v>1152</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K777" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L777" t="n">
+        <v>874.9090909090909</v>
+      </c>
+      <c r="M777" t="n">
+        <v>5</v>
+      </c>
+      <c r="N777" t="n">
+        <v>1</v>
+      </c>
+      <c r="O777" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C778" t="n">
+        <v>388</v>
+      </c>
+      <c r="D778" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E778" t="n">
+        <v>372</v>
+      </c>
+      <c r="F778" t="n">
+        <v>970.5499877929688</v>
+      </c>
+      <c r="G778" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="H778" t="n">
+        <v>382</v>
+      </c>
+      <c r="I778" t="n">
+        <v>978.75</v>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K778" t="n">
+        <v>0.820001220703125</v>
+      </c>
+      <c r="L778" t="n">
+        <v>665.5095336914062</v>
+      </c>
+      <c r="M778" t="n">
+        <v>5</v>
+      </c>
+      <c r="N778" t="n">
+        <v>1</v>
+      </c>
+      <c r="O778" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>40546</v>
+      </c>
+      <c r="C779" t="n">
+        <v>445</v>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>40420</v>
+      </c>
+      <c r="E779" t="n">
+        <v>427</v>
+      </c>
+      <c r="F779" t="n">
+        <v>2011.099975585938</v>
+      </c>
+      <c r="G779" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="H779" t="n">
+        <v>439</v>
+      </c>
+      <c r="I779" t="n">
+        <v>2015</v>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K779" t="n">
+        <v>0.3250020345052083</v>
+      </c>
+      <c r="L779" t="n">
+        <v>1872.324106852214</v>
+      </c>
+      <c r="M779" t="n">
+        <v>5</v>
+      </c>
+      <c r="N779" t="n">
+        <v>1</v>
+      </c>
+      <c r="O779" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="C780" t="n">
+        <v>418</v>
+      </c>
+      <c r="D780" s="2" t="n">
+        <v>41960</v>
+      </c>
+      <c r="E780" t="n">
+        <v>402</v>
+      </c>
+      <c r="F780" t="n">
+        <v>104.3136367797852</v>
+      </c>
+      <c r="G780" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="H780" t="n">
+        <v>412</v>
+      </c>
+      <c r="I780" t="n">
+        <v>103.7709655761719</v>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K780" t="n">
+        <v>-0.05426712036132812</v>
+      </c>
+      <c r="L780" t="n">
+        <v>126.1290191650391</v>
+      </c>
+      <c r="M780" t="n">
+        <v>5</v>
+      </c>
+      <c r="N780" t="n">
+        <v>1</v>
+      </c>
+      <c r="O780" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>42191</v>
+      </c>
+      <c r="C781" t="n">
+        <v>435</v>
+      </c>
+      <c r="D781" s="2" t="n">
+        <v>42135</v>
+      </c>
+      <c r="E781" t="n">
+        <v>427</v>
+      </c>
+      <c r="F781" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G781" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H781" t="n">
+        <v>429</v>
+      </c>
+      <c r="I781" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L781" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M781" t="n">
+        <v>5</v>
+      </c>
+      <c r="N781" t="n">
+        <v>1</v>
+      </c>
+      <c r="O781" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="C782" t="n">
+        <v>437</v>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>42135</v>
+      </c>
+      <c r="E782" t="n">
+        <v>427</v>
+      </c>
+      <c r="F782" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G782" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="H782" t="n">
+        <v>431</v>
+      </c>
+      <c r="I782" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L782" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M782" t="n">
+        <v>5</v>
+      </c>
+      <c r="N782" t="n">
+        <v>1</v>
+      </c>
+      <c r="O782" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="C783" t="n">
+        <v>437</v>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="E783" t="n">
+        <v>429</v>
+      </c>
+      <c r="F783" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G783" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="H783" t="n">
+        <v>431</v>
+      </c>
+      <c r="I783" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L783" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M783" t="n">
+        <v>5</v>
+      </c>
+      <c r="N783" t="n">
+        <v>1</v>
+      </c>
+      <c r="O783" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="C784" t="n">
+        <v>457</v>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E784" t="n">
+        <v>450</v>
+      </c>
+      <c r="F784" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G784" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="H784" t="n">
+        <v>451</v>
+      </c>
+      <c r="I784" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L784" t="n">
+        <v>1875</v>
+      </c>
+      <c r="M784" t="n">
+        <v>5</v>
+      </c>
+      <c r="N784" t="n">
+        <v>1</v>
+      </c>
+      <c r="O784" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>38215</v>
+      </c>
+      <c r="C785" t="n">
+        <v>450</v>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>38131</v>
+      </c>
+      <c r="E785" t="n">
+        <v>438</v>
+      </c>
+      <c r="F785" t="n">
+        <v>38</v>
+      </c>
+      <c r="G785" s="2" t="n">
+        <v>38173</v>
+      </c>
+      <c r="H785" t="n">
+        <v>444</v>
+      </c>
+      <c r="I785" t="n">
+        <v>38</v>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L785" t="n">
+        <v>38</v>
+      </c>
+      <c r="M785" t="n">
+        <v>5</v>
+      </c>
+      <c r="N785" t="n">
+        <v>1</v>
+      </c>
+      <c r="O785" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="C786" t="n">
+        <v>491</v>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E786" t="n">
+        <v>468</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1478.5</v>
+      </c>
+      <c r="G786" s="2" t="n">
+        <v>44368</v>
+      </c>
+      <c r="H786" t="n">
+        <v>485</v>
+      </c>
+      <c r="I786" t="n">
+        <v>1471.300048828125</v>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K786" t="n">
+        <v>-0.4235265395220588</v>
+      </c>
+      <c r="L786" t="n">
+        <v>1676.710420496323</v>
+      </c>
+      <c r="M786" t="n">
+        <v>5</v>
+      </c>
+      <c r="N786" t="n">
+        <v>1</v>
+      </c>
+      <c r="O786" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C787" t="n">
+        <v>491</v>
+      </c>
+      <c r="D787" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E787" t="n">
+        <v>466</v>
+      </c>
+      <c r="F787" t="n">
+        <v>58.60858917236328</v>
+      </c>
+      <c r="G787" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="H787" t="n">
+        <v>485</v>
+      </c>
+      <c r="I787" t="n">
+        <v>58.21665954589844</v>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K787" t="n">
+        <v>-0.02062787507709704</v>
+      </c>
+      <c r="L787" t="n">
+        <v>68.22117895829051</v>
+      </c>
+      <c r="M787" t="n">
+        <v>5</v>
+      </c>
+      <c r="N787" t="n">
+        <v>1</v>
+      </c>
+      <c r="O787" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C788" t="n">
+        <v>515</v>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="E788" t="n">
+        <v>490</v>
+      </c>
+      <c r="F788" t="n">
+        <v>181.1999969482422</v>
+      </c>
+      <c r="G788" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H788" t="n">
+        <v>509</v>
+      </c>
+      <c r="I788" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K788" t="n">
+        <v>0.06842121325041119</v>
+      </c>
+      <c r="L788" t="n">
+        <v>147.6736024555407</v>
+      </c>
+      <c r="M788" t="n">
+        <v>5</v>
+      </c>
+      <c r="N788" t="n">
+        <v>1</v>
+      </c>
+      <c r="O788" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>42786</v>
+      </c>
+      <c r="C789" t="n">
+        <v>520</v>
+      </c>
+      <c r="D789" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="E789" t="n">
+        <v>505</v>
+      </c>
+      <c r="F789" t="n">
+        <v>39.67536163330078</v>
+      </c>
+      <c r="G789" s="2" t="n">
+        <v>42744</v>
+      </c>
+      <c r="H789" t="n">
+        <v>514</v>
+      </c>
+      <c r="I789" t="n">
+        <v>39.97684478759766</v>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K789" t="n">
+        <v>0.03349812825520834</v>
+      </c>
+      <c r="L789" t="n">
+        <v>22.75880686442057</v>
+      </c>
+      <c r="M789" t="n">
+        <v>5</v>
+      </c>
+      <c r="N789" t="n">
+        <v>1</v>
+      </c>
+      <c r="O789" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>42191</v>
+      </c>
+      <c r="C790" t="n">
+        <v>673</v>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>42093</v>
+      </c>
+      <c r="E790" t="n">
+        <v>659</v>
+      </c>
+      <c r="F790" t="n">
+        <v>4115</v>
+      </c>
+      <c r="G790" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H790" t="n">
+        <v>667</v>
+      </c>
+      <c r="I790" t="n">
+        <v>4144</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K790" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="L790" t="n">
+        <v>1726.125</v>
+      </c>
+      <c r="M790" t="n">
+        <v>5</v>
+      </c>
+      <c r="N790" t="n">
+        <v>1</v>
+      </c>
+      <c r="O790" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C791" t="n">
+        <v>544</v>
+      </c>
+      <c r="D791" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="E791" t="n">
+        <v>526</v>
+      </c>
+      <c r="F791" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="G791" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="H791" t="n">
+        <v>538</v>
+      </c>
+      <c r="I791" t="n">
+        <v>135.8000030517578</v>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K791" t="n">
+        <v>0.05416742960611979</v>
+      </c>
+      <c r="L791" t="n">
+        <v>106.6579259236654</v>
+      </c>
+      <c r="M791" t="n">
+        <v>5</v>
+      </c>
+      <c r="N791" t="n">
+        <v>1</v>
+      </c>
+      <c r="O791" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C792" t="n">
+        <v>575</v>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>41050</v>
+      </c>
+      <c r="E792" t="n">
+        <v>517</v>
+      </c>
+      <c r="F792" t="n">
+        <v>2353</v>
+      </c>
+      <c r="G792" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="H792" t="n">
+        <v>569</v>
+      </c>
+      <c r="I792" t="n">
+        <v>2350</v>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K792" t="n">
+        <v>-0.0576923076923077</v>
+      </c>
+      <c r="L792" t="n">
+        <v>2382.826923076923</v>
+      </c>
+      <c r="M792" t="n">
+        <v>5</v>
+      </c>
+      <c r="N792" t="n">
+        <v>1</v>
+      </c>
+      <c r="O792" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="C793" t="n">
+        <v>676</v>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>42058</v>
+      </c>
+      <c r="E793" t="n">
+        <v>654</v>
+      </c>
+      <c r="F793" t="n">
+        <v>3708.5</v>
+      </c>
+      <c r="G793" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="H793" t="n">
+        <v>670</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K793" t="n">
+        <v>0.1281280517578125</v>
+      </c>
+      <c r="L793" t="n">
+        <v>3624.704254150391</v>
+      </c>
+      <c r="M793" t="n">
+        <v>5</v>
+      </c>
+      <c r="N793" t="n">
+        <v>1</v>
+      </c>
+      <c r="O793" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="C794" t="n">
+        <v>676</v>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="E794" t="n">
+        <v>669</v>
+      </c>
+      <c r="F794" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="G794" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="H794" t="n">
+        <v>670</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L794" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="M794" t="n">
+        <v>5</v>
+      </c>
+      <c r="N794" t="n">
+        <v>1</v>
+      </c>
+      <c r="O794" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="C795" t="n">
+        <v>504</v>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>38502</v>
+      </c>
+      <c r="E795" t="n">
+        <v>491</v>
+      </c>
+      <c r="F795" t="n">
+        <v>124.5999984741211</v>
+      </c>
+      <c r="G795" s="2" t="n">
+        <v>38551</v>
+      </c>
+      <c r="H795" t="n">
+        <v>498</v>
+      </c>
+      <c r="I795" t="n">
+        <v>124.8000030517578</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K795" t="n">
+        <v>0.02857208251953125</v>
+      </c>
+      <c r="L795" t="n">
+        <v>110.5711059570312</v>
+      </c>
+      <c r="M795" t="n">
+        <v>5</v>
+      </c>
+      <c r="N795" t="n">
+        <v>1</v>
+      </c>
+      <c r="O795" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>38635</v>
+      </c>
+      <c r="C796" t="n">
+        <v>510</v>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>38502</v>
+      </c>
+      <c r="E796" t="n">
+        <v>491</v>
+      </c>
+      <c r="F796" t="n">
+        <v>124.5999984741211</v>
+      </c>
+      <c r="G796" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="H796" t="n">
+        <v>504</v>
+      </c>
+      <c r="I796" t="n">
+        <v>125.8000030517578</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K796" t="n">
+        <v>0.09230804443359375</v>
+      </c>
+      <c r="L796" t="n">
+        <v>79.27674865722656</v>
+      </c>
+      <c r="M796" t="n">
+        <v>5</v>
+      </c>
+      <c r="N796" t="n">
+        <v>1</v>
+      </c>
+      <c r="O796" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>38635</v>
+      </c>
+      <c r="C797" t="n">
+        <v>510</v>
+      </c>
+      <c r="D797" s="2" t="n">
+        <v>38551</v>
+      </c>
+      <c r="E797" t="n">
+        <v>498</v>
+      </c>
+      <c r="F797" t="n">
+        <v>124.8000030517578</v>
+      </c>
+      <c r="G797" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="H797" t="n">
+        <v>504</v>
+      </c>
+      <c r="I797" t="n">
+        <v>125.8000030517578</v>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K797" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L797" t="n">
+        <v>41.80000305175781</v>
+      </c>
+      <c r="M797" t="n">
+        <v>5</v>
+      </c>
+      <c r="N797" t="n">
+        <v>1</v>
+      </c>
+      <c r="O797" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C798" t="n">
+        <v>570</v>
+      </c>
+      <c r="D798" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="E798" t="n">
+        <v>547</v>
+      </c>
+      <c r="F798" t="n">
+        <v>1491.400024414062</v>
+      </c>
+      <c r="G798" s="2" t="n">
+        <v>43605</v>
+      </c>
+      <c r="H798" t="n">
+        <v>564</v>
+      </c>
+      <c r="I798" t="n">
+        <v>1483.699951171875</v>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K798" t="n">
+        <v>-0.4529454848345588</v>
+      </c>
+      <c r="L798" t="n">
+        <v>1739.161204618566</v>
+      </c>
+      <c r="M798" t="n">
+        <v>5</v>
+      </c>
+      <c r="N798" t="n">
+        <v>1</v>
+      </c>
+      <c r="O798" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C799" t="n">
+        <v>557</v>
+      </c>
+      <c r="D799" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="E799" t="n">
+        <v>520</v>
+      </c>
+      <c r="F799" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G799" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H799" t="n">
+        <v>551</v>
+      </c>
+      <c r="I799" t="n">
+        <v>1156</v>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K799" t="n">
+        <v>-0.2903225806451613</v>
+      </c>
+      <c r="L799" t="n">
+        <v>1315.967741935484</v>
+      </c>
+      <c r="M799" t="n">
+        <v>5</v>
+      </c>
+      <c r="N799" t="n">
+        <v>1</v>
+      </c>
+      <c r="O799" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="C800" t="n">
+        <v>572</v>
+      </c>
+      <c r="D800" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="E800" t="n">
+        <v>556</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G800" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="H800" t="n">
+        <v>566</v>
+      </c>
+      <c r="I800" t="n">
+        <v>1294</v>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K800" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L800" t="n">
+        <v>1180.8</v>
+      </c>
+      <c r="M800" t="n">
+        <v>5</v>
+      </c>
+      <c r="N800" t="n">
+        <v>1</v>
+      </c>
+      <c r="O800" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="C801" t="n">
+        <v>761</v>
+      </c>
+      <c r="D801" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="E801" t="n">
+        <v>754</v>
+      </c>
+      <c r="F801" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G801" s="2" t="n">
+        <v>42765</v>
+      </c>
+      <c r="H801" t="n">
+        <v>755</v>
+      </c>
+      <c r="I801" t="n">
+        <v>4360</v>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L801" t="n">
+        <v>4360</v>
+      </c>
+      <c r="M801" t="n">
+        <v>5</v>
+      </c>
+      <c r="N801" t="n">
+        <v>1</v>
+      </c>
+      <c r="O801" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>42849</v>
+      </c>
+      <c r="C802" t="n">
+        <v>767</v>
+      </c>
+      <c r="D802" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="E802" t="n">
+        <v>754</v>
+      </c>
+      <c r="F802" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G802" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="H802" t="n">
+        <v>761</v>
+      </c>
+      <c r="I802" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K802" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="L802" t="n">
+        <v>1990.285714285714</v>
+      </c>
+      <c r="M802" t="n">
+        <v>5</v>
+      </c>
+      <c r="N802" t="n">
+        <v>1</v>
+      </c>
+      <c r="O802" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>42849</v>
+      </c>
+      <c r="C803" t="n">
+        <v>767</v>
+      </c>
+      <c r="D803" s="2" t="n">
+        <v>42765</v>
+      </c>
+      <c r="E803" t="n">
+        <v>755</v>
+      </c>
+      <c r="F803" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G803" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="H803" t="n">
+        <v>761</v>
+      </c>
+      <c r="I803" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K803" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L803" t="n">
+        <v>1591.666666666667</v>
+      </c>
+      <c r="M803" t="n">
+        <v>5</v>
+      </c>
+      <c r="N803" t="n">
+        <v>1</v>
+      </c>
+      <c r="O803" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="C804" t="n">
+        <v>663</v>
+      </c>
+      <c r="D804" s="2" t="n">
+        <v>41925</v>
+      </c>
+      <c r="E804" t="n">
+        <v>642</v>
+      </c>
+      <c r="F804" t="n">
+        <v>3151.550048828125</v>
+      </c>
+      <c r="G804" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="H804" t="n">
+        <v>651</v>
+      </c>
+      <c r="I804" t="n">
+        <v>3162.60009765625</v>
+      </c>
+      <c r="J804" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K804" t="n">
+        <v>1.227783203125</v>
+      </c>
+      <c r="L804" t="n">
+        <v>2363.313232421875</v>
+      </c>
+      <c r="M804" t="n">
+        <v>5</v>
+      </c>
+      <c r="N804" t="n">
+        <v>1</v>
+      </c>
+      <c r="O804" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="C805" t="n">
+        <v>771</v>
+      </c>
+      <c r="D805" s="2" t="n">
+        <v>42814</v>
+      </c>
+      <c r="E805" t="n">
+        <v>762</v>
+      </c>
+      <c r="F805" t="n">
+        <v>4840</v>
+      </c>
+      <c r="G805" s="2" t="n">
+        <v>42835</v>
+      </c>
+      <c r="H805" t="n">
+        <v>765</v>
+      </c>
+      <c r="I805" t="n">
+        <v>4840</v>
+      </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L805" t="n">
+        <v>4840</v>
+      </c>
+      <c r="M805" t="n">
+        <v>5</v>
+      </c>
+      <c r="N805" t="n">
+        <v>1</v>
+      </c>
+      <c r="O805" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C806" t="n">
+        <v>676</v>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="E806" t="n">
+        <v>651</v>
+      </c>
+      <c r="F806" t="n">
+        <v>3162.60009765625</v>
+      </c>
+      <c r="G806" s="2" t="n">
+        <v>42121</v>
+      </c>
+      <c r="H806" t="n">
+        <v>670</v>
+      </c>
+      <c r="I806" t="n">
+        <v>3136.10009765625</v>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K806" t="n">
+        <v>-1.394736842105263</v>
+      </c>
+      <c r="L806" t="n">
+        <v>4070.573781866776</v>
+      </c>
+      <c r="M806" t="n">
+        <v>5</v>
+      </c>
+      <c r="N806" t="n">
+        <v>1</v>
+      </c>
+      <c r="O806" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>39202</v>
+      </c>
+      <c r="C807" t="n">
+        <v>591</v>
+      </c>
+      <c r="D807" s="2" t="n">
+        <v>39118</v>
+      </c>
+      <c r="E807" t="n">
+        <v>579</v>
+      </c>
+      <c r="F807" t="n">
+        <v>249.6000061035156</v>
+      </c>
+      <c r="G807" s="2" t="n">
+        <v>39160</v>
+      </c>
+      <c r="H807" t="n">
+        <v>585</v>
+      </c>
+      <c r="I807" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K807" t="n">
+        <v>-0.01666768391927083</v>
+      </c>
+      <c r="L807" t="n">
+        <v>259.2505950927734</v>
+      </c>
+      <c r="M807" t="n">
+        <v>5</v>
+      </c>
+      <c r="N807" t="n">
+        <v>1</v>
+      </c>
+      <c r="O807" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>43038</v>
+      </c>
+      <c r="C808" t="n">
+        <v>794</v>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="E808" t="n">
+        <v>772</v>
+      </c>
+      <c r="F808" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G808" s="2" t="n">
+        <v>42996</v>
+      </c>
+      <c r="H808" t="n">
+        <v>788</v>
+      </c>
+      <c r="I808" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K808" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="L808" t="n">
+        <v>3360.75</v>
+      </c>
+      <c r="M808" t="n">
+        <v>5</v>
+      </c>
+      <c r="N808" t="n">
+        <v>1</v>
+      </c>
+      <c r="O808" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="C809" t="n">
+        <v>657</v>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="E809" t="n">
+        <v>649</v>
+      </c>
+      <c r="F809" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="G809" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="H809" t="n">
+        <v>651</v>
+      </c>
+      <c r="I809" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L809" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="M809" t="n">
+        <v>5</v>
+      </c>
+      <c r="N809" t="n">
+        <v>1</v>
+      </c>
+      <c r="O809" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>39349</v>
+      </c>
+      <c r="C810" t="n">
+        <v>612</v>
+      </c>
+      <c r="D810" s="2" t="n">
+        <v>39146</v>
+      </c>
+      <c r="E810" t="n">
+        <v>583</v>
+      </c>
+      <c r="F810" t="n">
+        <v>176.0099945068359</v>
+      </c>
+      <c r="G810" s="2" t="n">
+        <v>39307</v>
+      </c>
+      <c r="H810" t="n">
+        <v>606</v>
+      </c>
+      <c r="I810" t="n">
+        <v>174.8000030517578</v>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K810" t="n">
+        <v>-0.05260832413383152</v>
+      </c>
+      <c r="L810" t="n">
+        <v>206.6806474768597</v>
+      </c>
+      <c r="M810" t="n">
+        <v>5</v>
+      </c>
+      <c r="N810" t="n">
+        <v>1</v>
+      </c>
+      <c r="O810" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="C811" t="n">
+        <v>820</v>
+      </c>
+      <c r="D811" s="2" t="n">
+        <v>43108</v>
+      </c>
+      <c r="E811" t="n">
+        <v>804</v>
+      </c>
+      <c r="F811" t="n">
+        <v>5238.85009765625</v>
+      </c>
+      <c r="G811" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="H811" t="n">
+        <v>814</v>
+      </c>
+      <c r="I811" t="n">
+        <v>5252.14990234375</v>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K811" t="n">
+        <v>1.32998046875</v>
+      </c>
+      <c r="L811" t="n">
+        <v>4169.54580078125</v>
+      </c>
+      <c r="M811" t="n">
+        <v>5</v>
+      </c>
+      <c r="N811" t="n">
+        <v>1</v>
+      </c>
+      <c r="O811" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>43640</v>
+      </c>
+      <c r="C812" t="n">
+        <v>880</v>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>43514</v>
+      </c>
+      <c r="E812" t="n">
+        <v>862</v>
+      </c>
+      <c r="F812" t="n">
+        <v>7151.2001953125</v>
+      </c>
+      <c r="G812" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="H812" t="n">
+        <v>874</v>
+      </c>
+      <c r="I812" t="n">
+        <v>7160</v>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K812" t="n">
+        <v>0.7333170572916666</v>
+      </c>
+      <c r="L812" t="n">
+        <v>6519.080891927083</v>
+      </c>
+      <c r="M812" t="n">
+        <v>5</v>
+      </c>
+      <c r="N812" t="n">
+        <v>1</v>
+      </c>
+      <c r="O812" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="C813" t="n">
+        <v>785</v>
+      </c>
+      <c r="D813" s="2" t="n">
+        <v>42842</v>
+      </c>
+      <c r="E813" t="n">
+        <v>773</v>
+      </c>
+      <c r="F813" t="n">
+        <v>3509.89990234375</v>
+      </c>
+      <c r="G813" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="H813" t="n">
+        <v>779</v>
+      </c>
+      <c r="I813" t="n">
+        <v>3476</v>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K813" t="n">
+        <v>-5.649983723958333</v>
+      </c>
+      <c r="L813" t="n">
+        <v>7877.337320963541</v>
+      </c>
+      <c r="M813" t="n">
+        <v>5</v>
+      </c>
+      <c r="N813" t="n">
+        <v>1</v>
+      </c>
+      <c r="O813" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="C814" t="n">
+        <v>833</v>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="E814" t="n">
+        <v>813</v>
+      </c>
+      <c r="F814" t="n">
+        <v>4379.2001953125</v>
+      </c>
+      <c r="G814" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="H814" t="n">
+        <v>827</v>
+      </c>
+      <c r="I814" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K814" t="n">
+        <v>-0.3000139508928572</v>
+      </c>
+      <c r="L814" t="n">
+        <v>4623.111537388393</v>
+      </c>
+      <c r="M814" t="n">
+        <v>5</v>
+      </c>
+      <c r="N814" t="n">
+        <v>1</v>
+      </c>
+      <c r="O814" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>43290</v>
+      </c>
+      <c r="C815" t="n">
+        <v>837</v>
+      </c>
+      <c r="D815" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="E815" t="n">
+        <v>822</v>
+      </c>
+      <c r="F815" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G815" s="2" t="n">
+        <v>43248</v>
+      </c>
+      <c r="H815" t="n">
+        <v>831</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3695.050048828125</v>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K815" t="n">
+        <v>-1.661105685763889</v>
+      </c>
+      <c r="L815" t="n">
+        <v>5075.428873697916</v>
+      </c>
+      <c r="M815" t="n">
+        <v>5</v>
+      </c>
+      <c r="N815" t="n">
+        <v>1</v>
+      </c>
+      <c r="O815" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C816" t="n">
+        <v>777</v>
+      </c>
+      <c r="D816" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E816" t="n">
+        <v>770</v>
+      </c>
+      <c r="F816" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="G816" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="H816" t="n">
+        <v>771</v>
+      </c>
+      <c r="I816" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="M816" t="n">
+        <v>5</v>
+      </c>
+      <c r="N816" t="n">
+        <v>1</v>
+      </c>
+      <c r="O816" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C817" t="n">
+        <v>789</v>
+      </c>
+      <c r="D817" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="E817" t="n">
+        <v>764</v>
+      </c>
+      <c r="F817" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="G817" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H817" t="n">
+        <v>783</v>
+      </c>
+      <c r="I817" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L817" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="M817" t="n">
+        <v>5</v>
+      </c>
+      <c r="N817" t="n">
+        <v>1</v>
+      </c>
+      <c r="O817" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C818" t="n">
+        <v>879</v>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="E818" t="n">
+        <v>852</v>
+      </c>
+      <c r="F818" t="n">
+        <v>3321.35009765625</v>
+      </c>
+      <c r="G818" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="H818" t="n">
+        <v>873</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3325.800048828125</v>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K818" t="n">
+        <v>0.2119024367559524</v>
+      </c>
+      <c r="L818" t="n">
+        <v>3140.809221540178</v>
+      </c>
+      <c r="M818" t="n">
+        <v>5</v>
+      </c>
+      <c r="N818" t="n">
+        <v>1</v>
+      </c>
+      <c r="O818" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C819" t="n">
+        <v>816</v>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="E819" t="n">
+        <v>795</v>
+      </c>
+      <c r="F819" t="n">
+        <v>10.19999980926514</v>
+      </c>
+      <c r="G819" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="H819" t="n">
+        <v>810</v>
+      </c>
+      <c r="I819" t="n">
+        <v>10.10000038146973</v>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K819" t="n">
+        <v>-0.00666662851969401</v>
+      </c>
+      <c r="L819" t="n">
+        <v>15.49996948242188</v>
+      </c>
+      <c r="M819" t="n">
+        <v>5</v>
+      </c>
+      <c r="N819" t="n">
+        <v>1</v>
+      </c>
+      <c r="O819" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C820" t="n">
+        <v>891</v>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E820" t="n">
+        <v>878</v>
+      </c>
+      <c r="F820" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G820" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H820" t="n">
+        <v>885</v>
+      </c>
+      <c r="I820" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L820" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M820" t="n">
+        <v>5</v>
+      </c>
+      <c r="N820" t="n">
+        <v>1</v>
+      </c>
+      <c r="O820" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E821" t="n">
+        <v>1102</v>
+      </c>
+      <c r="F821" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G821" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="H821" t="n">
+        <v>1114</v>
+      </c>
+      <c r="I821" t="n">
+        <v>22000</v>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L821" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M821" t="n">
+        <v>5</v>
+      </c>
+      <c r="N821" t="n">
+        <v>1</v>
+      </c>
+      <c r="O821" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E822" t="n">
+        <v>974</v>
+      </c>
+      <c r="F822" t="n">
+        <v>2931.050048828125</v>
+      </c>
+      <c r="G822" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="H822" t="n">
+        <v>1042</v>
+      </c>
+      <c r="I822" t="n">
+        <v>2950</v>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K822" t="n">
+        <v>0.2786757525275735</v>
+      </c>
+      <c r="L822" t="n">
+        <v>2659.619865866268</v>
+      </c>
+      <c r="M822" t="n">
+        <v>5</v>
+      </c>
+      <c r="N822" t="n">
+        <v>1</v>
+      </c>
+      <c r="O822" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>41288</v>
+      </c>
+      <c r="C823" t="n">
+        <v>889</v>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="E823" t="n">
+        <v>874</v>
+      </c>
+      <c r="F823" t="n">
+        <v>264.7999877929688</v>
+      </c>
+      <c r="G823" s="2" t="n">
+        <v>41246</v>
+      </c>
+      <c r="H823" t="n">
+        <v>883</v>
+      </c>
+      <c r="I823" t="n">
+        <v>266.7000122070312</v>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K823" t="n">
+        <v>0.2111138237847222</v>
+      </c>
+      <c r="L823" t="n">
+        <v>80.28650580512155</v>
+      </c>
+      <c r="M823" t="n">
+        <v>5</v>
+      </c>
+      <c r="N823" t="n">
+        <v>1</v>
+      </c>
+      <c r="O823" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1123</v>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>42800</v>
+      </c>
+      <c r="E824" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F824" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="G824" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="H824" t="n">
+        <v>1117</v>
+      </c>
+      <c r="I824" t="n">
+        <v>514</v>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K824" t="n">
+        <v>0.1416676839192708</v>
+      </c>
+      <c r="L824" t="n">
+        <v>355.7571970621744</v>
+      </c>
+      <c r="M824" t="n">
+        <v>5</v>
+      </c>
+      <c r="N824" t="n">
+        <v>1</v>
+      </c>
+      <c r="O824" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>43360</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>43227</v>
+      </c>
+      <c r="E825" t="n">
+        <v>1166</v>
+      </c>
+      <c r="F825" t="n">
+        <v>531.5</v>
+      </c>
+      <c r="G825" s="2" t="n">
+        <v>43318</v>
+      </c>
+      <c r="H825" t="n">
+        <v>1179</v>
+      </c>
+      <c r="I825" t="n">
+        <v>534</v>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K825" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="L825" t="n">
+        <v>307.2692307692307</v>
+      </c>
+      <c r="M825" t="n">
+        <v>5</v>
+      </c>
+      <c r="N825" t="n">
+        <v>1</v>
+      </c>
+      <c r="O825" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1228</v>
+      </c>
+      <c r="D826" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E826" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F826" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="G826" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="H826" t="n">
+        <v>1222</v>
+      </c>
+      <c r="I826" t="n">
+        <v>464.3999938964844</v>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K826" t="n">
+        <v>-0.02750091552734375</v>
+      </c>
+      <c r="L826" t="n">
+        <v>498.0061126708985</v>
+      </c>
+      <c r="M826" t="n">
+        <v>5</v>
+      </c>
+      <c r="N826" t="n">
+        <v>1</v>
+      </c>
+      <c r="O826" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="E827" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F827" t="n">
+        <v>464.3999938964844</v>
+      </c>
+      <c r="G827" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="H827" t="n">
+        <v>1234</v>
+      </c>
+      <c r="I827" t="n">
+        <v>462.9500122070312</v>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K827" t="n">
+        <v>-0.1208318074544271</v>
+      </c>
+      <c r="L827" t="n">
+        <v>612.0564626057942</v>
+      </c>
+      <c r="M827" t="n">
+        <v>5</v>
+      </c>
+      <c r="N827" t="n">
+        <v>1</v>
+      </c>
+      <c r="O827" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D828" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="E828" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F828" t="n">
+        <v>394.3500061035156</v>
+      </c>
+      <c r="G828" s="2" t="n">
+        <v>43724</v>
+      </c>
+      <c r="H828" t="n">
+        <v>1237</v>
+      </c>
+      <c r="I828" t="n">
+        <v>393.0499877929688</v>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K828" t="n">
+        <v>-0.0722232394748264</v>
+      </c>
+      <c r="L828" t="n">
+        <v>482.390135023329</v>
+      </c>
+      <c r="M828" t="n">
+        <v>5</v>
+      </c>
+      <c r="N828" t="n">
+        <v>1</v>
+      </c>
+      <c r="O828" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D829" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="E829" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F829" t="n">
+        <v>641.75</v>
+      </c>
+      <c r="G829" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H829" t="n">
+        <v>1292</v>
+      </c>
+      <c r="I829" t="n">
+        <v>645</v>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K829" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L829" t="n">
+        <v>-54.83333333333326</v>
+      </c>
+      <c r="M829" t="n">
+        <v>5</v>
+      </c>
+      <c r="N829" t="n">
+        <v>1</v>
+      </c>
+      <c r="O829" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D830" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="E830" t="n">
+        <v>1334</v>
+      </c>
+      <c r="F830" t="n">
+        <v>1148.050048828125</v>
+      </c>
+      <c r="G830" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="H830" t="n">
+        <v>1341</v>
+      </c>
+      <c r="I830" t="n">
+        <v>1137</v>
+      </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K830" t="n">
+        <v>-1.578578404017857</v>
+      </c>
+      <c r="L830" t="n">
+        <v>3253.873639787947</v>
+      </c>
+      <c r="M830" t="n">
+        <v>5</v>
+      </c>
+      <c r="N830" t="n">
+        <v>1</v>
+      </c>
+      <c r="O830" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D831" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="E831" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F831" t="n">
+        <v>700</v>
+      </c>
+      <c r="G831" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="H831" t="n">
+        <v>1375</v>
+      </c>
+      <c r="I831" t="n">
+        <v>696.5</v>
+      </c>
+      <c r="J831" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K831" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="L831" t="n">
+        <v>1498.583333333333</v>
+      </c>
+      <c r="M831" t="n">
+        <v>5</v>
+      </c>
+      <c r="N831" t="n">
+        <v>1</v>
+      </c>
+      <c r="O831" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/two_line_alerts_1wk.xlsx
+++ b/excel/1wk/two_line_alerts_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1546"/>
+  <dimension ref="A1:O1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79309,6 +79309,5922 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1547" s="2" t="n">
+        <v>38859</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>41</v>
+      </c>
+      <c r="D1547" s="2" t="n">
+        <v>38684</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>37.99150848388672</v>
+      </c>
+      <c r="G1547" s="2" t="n">
+        <v>38817</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>38.08917236328125</v>
+      </c>
+      <c r="J1547" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1547" t="n">
+        <v>0.005140204178659539</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>37.90926521702816</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B1548" s="2" t="n">
+        <v>42996</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1548" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>47</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>928</v>
+      </c>
+      <c r="G1548" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>58</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="J1548" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1548" t="n">
+        <v>-0.4636341441761364</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>949.7908047762784</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1549" s="2" t="n">
+        <v>39503</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>51</v>
+      </c>
+      <c r="D1549" s="2" t="n">
+        <v>39419</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>39</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>90.50564575195312</v>
+      </c>
+      <c r="G1549" s="2" t="n">
+        <v>39461</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>45</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>90.14386749267578</v>
+      </c>
+      <c r="J1549" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1549" t="n">
+        <v>-0.06029637654622396</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>92.85720443725586</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1550" s="2" t="n">
+        <v>35387</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>46</v>
+      </c>
+      <c r="D1550" s="2" t="n">
+        <v>35289</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>44</v>
+      </c>
+      <c r="G1550" s="2" t="n">
+        <v>35345</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="J1550" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1550" t="n">
+        <v>-0.05000019073486328</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>45.60000610351562</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1551" s="2" t="n">
+        <v>35387</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>46</v>
+      </c>
+      <c r="D1551" s="2" t="n">
+        <v>35296</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>44</v>
+      </c>
+      <c r="G1551" s="2" t="n">
+        <v>35345</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="J1551" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1551" t="n">
+        <v>-0.05714307512555804</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>45.88572147914341</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B1552" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1552" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="G1552" s="2" t="n">
+        <v>43136</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>84</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>916.3499755859375</v>
+      </c>
+      <c r="J1552" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1552" t="n">
+        <v>-0.2519249549278846</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>937.5116717998798</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1553" s="2" t="n">
+        <v>41785</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>116</v>
+      </c>
+      <c r="D1553" s="2" t="n">
+        <v>41645</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>622</v>
+      </c>
+      <c r="G1553" s="2" t="n">
+        <v>41743</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>110</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>618.7000122070312</v>
+      </c>
+      <c r="J1553" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1553" t="n">
+        <v>-0.2357134137834822</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>644.6284877232143</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1554" s="2" t="n">
+        <v>38355</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>132</v>
+      </c>
+      <c r="D1554" s="2" t="n">
+        <v>38243</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>519.9000244140625</v>
+      </c>
+      <c r="G1554" s="2" t="n">
+        <v>38313</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>126</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>521.3499755859375</v>
+      </c>
+      <c r="J1554" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1554" t="n">
+        <v>0.1449951171875</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>503.0805908203125</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1555" s="2" t="n">
+        <v>42044</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1555" s="2" t="n">
+        <v>41960</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>141</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>922</v>
+      </c>
+      <c r="G1555" s="2" t="n">
+        <v>42002</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>147</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>926.7999877929688</v>
+      </c>
+      <c r="J1555" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1555" t="n">
+        <v>0.7999979654947916</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>809.2002868652344</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1556" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1556" s="2" t="n">
+        <v>42282</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>145</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>436.75</v>
+      </c>
+      <c r="G1556" s="2" t="n">
+        <v>42366</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>157</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="J1556" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1556" t="n">
+        <v>-0.02083333333333333</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>439.7708333333333</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1557" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>168</v>
+      </c>
+      <c r="D1557" s="2" t="n">
+        <v>40252</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>158</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="G1557" s="2" t="n">
+        <v>40280</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>162</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="J1557" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>41.66515731811523</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B1558" s="2" t="n">
+        <v>41141</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>212</v>
+      </c>
+      <c r="D1558" s="2" t="n">
+        <v>40980</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>189</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="G1558" s="2" t="n">
+        <v>41099</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>206</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>649</v>
+      </c>
+      <c r="J1558" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1558" t="n">
+        <v>0.002940458409926471</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>648.3942655675552</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1559" s="2" t="n">
+        <v>40371</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1559" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>168</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="G1559" s="2" t="n">
+        <v>40329</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>169</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="J1559" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>29.24399757385254</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1560" s="2" t="n">
+        <v>42618</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>193</v>
+      </c>
+      <c r="D1560" s="2" t="n">
+        <v>42478</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>173</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>410</v>
+      </c>
+      <c r="G1560" s="2" t="n">
+        <v>42576</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>187</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>413.7000122070312</v>
+      </c>
+      <c r="J1560" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1560" t="n">
+        <v>0.2642865862165178</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>364.2784205845424</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1561" s="2" t="n">
+        <v>42457</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>212</v>
+      </c>
+      <c r="D1561" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>205</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>725</v>
+      </c>
+      <c r="G1561" s="2" t="n">
+        <v>42415</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>206</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>725</v>
+      </c>
+      <c r="J1561" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>725</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1562" s="2" t="n">
+        <v>40616</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>210</v>
+      </c>
+      <c r="D1562" s="2" t="n">
+        <v>40567</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>203</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="G1562" s="2" t="n">
+        <v>40574</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>204</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="J1562" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>43.83584594726562</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1563" s="2" t="n">
+        <v>42912</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1563" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>206</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>396.0499877929688</v>
+      </c>
+      <c r="G1563" s="2" t="n">
+        <v>42870</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>229</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="J1563" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1563" t="n">
+        <v>0.01956574813179348</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>392.0194436778193</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1564" s="2" t="n">
+        <v>40364</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>256</v>
+      </c>
+      <c r="D1564" s="2" t="n">
+        <v>40119</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>221</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>68.21868896484375</v>
+      </c>
+      <c r="G1564" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>250</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>68.90233612060547</v>
+      </c>
+      <c r="J1564" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1564" t="n">
+        <v>0.02357403985385237</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>63.00882615714237</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1565" s="2" t="n">
+        <v>40364</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>256</v>
+      </c>
+      <c r="D1565" s="2" t="n">
+        <v>40217</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>235</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>69.14649963378906</v>
+      </c>
+      <c r="G1565" s="2" t="n">
+        <v>40322</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>250</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>68.90233612060547</v>
+      </c>
+      <c r="J1565" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1565" t="n">
+        <v>-0.01627756754557292</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>72.9717280069987</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1566" s="2" t="n">
+        <v>42751</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>254</v>
+      </c>
+      <c r="D1566" s="2" t="n">
+        <v>42646</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>239</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G1566" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>248</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>1413</v>
+      </c>
+      <c r="J1566" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1566" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>1605.888888888889</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1567" s="2" t="n">
+        <v>40903</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>251</v>
+      </c>
+      <c r="D1567" s="2" t="n">
+        <v>40791</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>235</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>62.52788543701172</v>
+      </c>
+      <c r="G1567" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>245</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>62.19625473022461</v>
+      </c>
+      <c r="J1567" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1567" t="n">
+        <v>-0.03316307067871094</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>70.32120704650879</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B1568" s="2" t="n">
+        <v>41897</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>320</v>
+      </c>
+      <c r="D1568" s="2" t="n">
+        <v>41673</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>288</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>854.4000244140625</v>
+      </c>
+      <c r="G1568" s="2" t="n">
+        <v>41743</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>298</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>859</v>
+      </c>
+      <c r="J1568" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1568" t="n">
+        <v>0.45999755859375</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>721.9207275390625</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1569" s="2" t="n">
+        <v>41036</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1569" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>245</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>62.19625473022461</v>
+      </c>
+      <c r="G1569" s="2" t="n">
+        <v>40994</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>264</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>61.62343215942383</v>
+      </c>
+      <c r="J1569" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1569" t="n">
+        <v>-0.03014855635793585</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>69.58265103791889</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B1570" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1570" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>320</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>925</v>
+      </c>
+      <c r="G1570" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>335</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>922.5</v>
+      </c>
+      <c r="J1570" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1570" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>978.3333333333334</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1571" s="2" t="n">
+        <v>41197</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>321</v>
+      </c>
+      <c r="D1571" s="2" t="n">
+        <v>40889</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>277</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>15.55653476715088</v>
+      </c>
+      <c r="G1571" s="2" t="n">
+        <v>41155</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>315</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>15.46814632415771</v>
+      </c>
+      <c r="J1571" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1571" t="n">
+        <v>-0.002326011657714844</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>16.20083999633789</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1572" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>314</v>
+      </c>
+      <c r="D1572" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>301</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="G1572" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>308</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>244.1000061035156</v>
+      </c>
+      <c r="J1572" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1572" t="n">
+        <v>0.2642865862165178</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>162.6997375488281</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1573" s="2" t="n">
+        <v>41225</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1573" s="2" t="n">
+        <v>41092</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>24.08611297607422</v>
+      </c>
+      <c r="G1573" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>319</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>23.86514091491699</v>
+      </c>
+      <c r="J1573" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1573" t="n">
+        <v>-0.0169978508582482</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>29.28745533869817</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1574" s="2" t="n">
+        <v>39776</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1574" s="2" t="n">
+        <v>39468</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>291</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>889</v>
+      </c>
+      <c r="G1574" s="2" t="n">
+        <v>39531</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>895</v>
+      </c>
+      <c r="J1574" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1574" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>695</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1575" s="2" t="n">
+        <v>40700</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1575" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>432</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G1575" s="2" t="n">
+        <v>40658</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>454</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="J1575" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1575" t="n">
+        <v>-0.7227283824573864</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>2011.218661221591</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1576" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>330</v>
+      </c>
+      <c r="D1576" s="2" t="n">
+        <v>43136</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>309</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>671.75</v>
+      </c>
+      <c r="G1576" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>316</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>665.0999755859375</v>
+      </c>
+      <c r="J1576" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1576" t="n">
+        <v>-0.9500034877232143</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>965.3010777064733</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1577" s="2" t="n">
+        <v>41372</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>346</v>
+      </c>
+      <c r="D1577" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>327</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>14.80522632598877</v>
+      </c>
+      <c r="G1577" s="2" t="n">
+        <v>41330</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>340</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>14.89361476898193</v>
+      </c>
+      <c r="J1577" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1577" t="n">
+        <v>0.006799110999474159</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>12.58191702916072</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1578" s="2" t="n">
+        <v>43325</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>336</v>
+      </c>
+      <c r="D1578" s="2" t="n">
+        <v>43241</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>324</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>708.2999877929688</v>
+      </c>
+      <c r="G1578" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>330</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>711.5999755859375</v>
+      </c>
+      <c r="J1578" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1578" t="n">
+        <v>0.5499979654947916</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>530.1006469726562</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1579" s="2" t="n">
+        <v>40805</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1579" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>462</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G1579" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>469</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>1389</v>
+      </c>
+      <c r="J1579" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>920</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1580" s="2" t="n">
+        <v>37242</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>311</v>
+      </c>
+      <c r="D1580" s="2" t="n">
+        <v>37151</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1580" s="2" t="n">
+        <v>37200</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>305</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1580" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1581" s="2" t="n">
+        <v>43668</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>343</v>
+      </c>
+      <c r="D1581" s="2" t="n">
+        <v>43500</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>319</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>335</v>
+      </c>
+      <c r="G1581" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>325</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="J1581" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1581" t="n">
+        <v>-0.258331298828125</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>417.4076843261719</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B1582" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>387</v>
+      </c>
+      <c r="D1582" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>370</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>1144</v>
+      </c>
+      <c r="G1582" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>381</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>1152</v>
+      </c>
+      <c r="J1582" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1582" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>874.9090909090909</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1583" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>483</v>
+      </c>
+      <c r="D1583" s="2" t="n">
+        <v>40714</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>462</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>1382</v>
+      </c>
+      <c r="G1583" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>477</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>1390</v>
+      </c>
+      <c r="J1583" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1583" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>1135.6</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B1584" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>388</v>
+      </c>
+      <c r="D1584" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>372</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>970.5499877929688</v>
+      </c>
+      <c r="G1584" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>382</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>978.75</v>
+      </c>
+      <c r="J1584" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1584" t="n">
+        <v>0.820001220703125</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>665.5095336914062</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1585" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>483</v>
+      </c>
+      <c r="D1585" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>469</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G1585" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>477</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>1390</v>
+      </c>
+      <c r="J1585" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1585" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>1330.375</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1586" s="2" t="n">
+        <v>40938</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>494</v>
+      </c>
+      <c r="D1586" s="2" t="n">
+        <v>40763</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>469</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G1586" s="2" t="n">
+        <v>40896</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>488</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>1381</v>
+      </c>
+      <c r="J1586" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1586" t="n">
+        <v>-0.4210526315789473</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>1586.473684210526</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1587" s="2" t="n">
+        <v>40938</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>494</v>
+      </c>
+      <c r="D1587" s="2" t="n">
+        <v>40819</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>477</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G1587" s="2" t="n">
+        <v>40896</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>488</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>1381</v>
+      </c>
+      <c r="J1587" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1587" t="n">
+        <v>-0.8181818181818182</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>1780.272727272727</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1588" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>382</v>
+      </c>
+      <c r="D1588" s="2" t="n">
+        <v>41736</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>370</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>89.66149139404297</v>
+      </c>
+      <c r="G1588" s="2" t="n">
+        <v>41778</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>376</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>90.32476043701172</v>
+      </c>
+      <c r="J1588" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1588" t="n">
+        <v>0.1105448404947917</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>48.75990041097005</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1589" s="2" t="n">
+        <v>40546</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1589" s="2" t="n">
+        <v>40420</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>427</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>2011.099975585938</v>
+      </c>
+      <c r="G1589" s="2" t="n">
+        <v>40504</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>439</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>2015</v>
+      </c>
+      <c r="J1589" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1589" t="n">
+        <v>0.3250020345052083</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>1872.324106852214</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1590" s="2" t="n">
+        <v>37697</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>376</v>
+      </c>
+      <c r="D1590" s="2" t="n">
+        <v>37557</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>356</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="G1590" s="2" t="n">
+        <v>37655</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>370</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="J1590" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1590" t="n">
+        <v>-0.007142816271100726</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15.44284221104213</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1591" s="2" t="n">
+        <v>41967</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>403</v>
+      </c>
+      <c r="D1591" s="2" t="n">
+        <v>41764</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>374</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>77.87345123291016</v>
+      </c>
+      <c r="G1591" s="2" t="n">
+        <v>41813</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>381</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>78.29552459716797</v>
+      </c>
+      <c r="J1591" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1591" t="n">
+        <v>0.06029619489397321</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>55.32267434256417</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1592" s="2" t="n">
+        <v>42121</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>453</v>
+      </c>
+      <c r="D1592" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>13.08163166046143</v>
+      </c>
+      <c r="G1592" s="2" t="n">
+        <v>42079</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>447</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="J1592" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1592" t="n">
+        <v>0.008997697096604567</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>9.176631120535044</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1593" s="2" t="n">
+        <v>42128</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>454</v>
+      </c>
+      <c r="D1593" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>13.08163166046143</v>
+      </c>
+      <c r="G1593" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>448</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="J1593" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1593" t="n">
+        <v>0.008355004446847098</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>9.455559730529785</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1594" s="2" t="n">
+        <v>42128</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>454</v>
+      </c>
+      <c r="D1594" s="2" t="n">
+        <v>42079</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>447</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="G1594" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>448</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="J1594" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1595" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1595" s="2" t="n">
+        <v>41960</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>402</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>104.3136367797852</v>
+      </c>
+      <c r="G1595" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>412</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>103.7709655761719</v>
+      </c>
+      <c r="J1595" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1595" t="n">
+        <v>-0.05426712036132812</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>126.1290191650391</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1596" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>457</v>
+      </c>
+      <c r="D1596" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>450</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G1596" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>451</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J1596" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>1875</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1597" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>471</v>
+      </c>
+      <c r="D1597" s="2" t="n">
+        <v>42177</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>461</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>13.96439075469971</v>
+      </c>
+      <c r="G1597" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>465</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>13.96439075469971</v>
+      </c>
+      <c r="J1597" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>13.96439075469971</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1598" s="2" t="n">
+        <v>42191</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1598" s="2" t="n">
+        <v>42135</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>427</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G1598" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>429</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J1598" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1599" s="2" t="n">
+        <v>42016</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>492</v>
+      </c>
+      <c r="D1599" s="2" t="n">
+        <v>41841</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>467</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>81.37898254394531</v>
+      </c>
+      <c r="G1599" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>486</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>81.06157684326172</v>
+      </c>
+      <c r="J1599" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1599" t="n">
+        <v>-0.01670556319387335</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>89.18048055548417</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1600" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>437</v>
+      </c>
+      <c r="D1600" s="2" t="n">
+        <v>42135</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>427</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G1600" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>431</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J1600" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1601" s="2" t="n">
+        <v>42289</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>477</v>
+      </c>
+      <c r="D1601" s="2" t="n">
+        <v>42240</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>470</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G1601" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>471</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="J1601" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1602" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>437</v>
+      </c>
+      <c r="D1602" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>429</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="G1602" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>431</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="J1602" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>99.48989105224609</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1603" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>491</v>
+      </c>
+      <c r="D1603" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>468</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>1478.5</v>
+      </c>
+      <c r="G1603" s="2" t="n">
+        <v>44368</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>485</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>1471.300048828125</v>
+      </c>
+      <c r="J1603" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1603" t="n">
+        <v>-0.4235265395220588</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>1676.710420496323</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1604" s="2" t="n">
+        <v>38215</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1604" s="2" t="n">
+        <v>38131</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>438</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>38</v>
+      </c>
+      <c r="G1604" s="2" t="n">
+        <v>38173</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>444</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1604" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1605" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1605" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>471</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G1605" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>494</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>8.784051895141602</v>
+      </c>
+      <c r="J1605" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1605" t="n">
+        <v>-0.001958556797193444</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>9.751578952955162</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1606" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1606" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>490</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>181.1999969482422</v>
+      </c>
+      <c r="G1606" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>509</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="J1606" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1606" t="n">
+        <v>0.06842121325041119</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>147.6736024555407</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B1607" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1607" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>547</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>1491.400024414062</v>
+      </c>
+      <c r="G1607" s="2" t="n">
+        <v>43605</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>564</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>1483.699951171875</v>
+      </c>
+      <c r="J1607" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1607" t="n">
+        <v>-0.4529454848345588</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>1739.161204618566</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1608" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>491</v>
+      </c>
+      <c r="D1608" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>466</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>58.60858917236328</v>
+      </c>
+      <c r="G1608" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>485</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>58.21665954589844</v>
+      </c>
+      <c r="J1608" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1608" t="n">
+        <v>-0.02062787507709704</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>68.22117895829051</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B1609" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>572</v>
+      </c>
+      <c r="D1609" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>556</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G1609" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>566</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>1294</v>
+      </c>
+      <c r="J1609" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1609" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>1180.8</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1610" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1610" s="2" t="n">
+        <v>41050</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>517</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>2353</v>
+      </c>
+      <c r="G1610" s="2" t="n">
+        <v>41414</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>569</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>2350</v>
+      </c>
+      <c r="J1610" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1610" t="n">
+        <v>-0.0576923076923077</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>2382.826923076923</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1611" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1611" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>526</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="G1611" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>538</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>135.8000030517578</v>
+      </c>
+      <c r="J1611" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1611" t="n">
+        <v>0.05416742960611979</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>106.6579259236654</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1612" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>504</v>
+      </c>
+      <c r="D1612" s="2" t="n">
+        <v>38502</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>491</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>124.5999984741211</v>
+      </c>
+      <c r="G1612" s="2" t="n">
+        <v>38551</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>498</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>124.8000030517578</v>
+      </c>
+      <c r="J1612" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1612" t="n">
+        <v>0.02857208251953125</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>110.5711059570312</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B1613" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>557</v>
+      </c>
+      <c r="D1613" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>520</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G1613" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>551</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>1156</v>
+      </c>
+      <c r="J1613" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1613" t="n">
+        <v>-0.2903225806451613</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>1315.967741935484</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1614" s="2" t="n">
+        <v>38635</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1614" s="2" t="n">
+        <v>38502</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>491</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>124.5999984741211</v>
+      </c>
+      <c r="G1614" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>504</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>125.8000030517578</v>
+      </c>
+      <c r="J1614" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1614" t="n">
+        <v>0.09230804443359375</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>79.27674865722656</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1615" s="2" t="n">
+        <v>38635</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1615" s="2" t="n">
+        <v>38551</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>498</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>124.8000030517578</v>
+      </c>
+      <c r="G1615" s="2" t="n">
+        <v>38593</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>504</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>125.8000030517578</v>
+      </c>
+      <c r="J1615" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1615" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>41.80000305175781</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1616" s="2" t="n">
+        <v>42191</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>673</v>
+      </c>
+      <c r="D1616" s="2" t="n">
+        <v>42093</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>659</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>4115</v>
+      </c>
+      <c r="G1616" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>667</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>4144</v>
+      </c>
+      <c r="J1616" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1616" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>1726.125</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1617" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1617" s="2" t="n">
+        <v>42058</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>654</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>3708.5</v>
+      </c>
+      <c r="G1617" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>669</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="J1617" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1617" t="n">
+        <v>0.136669921875</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>3619.11787109375</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1618" s="2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>676</v>
+      </c>
+      <c r="D1618" s="2" t="n">
+        <v>42058</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>654</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>3708.5</v>
+      </c>
+      <c r="G1618" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>670</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="J1618" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1618" t="n">
+        <v>0.1281280517578125</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>3624.704254150391</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1619" s="2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>676</v>
+      </c>
+      <c r="D1619" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>669</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="G1619" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>670</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="J1619" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>3710.550048828125</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1620" s="2" t="n">
+        <v>42919</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>539</v>
+      </c>
+      <c r="D1620" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>505</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>39.67536163330078</v>
+      </c>
+      <c r="G1620" s="2" t="n">
+        <v>42744</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>514</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>39.97684478759766</v>
+      </c>
+      <c r="J1620" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1620" t="n">
+        <v>0.03349812825520834</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>22.75880686442057</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1621" s="2" t="n">
+        <v>43059</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>587</v>
+      </c>
+      <c r="D1621" s="2" t="n">
+        <v>43003</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>13.87429809570312</v>
+      </c>
+      <c r="G1621" s="2" t="n">
+        <v>43017</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>581</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>13.87429809570312</v>
+      </c>
+      <c r="J1621" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>13.87429809570312</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1622" s="2" t="n">
+        <v>42835</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>609</v>
+      </c>
+      <c r="D1622" s="2" t="n">
+        <v>42730</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>594</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>50.20000076293945</v>
+      </c>
+      <c r="G1622" s="2" t="n">
+        <v>42793</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>603</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>50.65000152587891</v>
+      </c>
+      <c r="J1622" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1622" t="n">
+        <v>0.05000008477105035</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>20.49995040893555</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1623" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>657</v>
+      </c>
+      <c r="D1623" s="2" t="n">
+        <v>41925</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>642</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>3151.550048828125</v>
+      </c>
+      <c r="G1623" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>651</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>3162.60009765625</v>
+      </c>
+      <c r="J1623" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1623" t="n">
+        <v>1.227783203125</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>2363.313232421875</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1624" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1624" s="2" t="n">
+        <v>43199</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>607</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>19.27986907958984</v>
+      </c>
+      <c r="G1624" s="2" t="n">
+        <v>43346</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>628</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>19.36996269226074</v>
+      </c>
+      <c r="J1624" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1624" t="n">
+        <v>0.004290172031947545</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>16.67573465619768</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1625" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>676</v>
+      </c>
+      <c r="D1625" s="2" t="n">
+        <v>41988</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>651</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>3162.60009765625</v>
+      </c>
+      <c r="G1625" s="2" t="n">
+        <v>42121</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>670</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>3136.10009765625</v>
+      </c>
+      <c r="J1625" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1625" t="n">
+        <v>-1.394736842105263</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>4070.573781866776</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1626" s="2" t="n">
+        <v>43157</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1626" s="2" t="n">
+        <v>43017</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1626" s="2" t="n">
+        <v>43115</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>649</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>67.80000305175781</v>
+      </c>
+      <c r="J1626" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1626" t="n">
+        <v>-0.01428549630301339</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>77.0712901524135</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1627" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>761</v>
+      </c>
+      <c r="D1627" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>754</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G1627" s="2" t="n">
+        <v>42765</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>755</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>4360</v>
+      </c>
+      <c r="J1627" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>4360</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1628" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>648</v>
+      </c>
+      <c r="D1628" s="2" t="n">
+        <v>43248</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>614</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>13.1085090637207</v>
+      </c>
+      <c r="G1628" s="2" t="n">
+        <v>43444</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>642</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>13.19860172271729</v>
+      </c>
+      <c r="J1628" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1628" t="n">
+        <v>0.003217594964163644</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>11.13290575572423</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1629" s="2" t="n">
+        <v>42849</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>767</v>
+      </c>
+      <c r="D1629" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>754</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G1629" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>761</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J1629" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1629" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>1990.285714285714</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1630" s="2" t="n">
+        <v>42849</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>767</v>
+      </c>
+      <c r="D1630" s="2" t="n">
+        <v>42765</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>755</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G1630" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>761</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J1630" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1630" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>1591.666666666667</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1631" s="2" t="n">
+        <v>39202</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>591</v>
+      </c>
+      <c r="D1631" s="2" t="n">
+        <v>39118</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>249.6000061035156</v>
+      </c>
+      <c r="G1631" s="2" t="n">
+        <v>39160</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>585</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="J1631" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1631" t="n">
+        <v>-0.01666768391927083</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>259.2505950927734</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1632" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>771</v>
+      </c>
+      <c r="D1632" s="2" t="n">
+        <v>42814</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>762</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>4840</v>
+      </c>
+      <c r="G1632" s="2" t="n">
+        <v>42835</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>765</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>4840</v>
+      </c>
+      <c r="J1632" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>4840</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1633" s="2" t="n">
+        <v>43346</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1633" s="2" t="n">
+        <v>43164</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>656</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>48.29999923706055</v>
+      </c>
+      <c r="G1633" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>659</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>48.29999923706055</v>
+      </c>
+      <c r="J1633" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>48.29999923706055</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1634" s="2" t="n">
+        <v>39349</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1634" s="2" t="n">
+        <v>39146</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>583</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>176.0099945068359</v>
+      </c>
+      <c r="G1634" s="2" t="n">
+        <v>39307</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>606</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>174.8000030517578</v>
+      </c>
+      <c r="J1634" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1634" t="n">
+        <v>-0.05260832413383152</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>206.6806474768597</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1635" s="2" t="n">
+        <v>43038</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>794</v>
+      </c>
+      <c r="D1635" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>772</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G1635" s="2" t="n">
+        <v>42996</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>788</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J1635" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1635" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>3360.75</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1636" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>668</v>
+      </c>
+      <c r="D1636" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>649</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="G1636" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>651</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="J1636" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1637" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>820</v>
+      </c>
+      <c r="D1637" s="2" t="n">
+        <v>43108</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>804</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>5238.85009765625</v>
+      </c>
+      <c r="G1637" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>814</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>5252.14990234375</v>
+      </c>
+      <c r="J1637" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1637" t="n">
+        <v>1.32998046875</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>4169.54580078125</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1638" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>737</v>
+      </c>
+      <c r="D1638" s="2" t="n">
+        <v>43514</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>706</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>31.60000038146973</v>
+      </c>
+      <c r="G1638" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>731</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>31.70000076293945</v>
+      </c>
+      <c r="J1638" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1638" t="n">
+        <v>0.004000015258789062</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>28.77598960876465</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1639" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>785</v>
+      </c>
+      <c r="D1639" s="2" t="n">
+        <v>42842</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>773</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>3509.89990234375</v>
+      </c>
+      <c r="G1639" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>779</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>3476</v>
+      </c>
+      <c r="J1639" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1639" t="n">
+        <v>-5.649983723958333</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>7877.337320963541</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1640" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>760</v>
+      </c>
+      <c r="D1640" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>748</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>21.35200500488281</v>
+      </c>
+      <c r="G1640" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>754</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>21.17181968688965</v>
+      </c>
+      <c r="J1640" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1640" t="n">
+        <v>-0.03003088633219401</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>43.81510798136394</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1641" s="2" t="n">
+        <v>43640</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>880</v>
+      </c>
+      <c r="D1641" s="2" t="n">
+        <v>43514</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>862</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>7151.2001953125</v>
+      </c>
+      <c r="G1641" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>874</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>7160</v>
+      </c>
+      <c r="J1641" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1641" t="n">
+        <v>0.7333170572916666</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>6519.080891927083</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1642" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>788</v>
+      </c>
+      <c r="D1642" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>779</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>24.64039421081543</v>
+      </c>
+      <c r="G1642" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>782</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>24.64039421081543</v>
+      </c>
+      <c r="J1642" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>24.64039421081543</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1643" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>833</v>
+      </c>
+      <c r="D1643" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>813</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>4379.2001953125</v>
+      </c>
+      <c r="G1643" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>827</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J1643" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1643" t="n">
+        <v>-0.3000139508928572</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>4623.111537388393</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1644" s="2" t="n">
+        <v>43290</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>837</v>
+      </c>
+      <c r="D1644" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>822</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G1644" s="2" t="n">
+        <v>43248</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>831</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>3695.050048828125</v>
+      </c>
+      <c r="J1644" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1644" t="n">
+        <v>-1.661105685763889</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>5075.428873697916</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1645" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>777</v>
+      </c>
+      <c r="D1645" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>770</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="G1645" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>771</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="J1645" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1646" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>789</v>
+      </c>
+      <c r="D1646" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>764</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="G1646" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>783</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="J1646" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1647" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1647" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>852</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>3321.35009765625</v>
+      </c>
+      <c r="G1647" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>873</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>3325.800048828125</v>
+      </c>
+      <c r="J1647" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1647" t="n">
+        <v>0.2119024367559524</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>3140.809221540178</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1648" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>816</v>
+      </c>
+      <c r="D1648" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>795</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>10.19999980926514</v>
+      </c>
+      <c r="G1648" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>810</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>10.10000038146973</v>
+      </c>
+      <c r="J1648" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1648" t="n">
+        <v>-0.00666662851969401</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15.49996948242188</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1649" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>857</v>
+      </c>
+      <c r="D1649" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>850</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="G1649" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>851</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="J1649" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>IDFC.NS</t>
+        </is>
+      </c>
+      <c r="B1650" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>921</v>
+      </c>
+      <c r="D1650" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>907</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>73.55000305175781</v>
+      </c>
+      <c r="G1650" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>915</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>72.84999847412109</v>
+      </c>
+      <c r="J1650" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1650" t="n">
+        <v>-0.08750057220458984</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>152.9130220413208</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B1651" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>891</v>
+      </c>
+      <c r="D1651" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>878</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G1651" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>885</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J1651" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1652" s="2" t="n">
+        <v>41288</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>889</v>
+      </c>
+      <c r="D1652" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>874</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>264.7999877929688</v>
+      </c>
+      <c r="G1652" s="2" t="n">
+        <v>41246</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>883</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>266.7000122070312</v>
+      </c>
+      <c r="J1652" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1652" t="n">
+        <v>0.2111138237847222</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>80.28650580512155</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1653" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D1653" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>974</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>2931.050048828125</v>
+      </c>
+      <c r="G1653" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>1042</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>2950</v>
+      </c>
+      <c r="J1653" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1653" t="n">
+        <v>0.2786757525275735</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>2659.619865866268</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1654" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D1654" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>1102</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G1654" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>1114</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>22000</v>
+      </c>
+      <c r="J1654" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1655" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>1123</v>
+      </c>
+      <c r="D1655" s="2" t="n">
+        <v>42800</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>1105</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="G1655" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>1117</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>514</v>
+      </c>
+      <c r="J1655" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1655" t="n">
+        <v>0.1416676839192708</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>355.7571970621744</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1656" s="2" t="n">
+        <v>43360</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D1656" s="2" t="n">
+        <v>43227</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>1166</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>531.5</v>
+      </c>
+      <c r="G1656" s="2" t="n">
+        <v>43318</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>1179</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>534</v>
+      </c>
+      <c r="J1656" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1656" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>307.2692307692307</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1657" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>1228</v>
+      </c>
+      <c r="D1657" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="G1657" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>1222</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>464.3999938964844</v>
+      </c>
+      <c r="J1657" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1657" t="n">
+        <v>-0.02750091552734375</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>498.0061126708985</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1658" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D1658" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>1222</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>464.3999938964844</v>
+      </c>
+      <c r="G1658" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>1234</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>462.9500122070312</v>
+      </c>
+      <c r="J1658" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1658" t="n">
+        <v>-0.1208318074544271</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>612.0564626057942</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1659" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D1659" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>394.3500061035156</v>
+      </c>
+      <c r="G1659" s="2" t="n">
+        <v>43724</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>1237</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>393.0499877929688</v>
+      </c>
+      <c r="J1659" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1659" t="n">
+        <v>-0.0722232394748264</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>482.390135023329</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1660" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D1660" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>1286</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>641.75</v>
+      </c>
+      <c r="G1660" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>1292</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>645</v>
+      </c>
+      <c r="J1660" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1660" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>-54.83333333333326</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1661" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D1661" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>1334</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>1148.050048828125</v>
+      </c>
+      <c r="G1661" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>1341</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>1137</v>
+      </c>
+      <c r="J1661" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1661" t="n">
+        <v>-1.578578404017857</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>3253.873639787947</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1662" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D1662" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1662" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>1375</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>696.5</v>
+      </c>
+      <c r="J1662" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K1662" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>1498.583333333333</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
